--- a/data/First Pass Acceptance_Wiesbaden.xlsx
+++ b/data/First Pass Acceptance_Wiesbaden.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\firstPassAcceptance\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CEE8F69-540C-484B-BE01-7CB3EED48AD5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CD2108-69BA-48A3-BADF-90A479D37B9C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1590" windowWidth="18900" windowHeight="11055" activeTab="2" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="23280" windowHeight="15600" activeTab="2" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ACR!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FPA!$A$1:$J$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FPA!$A$1:$J$188</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="213">
   <si>
     <t>SQA</t>
   </si>
@@ -539,6 +539,144 @@
   </si>
   <si>
     <t>M1900012</t>
+  </si>
+  <si>
+    <t>Release 01.78.00</t>
+  </si>
+  <si>
+    <t>ZARA</t>
+  </si>
+  <si>
+    <t>L1900290</t>
+  </si>
+  <si>
+    <t>Release 01.80.00</t>
+  </si>
+  <si>
+    <t>Release 01.79.00</t>
+  </si>
+  <si>
+    <t>Wrong SCR</t>
+  </si>
+  <si>
+    <t>Wrong libraries</t>
+  </si>
+  <si>
+    <t>Missing entry</t>
+  </si>
+  <si>
+    <t>Missing, wrong references to URS.</t>
+  </si>
+  <si>
+    <t>REA</t>
+  </si>
+  <si>
+    <t>GIM</t>
+  </si>
+  <si>
+    <t>Missing, wrong references to TP.</t>
+  </si>
+  <si>
+    <t>L1900194</t>
+  </si>
+  <si>
+    <t>Release 01.05.01</t>
+  </si>
+  <si>
+    <t>AQC VERA</t>
+  </si>
+  <si>
+    <t>Offline review. Structure and paths incorrect, requirements contents not matching original</t>
+  </si>
+  <si>
+    <t>Release 02.2x.xx</t>
+  </si>
+  <si>
+    <t>Offline review. Contents need to be adapted to reflect usage of AQC VERA.</t>
+  </si>
+  <si>
+    <t>Offline review. Failure modes and causes need to be corrected.</t>
+  </si>
+  <si>
+    <t>Offline review. Mitigations need to be mapped to requirements.</t>
+  </si>
+  <si>
+    <t>Offline review. AQC090504.A Attachment C no longer exists.</t>
+  </si>
+  <si>
+    <t>Offline review. Tracing needs rework.</t>
+  </si>
+  <si>
+    <t>Offline review.</t>
+  </si>
+  <si>
+    <t>AQC VERA (Base)</t>
+  </si>
+  <si>
+    <t>AQC VERA (Outgoing)</t>
+  </si>
+  <si>
+    <t>AQC VERA (WebApp)</t>
+  </si>
+  <si>
+    <t>AQC VERA (Pricing)</t>
+  </si>
+  <si>
+    <t>Object list incomplete and incorrect. Requires Impact Anaylsis update.</t>
+  </si>
+  <si>
+    <t>Incorrect document used.</t>
+  </si>
+  <si>
+    <t>TP03</t>
+  </si>
+  <si>
+    <t>Copy-paste errors in comments of unexecuted steps.</t>
+  </si>
+  <si>
+    <t>BIA section incorrect</t>
+  </si>
+  <si>
+    <t>A2000019</t>
+  </si>
+  <si>
+    <t>Coment missing</t>
+  </si>
+  <si>
+    <t>Tracing is incomplete</t>
+  </si>
+  <si>
+    <t>LAG</t>
+  </si>
+  <si>
+    <t>Data review section incorrect, BIA section incorrect</t>
+  </si>
+  <si>
+    <t>Release 02.22.00</t>
+  </si>
+  <si>
+    <t>A2000031</t>
+  </si>
+  <si>
+    <t>Outgoing</t>
+  </si>
+  <si>
+    <t>TP69</t>
+  </si>
+  <si>
+    <t>Deliverables tailoring justifications insufficient, documentation impact section incorrect</t>
+  </si>
+  <si>
+    <t>Approver and project roles incorrectly defined</t>
+  </si>
+  <si>
+    <t>Traceability information incomplete</t>
+  </si>
+  <si>
+    <t>Test steps incomplete</t>
+  </si>
+  <si>
+    <t>Unit definitions missing</t>
   </si>
 </sst>
 </file>
@@ -548,7 +686,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +698,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1390,11 +1534,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4878,31 +5022,25 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C123" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="E123">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H123" s="4">
-        <v>43887</v>
-      </c>
-      <c r="I123" t="s">
-        <v>15</v>
-      </c>
-      <c r="J123" t="s">
-        <v>150</v>
+        <v>43886</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4925,11 +5063,17 @@
         <v>23</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H124" s="4">
         <v>43887</v>
       </c>
+      <c r="I124" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -4942,16 +5086,16 @@
         <v>85</v>
       </c>
       <c r="D125" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F125" t="s">
         <v>23</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H125" s="4">
         <v>43887</v>
@@ -4968,13 +5112,13 @@
         <v>85</v>
       </c>
       <c r="D126" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="G126" t="s">
         <v>31</v>
@@ -4994,26 +5138,20 @@
         <v>85</v>
       </c>
       <c r="D127" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H127" s="4">
         <v>43887</v>
       </c>
-      <c r="I127" t="s">
-        <v>15</v>
-      </c>
-      <c r="J127" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -5035,13 +5173,19 @@
         <v>23</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H128" s="4">
         <v>43887</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -5052,48 +5196,48 @@
         <v>85</v>
       </c>
       <c r="D129" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H129" s="4">
         <v>43887</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C130" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D130" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
       </c>
       <c r="H130" s="4">
-        <v>43888</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -5119,44 +5263,2249 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="C132" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D132" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="G132" t="s">
         <v>31</v>
       </c>
       <c r="H132" s="4">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>155</v>
+      </c>
+      <c r="C133" t="s">
+        <v>85</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>113</v>
+      </c>
+      <c r="G133" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133" s="4">
         <v>43889</v>
       </c>
     </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>180</v>
+      </c>
+      <c r="C134" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134" t="s">
+        <v>52</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>181</v>
+      </c>
+      <c r="G134" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134" s="4">
+        <v>43889</v>
+      </c>
+      <c r="I134" t="s">
+        <v>22</v>
+      </c>
+      <c r="J134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>180</v>
+      </c>
+      <c r="C135" t="s">
+        <v>83</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>181</v>
+      </c>
+      <c r="G135" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" s="4">
+        <v>43892</v>
+      </c>
+      <c r="I135" t="s">
+        <v>22</v>
+      </c>
+      <c r="J135" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>180</v>
+      </c>
+      <c r="C136" t="s">
+        <v>83</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>181</v>
+      </c>
+      <c r="G136" t="s">
+        <v>30</v>
+      </c>
+      <c r="H136" s="4">
+        <v>43894</v>
+      </c>
+      <c r="I136" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>180</v>
+      </c>
+      <c r="C137" t="s">
+        <v>83</v>
+      </c>
+      <c r="D137" t="s">
+        <v>49</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>181</v>
+      </c>
+      <c r="G137" t="s">
+        <v>30</v>
+      </c>
+      <c r="H137" s="4">
+        <v>43895</v>
+      </c>
+      <c r="I137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138" t="s">
+        <v>92</v>
+      </c>
+      <c r="D138" t="s">
+        <v>51</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" s="4">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" t="s">
+        <v>92</v>
+      </c>
+      <c r="D139" t="s">
+        <v>68</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" s="4">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" t="s">
+        <v>92</v>
+      </c>
+      <c r="D140" t="s">
+        <v>66</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140" t="s">
+        <v>31</v>
+      </c>
+      <c r="H140" s="4">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
+        <v>167</v>
+      </c>
+      <c r="C141" t="s">
+        <v>92</v>
+      </c>
+      <c r="D141" t="s">
+        <v>76</v>
+      </c>
+      <c r="E141">
+        <v>40</v>
+      </c>
+      <c r="F141" t="s">
+        <v>168</v>
+      </c>
+      <c r="G141" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141" s="4">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" t="s">
+        <v>83</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>181</v>
+      </c>
+      <c r="G142" t="s">
+        <v>30</v>
+      </c>
+      <c r="H142" s="4">
+        <v>43901</v>
+      </c>
+      <c r="I142" t="s">
+        <v>22</v>
+      </c>
+      <c r="J142" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>167</v>
+      </c>
+      <c r="C143" t="s">
+        <v>92</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>109</v>
+      </c>
+      <c r="G143" t="s">
+        <v>31</v>
+      </c>
+      <c r="H143" s="4">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>180</v>
+      </c>
+      <c r="C144" t="s">
+        <v>83</v>
+      </c>
+      <c r="D144" t="s">
+        <v>73</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>181</v>
+      </c>
+      <c r="G144" t="s">
+        <v>30</v>
+      </c>
+      <c r="H144" s="4">
+        <v>43902</v>
+      </c>
+      <c r="I144" t="s">
+        <v>22</v>
+      </c>
+      <c r="J144" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>180</v>
+      </c>
+      <c r="C145" t="s">
+        <v>83</v>
+      </c>
+      <c r="D145" t="s">
+        <v>55</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>181</v>
+      </c>
+      <c r="G145" t="s">
+        <v>30</v>
+      </c>
+      <c r="H145" s="4">
+        <v>43902</v>
+      </c>
+      <c r="I145" t="s">
+        <v>22</v>
+      </c>
+      <c r="J145" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>167</v>
+      </c>
+      <c r="C146" t="s">
+        <v>92</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146" s="4">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
+        <v>167</v>
+      </c>
+      <c r="C147" t="s">
+        <v>92</v>
+      </c>
+      <c r="D147" t="s">
+        <v>71</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>23</v>
+      </c>
+      <c r="G147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H147" s="4">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
+        <v>167</v>
+      </c>
+      <c r="C148" t="s">
+        <v>92</v>
+      </c>
+      <c r="D148" t="s">
+        <v>67</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>23</v>
+      </c>
+      <c r="G148" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" s="4">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
+        <v>180</v>
+      </c>
+      <c r="C149" t="s">
+        <v>83</v>
+      </c>
+      <c r="D149" t="s">
+        <v>55</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>181</v>
+      </c>
+      <c r="G149" t="s">
+        <v>30</v>
+      </c>
+      <c r="H149" s="4">
+        <v>43903</v>
+      </c>
+      <c r="I149" t="s">
+        <v>22</v>
+      </c>
+      <c r="J149" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>180</v>
+      </c>
+      <c r="C150" t="s">
+        <v>83</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>181</v>
+      </c>
+      <c r="G150" t="s">
+        <v>30</v>
+      </c>
+      <c r="H150" s="4">
+        <v>43903</v>
+      </c>
+      <c r="I150" t="s">
+        <v>22</v>
+      </c>
+      <c r="J150" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
+        <v>167</v>
+      </c>
+      <c r="C151" t="s">
+        <v>92</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" t="s">
+        <v>113</v>
+      </c>
+      <c r="G151" t="s">
+        <v>31</v>
+      </c>
+      <c r="H151" s="4">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
+        <v>167</v>
+      </c>
+      <c r="C152" t="s">
+        <v>92</v>
+      </c>
+      <c r="D152" t="s">
+        <v>48</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>169</v>
+      </c>
+      <c r="G152" t="s">
+        <v>31</v>
+      </c>
+      <c r="H152" s="4">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>180</v>
+      </c>
+      <c r="C153" t="s">
+        <v>83</v>
+      </c>
+      <c r="D153" t="s">
+        <v>78</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>181</v>
+      </c>
+      <c r="G153" t="s">
+        <v>30</v>
+      </c>
+      <c r="H153" s="4">
+        <v>43907</v>
+      </c>
+      <c r="I153" t="s">
+        <v>22</v>
+      </c>
+      <c r="J153" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>180</v>
+      </c>
+      <c r="C154" t="s">
+        <v>83</v>
+      </c>
+      <c r="D154" t="s">
+        <v>77</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
+        <v>181</v>
+      </c>
+      <c r="G154" t="s">
+        <v>30</v>
+      </c>
+      <c r="H154" s="4">
+        <v>43907</v>
+      </c>
+      <c r="I154" t="s">
+        <v>22</v>
+      </c>
+      <c r="J154" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
+        <v>170</v>
+      </c>
+      <c r="C155" t="s">
+        <v>92</v>
+      </c>
+      <c r="D155" t="s">
+        <v>51</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155" t="s">
+        <v>23</v>
+      </c>
+      <c r="G155" t="s">
+        <v>30</v>
+      </c>
+      <c r="H155" s="4">
+        <v>43908</v>
+      </c>
+      <c r="I155" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
+        <v>140</v>
+      </c>
+      <c r="C156" t="s">
+        <v>90</v>
+      </c>
+      <c r="D156" t="s">
+        <v>68</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>23</v>
+      </c>
+      <c r="G156" t="s">
+        <v>29</v>
+      </c>
+      <c r="H156" s="4">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157" t="s">
+        <v>171</v>
+      </c>
+      <c r="C157" t="s">
+        <v>92</v>
+      </c>
+      <c r="D157" t="s">
+        <v>63</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>23</v>
+      </c>
+      <c r="G157" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157" s="4">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
+        <v>171</v>
+      </c>
+      <c r="C158" t="s">
+        <v>92</v>
+      </c>
+      <c r="D158" t="s">
+        <v>51</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s">
+        <v>30</v>
+      </c>
+      <c r="H158" s="4">
+        <v>43909</v>
+      </c>
+      <c r="I158" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" t="s">
+        <v>171</v>
+      </c>
+      <c r="C159" t="s">
+        <v>92</v>
+      </c>
+      <c r="D159" t="s">
+        <v>51</v>
+      </c>
+      <c r="E159">
+        <v>3</v>
+      </c>
+      <c r="F159" t="s">
+        <v>23</v>
+      </c>
+      <c r="G159" t="s">
+        <v>30</v>
+      </c>
+      <c r="H159" s="4">
+        <v>43909</v>
+      </c>
+      <c r="I159" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
+        <v>171</v>
+      </c>
+      <c r="C160" t="s">
+        <v>92</v>
+      </c>
+      <c r="D160" t="s">
+        <v>51</v>
+      </c>
+      <c r="E160">
+        <v>4</v>
+      </c>
+      <c r="F160" t="s">
+        <v>23</v>
+      </c>
+      <c r="G160" t="s">
+        <v>30</v>
+      </c>
+      <c r="H160" s="4">
+        <v>43909</v>
+      </c>
+      <c r="I160" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" t="s">
+        <v>170</v>
+      </c>
+      <c r="C161" t="s">
+        <v>92</v>
+      </c>
+      <c r="D161" t="s">
+        <v>51</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s">
+        <v>23</v>
+      </c>
+      <c r="G161" t="s">
+        <v>29</v>
+      </c>
+      <c r="H161" s="4">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162" t="s">
+        <v>171</v>
+      </c>
+      <c r="C162" t="s">
+        <v>92</v>
+      </c>
+      <c r="D162" t="s">
+        <v>68</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>23</v>
+      </c>
+      <c r="G162" t="s">
+        <v>31</v>
+      </c>
+      <c r="H162" s="4">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" t="s">
+        <v>183</v>
+      </c>
+      <c r="C163" t="s">
+        <v>46</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>190</v>
+      </c>
+      <c r="G163" t="s">
+        <v>30</v>
+      </c>
+      <c r="H163" s="4">
+        <v>43913</v>
+      </c>
+      <c r="I163" t="s">
+        <v>22</v>
+      </c>
+      <c r="J163" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>140</v>
+      </c>
+      <c r="C164" t="s">
+        <v>90</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164">
+        <v>11</v>
+      </c>
+      <c r="F164" t="s">
+        <v>23</v>
+      </c>
+      <c r="G164" t="s">
+        <v>30</v>
+      </c>
+      <c r="H164" s="4">
+        <v>43913</v>
+      </c>
+      <c r="I164" t="s">
+        <v>22</v>
+      </c>
+      <c r="J164" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" t="s">
+        <v>140</v>
+      </c>
+      <c r="C165" t="s">
+        <v>90</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" t="s">
+        <v>109</v>
+      </c>
+      <c r="G165" t="s">
+        <v>30</v>
+      </c>
+      <c r="H165" s="4">
+        <v>43913</v>
+      </c>
+      <c r="J165" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>140</v>
+      </c>
+      <c r="C166" t="s">
+        <v>90</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166" t="s">
+        <v>109</v>
+      </c>
+      <c r="G166" t="s">
+        <v>29</v>
+      </c>
+      <c r="H166" s="4">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" t="s">
+        <v>171</v>
+      </c>
+      <c r="C167" t="s">
+        <v>92</v>
+      </c>
+      <c r="D167" t="s">
+        <v>66</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>23</v>
+      </c>
+      <c r="G167" t="s">
+        <v>30</v>
+      </c>
+      <c r="H167" s="4">
+        <v>43913</v>
+      </c>
+      <c r="I167" t="s">
+        <v>22</v>
+      </c>
+      <c r="J167" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>183</v>
+      </c>
+      <c r="C168" t="s">
+        <v>46</v>
+      </c>
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>191</v>
+      </c>
+      <c r="G168" t="s">
+        <v>30</v>
+      </c>
+      <c r="H168" s="4">
+        <v>43914</v>
+      </c>
+      <c r="I168" t="s">
+        <v>22</v>
+      </c>
+      <c r="J168" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" t="s">
+        <v>171</v>
+      </c>
+      <c r="C169" t="s">
+        <v>92</v>
+      </c>
+      <c r="D169" t="s">
+        <v>51</v>
+      </c>
+      <c r="E169">
+        <v>5</v>
+      </c>
+      <c r="F169" t="s">
+        <v>23</v>
+      </c>
+      <c r="G169" t="s">
+        <v>29</v>
+      </c>
+      <c r="H169" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170" t="s">
+        <v>92</v>
+      </c>
+      <c r="D170" t="s">
+        <v>66</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170" t="s">
+        <v>23</v>
+      </c>
+      <c r="G170" t="s">
+        <v>29</v>
+      </c>
+      <c r="H170" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>2</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171" t="s">
+        <v>92</v>
+      </c>
+      <c r="D171" t="s">
+        <v>76</v>
+      </c>
+      <c r="E171">
+        <v>14</v>
+      </c>
+      <c r="F171" t="s">
+        <v>176</v>
+      </c>
+      <c r="G171" t="s">
+        <v>31</v>
+      </c>
+      <c r="H171" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>2</v>
+      </c>
+      <c r="B172" t="s">
+        <v>171</v>
+      </c>
+      <c r="C172" t="s">
+        <v>92</v>
+      </c>
+      <c r="D172" t="s">
+        <v>76</v>
+      </c>
+      <c r="E172">
+        <v>26</v>
+      </c>
+      <c r="F172" t="s">
+        <v>177</v>
+      </c>
+      <c r="G172" t="s">
+        <v>30</v>
+      </c>
+      <c r="H172" s="4">
+        <v>43914</v>
+      </c>
+      <c r="I172" t="s">
+        <v>22</v>
+      </c>
+      <c r="J172" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" t="s">
+        <v>171</v>
+      </c>
+      <c r="C173" t="s">
+        <v>92</v>
+      </c>
+      <c r="D173" t="s">
+        <v>76</v>
+      </c>
+      <c r="E173">
+        <v>26</v>
+      </c>
+      <c r="F173" t="s">
+        <v>177</v>
+      </c>
+      <c r="G173" t="s">
+        <v>29</v>
+      </c>
+      <c r="H173" s="4">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>183</v>
+      </c>
+      <c r="C174" t="s">
+        <v>46</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>192</v>
+      </c>
+      <c r="G174" t="s">
+        <v>30</v>
+      </c>
+      <c r="H174" s="4">
+        <v>43915</v>
+      </c>
+      <c r="I174" t="s">
+        <v>22</v>
+      </c>
+      <c r="J174" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
+        <v>183</v>
+      </c>
+      <c r="C175" t="s">
+        <v>46</v>
+      </c>
+      <c r="D175" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>193</v>
+      </c>
+      <c r="G175" t="s">
+        <v>30</v>
+      </c>
+      <c r="H175" s="4">
+        <v>43915</v>
+      </c>
+      <c r="I175" t="s">
+        <v>22</v>
+      </c>
+      <c r="J175" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>140</v>
+      </c>
+      <c r="C176" t="s">
+        <v>90</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176">
+        <v>11</v>
+      </c>
+      <c r="F176" t="s">
+        <v>23</v>
+      </c>
+      <c r="G176" t="s">
+        <v>29</v>
+      </c>
+      <c r="H176" s="4">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
+        <v>140</v>
+      </c>
+      <c r="C177" t="s">
+        <v>90</v>
+      </c>
+      <c r="D177" t="s">
+        <v>51</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
+        <v>23</v>
+      </c>
+      <c r="G177" t="s">
+        <v>31</v>
+      </c>
+      <c r="H177" s="4">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" t="s">
+        <v>171</v>
+      </c>
+      <c r="C178" t="s">
+        <v>92</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>31</v>
+      </c>
+      <c r="H178" s="4">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>171</v>
+      </c>
+      <c r="C179" t="s">
+        <v>92</v>
+      </c>
+      <c r="D179" t="s">
+        <v>68</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179" t="s">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>31</v>
+      </c>
+      <c r="H179" s="4">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180" t="s">
+        <v>171</v>
+      </c>
+      <c r="C180" t="s">
+        <v>92</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180" t="s">
+        <v>109</v>
+      </c>
+      <c r="G180" t="s">
+        <v>31</v>
+      </c>
+      <c r="H180" s="4">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181" t="s">
+        <v>171</v>
+      </c>
+      <c r="C181" t="s">
+        <v>92</v>
+      </c>
+      <c r="D181" t="s">
+        <v>71</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>31</v>
+      </c>
+      <c r="H181" s="4">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" t="s">
+        <v>171</v>
+      </c>
+      <c r="C182" t="s">
+        <v>92</v>
+      </c>
+      <c r="D182" t="s">
+        <v>67</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182" t="s">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>31</v>
+      </c>
+      <c r="H182" s="4">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" t="s">
+        <v>140</v>
+      </c>
+      <c r="C183" t="s">
+        <v>90</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183" t="s">
+        <v>113</v>
+      </c>
+      <c r="G183" t="s">
+        <v>31</v>
+      </c>
+      <c r="H183" s="4">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" t="s">
+        <v>140</v>
+      </c>
+      <c r="C184" t="s">
+        <v>90</v>
+      </c>
+      <c r="D184" t="s">
+        <v>71</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>30</v>
+      </c>
+      <c r="H184" s="4">
+        <v>43917</v>
+      </c>
+      <c r="I184" t="s">
+        <v>15</v>
+      </c>
+      <c r="J184" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" t="s">
+        <v>140</v>
+      </c>
+      <c r="C185" t="s">
+        <v>90</v>
+      </c>
+      <c r="D185" t="s">
+        <v>71</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
+        <v>29</v>
+      </c>
+      <c r="H185" s="4">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" t="s">
+        <v>140</v>
+      </c>
+      <c r="C186" t="s">
+        <v>90</v>
+      </c>
+      <c r="D186" t="s">
+        <v>71</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>23</v>
+      </c>
+      <c r="G186" t="s">
+        <v>30</v>
+      </c>
+      <c r="H186" s="4">
+        <v>43917</v>
+      </c>
+      <c r="I186" t="s">
+        <v>15</v>
+      </c>
+      <c r="J186" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
+        <v>140</v>
+      </c>
+      <c r="C187" t="s">
+        <v>90</v>
+      </c>
+      <c r="D187" t="s">
+        <v>71</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>23</v>
+      </c>
+      <c r="G187" t="s">
+        <v>29</v>
+      </c>
+      <c r="H187" s="4">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" t="s">
+        <v>140</v>
+      </c>
+      <c r="C188" t="s">
+        <v>90</v>
+      </c>
+      <c r="D188" t="s">
+        <v>67</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>196</v>
+      </c>
+      <c r="G188" t="s">
+        <v>30</v>
+      </c>
+      <c r="H188" s="4">
+        <v>43917</v>
+      </c>
+      <c r="I188" t="s">
+        <v>22</v>
+      </c>
+      <c r="J188" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" t="s">
+        <v>140</v>
+      </c>
+      <c r="C189" t="s">
+        <v>90</v>
+      </c>
+      <c r="D189" t="s">
+        <v>67</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>196</v>
+      </c>
+      <c r="G189" t="s">
+        <v>29</v>
+      </c>
+      <c r="H189" s="4">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" t="s">
+        <v>204</v>
+      </c>
+      <c r="C190" t="s">
+        <v>46</v>
+      </c>
+      <c r="D190" t="s">
+        <v>48</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>205</v>
+      </c>
+      <c r="G190" t="s">
+        <v>31</v>
+      </c>
+      <c r="H190" s="4">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" t="s">
+        <v>204</v>
+      </c>
+      <c r="C191" t="s">
+        <v>46</v>
+      </c>
+      <c r="D191" t="s">
+        <v>52</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>23</v>
+      </c>
+      <c r="G191" t="s">
+        <v>30</v>
+      </c>
+      <c r="H191" s="4">
+        <v>43920</v>
+      </c>
+      <c r="I191" t="s">
+        <v>15</v>
+      </c>
+      <c r="J191" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" t="s">
+        <v>171</v>
+      </c>
+      <c r="C192" t="s">
+        <v>92</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192" t="s">
+        <v>113</v>
+      </c>
+      <c r="G192" t="s">
+        <v>30</v>
+      </c>
+      <c r="H192" s="4">
+        <v>43920</v>
+      </c>
+      <c r="I192" t="s">
+        <v>15</v>
+      </c>
+      <c r="J192" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" t="s">
+        <v>171</v>
+      </c>
+      <c r="C193" t="s">
+        <v>92</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>113</v>
+      </c>
+      <c r="G193" t="s">
+        <v>29</v>
+      </c>
+      <c r="H193" s="4">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>2</v>
+      </c>
+      <c r="B194" t="s">
+        <v>171</v>
+      </c>
+      <c r="C194" t="s">
+        <v>92</v>
+      </c>
+      <c r="D194" t="s">
+        <v>48</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>179</v>
+      </c>
+      <c r="G194" t="s">
+        <v>31</v>
+      </c>
+      <c r="H194" s="4">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>2</v>
+      </c>
+      <c r="B195" t="s">
+        <v>170</v>
+      </c>
+      <c r="C195" t="s">
+        <v>92</v>
+      </c>
+      <c r="D195" t="s">
+        <v>66</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>23</v>
+      </c>
+      <c r="G195" t="s">
+        <v>30</v>
+      </c>
+      <c r="H195" s="4">
+        <v>43920</v>
+      </c>
+      <c r="I195" t="s">
+        <v>22</v>
+      </c>
+      <c r="J195" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>2</v>
+      </c>
+      <c r="B196" t="s">
+        <v>170</v>
+      </c>
+      <c r="C196" t="s">
+        <v>92</v>
+      </c>
+      <c r="D196" t="s">
+        <v>76</v>
+      </c>
+      <c r="E196">
+        <v>6</v>
+      </c>
+      <c r="F196" t="s">
+        <v>202</v>
+      </c>
+      <c r="G196" t="s">
+        <v>30</v>
+      </c>
+      <c r="H196" s="4">
+        <v>43920</v>
+      </c>
+      <c r="I196" t="s">
+        <v>22</v>
+      </c>
+      <c r="J196" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197" t="s">
+        <v>204</v>
+      </c>
+      <c r="C197" t="s">
+        <v>46</v>
+      </c>
+      <c r="D197" t="s">
+        <v>51</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197" t="s">
+        <v>23</v>
+      </c>
+      <c r="G197" t="s">
+        <v>30</v>
+      </c>
+      <c r="H197" s="4">
+        <v>43921</v>
+      </c>
+      <c r="I197" t="s">
+        <v>22</v>
+      </c>
+      <c r="J197" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198" t="s">
+        <v>204</v>
+      </c>
+      <c r="C198" t="s">
+        <v>46</v>
+      </c>
+      <c r="D198" t="s">
+        <v>52</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198" t="s">
+        <v>23</v>
+      </c>
+      <c r="G198" t="s">
+        <v>29</v>
+      </c>
+      <c r="H198" s="4">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" t="s">
+        <v>204</v>
+      </c>
+      <c r="C199" t="s">
+        <v>46</v>
+      </c>
+      <c r="D199" t="s">
+        <v>66</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199" t="s">
+        <v>207</v>
+      </c>
+      <c r="G199" t="s">
+        <v>30</v>
+      </c>
+      <c r="H199" s="4">
+        <v>43921</v>
+      </c>
+      <c r="I199" t="s">
+        <v>15</v>
+      </c>
+      <c r="J199" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" t="s">
+        <v>204</v>
+      </c>
+      <c r="C200" t="s">
+        <v>46</v>
+      </c>
+      <c r="D200" t="s">
+        <v>76</v>
+      </c>
+      <c r="E200">
+        <v>26</v>
+      </c>
+      <c r="F200" t="s">
+        <v>206</v>
+      </c>
+      <c r="G200" t="s">
+        <v>30</v>
+      </c>
+      <c r="H200" s="4">
+        <v>43921</v>
+      </c>
+      <c r="I200" t="s">
+        <v>15</v>
+      </c>
+      <c r="J200" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201" t="s">
+        <v>204</v>
+      </c>
+      <c r="C201" t="s">
+        <v>46</v>
+      </c>
+      <c r="D201" t="s">
+        <v>63</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201" t="s">
+        <v>206</v>
+      </c>
+      <c r="G201" t="s">
+        <v>30</v>
+      </c>
+      <c r="H201" s="4">
+        <v>43922</v>
+      </c>
+      <c r="I201" t="s">
+        <v>15</v>
+      </c>
+      <c r="J201" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" t="s">
+        <v>204</v>
+      </c>
+      <c r="C202" t="s">
+        <v>46</v>
+      </c>
+      <c r="D202" t="s">
+        <v>63</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202" t="s">
+        <v>206</v>
+      </c>
+      <c r="G202" t="s">
+        <v>29</v>
+      </c>
+      <c r="H202" s="4">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1</v>
+      </c>
+      <c r="B203" t="s">
+        <v>204</v>
+      </c>
+      <c r="C203" t="s">
+        <v>46</v>
+      </c>
+      <c r="D203" t="s">
+        <v>68</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203" t="s">
+        <v>23</v>
+      </c>
+      <c r="G203" t="s">
+        <v>31</v>
+      </c>
+      <c r="H203" s="4">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1</v>
+      </c>
+      <c r="B204" t="s">
+        <v>204</v>
+      </c>
+      <c r="C204" t="s">
+        <v>46</v>
+      </c>
+      <c r="D204" t="s">
+        <v>66</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204" t="s">
+        <v>207</v>
+      </c>
+      <c r="G204" t="s">
+        <v>29</v>
+      </c>
+      <c r="H204" s="4">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" t="s">
+        <v>204</v>
+      </c>
+      <c r="C205" t="s">
+        <v>46</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" t="s">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
+        <v>31</v>
+      </c>
+      <c r="H205" s="4">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1</v>
+      </c>
+      <c r="B206" t="s">
+        <v>204</v>
+      </c>
+      <c r="C206" t="s">
+        <v>46</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206" t="s">
+        <v>109</v>
+      </c>
+      <c r="G206" t="s">
+        <v>31</v>
+      </c>
+      <c r="H206" s="4">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207" t="s">
+        <v>204</v>
+      </c>
+      <c r="C207" t="s">
+        <v>46</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207" t="s">
+        <v>113</v>
+      </c>
+      <c r="G207" t="s">
+        <v>31</v>
+      </c>
+      <c r="H207" s="4">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" t="s">
+        <v>204</v>
+      </c>
+      <c r="C208" t="s">
+        <v>46</v>
+      </c>
+      <c r="D208" t="s">
+        <v>71</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208" t="s">
+        <v>23</v>
+      </c>
+      <c r="G208" t="s">
+        <v>31</v>
+      </c>
+      <c r="H208" s="4">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1</v>
+      </c>
+      <c r="B209" t="s">
+        <v>204</v>
+      </c>
+      <c r="C209" t="s">
+        <v>46</v>
+      </c>
+      <c r="D209" t="s">
+        <v>67</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209" t="s">
+        <v>207</v>
+      </c>
+      <c r="G209" t="s">
+        <v>31</v>
+      </c>
+      <c r="H209" s="4">
+        <v>43923</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J132" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J103">
-      <sortCondition ref="H2:H103"/>
-      <sortCondition ref="B2:B103"/>
+  <autoFilter ref="A1:J188" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J188">
+      <sortCondition ref="H2:H188"/>
+      <sortCondition ref="C2:C188"/>
+      <sortCondition ref="B2:B188"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J129">
-    <sortCondition ref="H2:H129"/>
-    <sortCondition ref="C2:C129"/>
-    <sortCondition ref="D2:D129"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J209">
+    <sortCondition ref="H2:H209"/>
+    <sortCondition ref="C2:C209"/>
+    <sortCondition ref="D2:D209"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/data/First Pass Acceptance_Wiesbaden.xlsx
+++ b/data/First Pass Acceptance_Wiesbaden.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\firstPassAcceptance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CD2108-69BA-48A3-BADF-90A479D37B9C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{431652FA-521F-4525-A7CC-18A35E7CF128}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="23280" windowHeight="15600" activeTab="2" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
+    <workbookView xWindow="-1215" yWindow="-15390" windowWidth="23820" windowHeight="14235" activeTab="2" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ACR!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FPA!$A$1:$J$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FPA!$A$1:$J$230</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="243">
   <si>
     <t>SQA</t>
   </si>
@@ -677,6 +677,96 @@
   </si>
   <si>
     <t>Unit definitions missing</t>
+  </si>
+  <si>
+    <t>Tracing is incomplete, requirement missing, risk description missing</t>
+  </si>
+  <si>
+    <t>L1900186</t>
+  </si>
+  <si>
+    <t>Source Code Names missing</t>
+  </si>
+  <si>
+    <t>Requirements missing</t>
+  </si>
+  <si>
+    <t>L1900281</t>
+  </si>
+  <si>
+    <t>PAD</t>
+  </si>
+  <si>
+    <t>SYM</t>
+  </si>
+  <si>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>CDL</t>
+  </si>
+  <si>
+    <t>SPR L1900281 added</t>
+  </si>
+  <si>
+    <t>Expected result unclear</t>
+  </si>
+  <si>
+    <t>Empty fields</t>
+  </si>
+  <si>
+    <t>Investigation results unclear</t>
+  </si>
+  <si>
+    <t>Time scedule inaccurate</t>
+  </si>
+  <si>
+    <t>SPR reference is missing</t>
+  </si>
+  <si>
+    <t>Release 13.2</t>
+  </si>
+  <si>
+    <t>Not all changes described, or not based on approved version</t>
+  </si>
+  <si>
+    <t>URS structure not correct for AQC VERA, contents partially incorrect or missing</t>
+  </si>
+  <si>
+    <t>Roles &amp; responsibilities incomplete, strategy inadequate</t>
+  </si>
+  <si>
+    <t>Description unacceptable</t>
+  </si>
+  <si>
+    <t>M2000007</t>
+  </si>
+  <si>
+    <t>M2000008</t>
+  </si>
+  <si>
+    <t>Replacement SCR for M2000008, description draft needs rework</t>
+  </si>
+  <si>
+    <t>Offline review. Structure not correct, several content errors</t>
+  </si>
+  <si>
+    <t>AQC VERA (Incoming)</t>
+  </si>
+  <si>
+    <t>Offline review. Corrections based on urgent COVID-19 release</t>
+  </si>
+  <si>
+    <t>Legacy Tracing</t>
+  </si>
+  <si>
+    <t>Formatting issues, timeline correction</t>
+  </si>
+  <si>
+    <t>Formatting issues, content adaptation</t>
+  </si>
+  <si>
+    <t>Adaptations to new AS/400</t>
   </si>
 </sst>
 </file>
@@ -735,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -745,6 +835,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1534,11 +1626,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:J269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A209" sqref="A209"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A270" sqref="A270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6127,11 +6219,17 @@
         <v>23</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H161" s="4">
         <v>43909</v>
       </c>
+      <c r="I161" t="s">
+        <v>12</v>
+      </c>
+      <c r="J161" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
@@ -7066,7 +7164,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>2</v>
       </c>
@@ -7080,10 +7178,10 @@
         <v>66</v>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="G195" t="s">
         <v>30</v>
@@ -7112,7 +7210,7 @@
         <v>76</v>
       </c>
       <c r="E196">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F196" t="s">
         <v>202</v>
@@ -7466,7 +7564,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1</v>
       </c>
@@ -7492,18 +7590,1742 @@
         <v>43923</v>
       </c>
     </row>
+    <row r="210" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E210" s="5">
+        <v>1</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H210" s="4">
+        <v>43927</v>
+      </c>
+      <c r="I210" t="s">
+        <v>26</v>
+      </c>
+      <c r="J210" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" s="5">
+        <v>1</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H211" s="4">
+        <v>43928</v>
+      </c>
+      <c r="I211" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J211" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E212" s="5">
+        <v>1</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H212" s="4">
+        <v>43929</v>
+      </c>
+      <c r="I212" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J212" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E213" s="5">
+        <v>1</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H213" s="4">
+        <v>43935</v>
+      </c>
+      <c r="I213" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J213" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E214" s="5">
+        <v>1</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H214" s="4">
+        <v>43935</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J214" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" t="s">
+        <v>183</v>
+      </c>
+      <c r="C215" t="s">
+        <v>46</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E215" s="5">
+        <v>1</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H215" s="4">
+        <v>43936</v>
+      </c>
+      <c r="I215" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J215" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
+        <v>183</v>
+      </c>
+      <c r="C216" t="s">
+        <v>46</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216" s="5">
+        <v>1</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H216" s="4">
+        <v>43937</v>
+      </c>
+      <c r="I216" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J216" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" t="s">
+        <v>180</v>
+      </c>
+      <c r="C217" t="s">
+        <v>83</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E217" s="5">
+        <v>1</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H217" s="4">
+        <v>43937</v>
+      </c>
+      <c r="I217"/>
+      <c r="J217"/>
+    </row>
+    <row r="218" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218" t="s">
+        <v>180</v>
+      </c>
+      <c r="C218" t="s">
+        <v>83</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E218" s="5">
+        <v>1</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H218" s="4">
+        <v>43938</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J218" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" t="s">
+        <v>180</v>
+      </c>
+      <c r="C219" t="s">
+        <v>83</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E219" s="5">
+        <v>1</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G219" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H219" s="4">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" t="s">
+        <v>180</v>
+      </c>
+      <c r="C220" t="s">
+        <v>83</v>
+      </c>
+      <c r="D220" t="s">
+        <v>51</v>
+      </c>
+      <c r="E220" s="5">
+        <v>1</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H220" s="4">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" t="s">
+        <v>180</v>
+      </c>
+      <c r="C221" t="s">
+        <v>83</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" s="5">
+        <v>1</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G221" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H221" s="4">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" t="s">
+        <v>180</v>
+      </c>
+      <c r="C222" t="s">
+        <v>83</v>
+      </c>
+      <c r="D222" t="s">
+        <v>73</v>
+      </c>
+      <c r="E222" s="5">
+        <v>1</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H222" s="4">
+        <v>43941</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
+        <v>180</v>
+      </c>
+      <c r="C223" t="s">
+        <v>83</v>
+      </c>
+      <c r="D223" t="s">
+        <v>73</v>
+      </c>
+      <c r="E223" s="5">
+        <v>1</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H223" s="4">
+        <v>43941</v>
+      </c>
+      <c r="I223"/>
+      <c r="J223"/>
+    </row>
+    <row r="224" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
+        <v>180</v>
+      </c>
+      <c r="C224" t="s">
+        <v>83</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E224" s="5">
+        <v>1</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H224" s="4">
+        <v>43941</v>
+      </c>
+      <c r="I224"/>
+      <c r="J224"/>
+    </row>
+    <row r="225" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" t="s">
+        <v>180</v>
+      </c>
+      <c r="C225" t="s">
+        <v>83</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E225" s="5">
+        <v>1</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H225" s="4">
+        <v>43941</v>
+      </c>
+      <c r="I225"/>
+      <c r="J225"/>
+    </row>
+    <row r="226" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E226" s="5">
+        <v>1</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H226" s="6">
+        <v>43941</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J226" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227" t="s">
+        <v>170</v>
+      </c>
+      <c r="C227" t="s">
+        <v>92</v>
+      </c>
+      <c r="D227" t="s">
+        <v>51</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227" t="s">
+        <v>23</v>
+      </c>
+      <c r="G227" t="s">
+        <v>30</v>
+      </c>
+      <c r="H227" s="4">
+        <v>43941</v>
+      </c>
+      <c r="I227" t="s">
+        <v>15</v>
+      </c>
+      <c r="J227" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E228" s="5">
+        <v>1</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H228" s="6">
+        <v>43941</v>
+      </c>
+      <c r="I228" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J228" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E229" s="5">
+        <v>1</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G229" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H229" s="6">
+        <v>43941</v>
+      </c>
+      <c r="I229" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J229" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E230" s="5">
+        <v>1</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H230" s="6">
+        <v>43941</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J230" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E231" s="5">
+        <v>43</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H231" s="6">
+        <v>43941</v>
+      </c>
+      <c r="I231" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J231" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" t="s">
+        <v>180</v>
+      </c>
+      <c r="C232" t="s">
+        <v>83</v>
+      </c>
+      <c r="D232" t="s">
+        <v>63</v>
+      </c>
+      <c r="E232" s="5">
+        <v>1</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H232" s="4">
+        <v>43942</v>
+      </c>
+      <c r="I232"/>
+      <c r="J232"/>
+    </row>
+    <row r="233" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>180</v>
+      </c>
+      <c r="C233" t="s">
+        <v>83</v>
+      </c>
+      <c r="D233" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233" s="5">
+        <v>1</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G233" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H233" s="4">
+        <v>43942</v>
+      </c>
+      <c r="I233"/>
+      <c r="J233"/>
+    </row>
+    <row r="234" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" t="s">
+        <v>180</v>
+      </c>
+      <c r="C234" t="s">
+        <v>83</v>
+      </c>
+      <c r="D234" t="s">
+        <v>66</v>
+      </c>
+      <c r="E234" s="5">
+        <v>1</v>
+      </c>
+      <c r="F234" t="s">
+        <v>239</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H234" s="4">
+        <v>43942</v>
+      </c>
+      <c r="I234"/>
+      <c r="J234"/>
+    </row>
+    <row r="235" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
+        <v>180</v>
+      </c>
+      <c r="C235" t="s">
+        <v>83</v>
+      </c>
+      <c r="D235" t="s">
+        <v>66</v>
+      </c>
+      <c r="E235" s="5">
+        <v>1</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H235" s="4">
+        <v>43942</v>
+      </c>
+      <c r="I235"/>
+      <c r="J235"/>
+    </row>
+    <row r="236" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B236" t="s">
+        <v>180</v>
+      </c>
+      <c r="C236" t="s">
+        <v>83</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E236" s="5">
+        <v>1</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H236" s="4">
+        <v>43942</v>
+      </c>
+      <c r="I236"/>
+      <c r="J236"/>
+    </row>
+    <row r="237" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E237" s="5">
+        <v>1</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G237" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H237" s="6">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E238" s="5">
+        <v>1</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G238" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H238" s="6">
+        <v>43942</v>
+      </c>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>2</v>
+      </c>
+      <c r="B239" t="s">
+        <v>170</v>
+      </c>
+      <c r="C239" t="s">
+        <v>92</v>
+      </c>
+      <c r="D239" t="s">
+        <v>51</v>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+      <c r="F239" t="s">
+        <v>23</v>
+      </c>
+      <c r="G239" t="s">
+        <v>30</v>
+      </c>
+      <c r="H239" s="4">
+        <v>43942</v>
+      </c>
+      <c r="I239" t="s">
+        <v>15</v>
+      </c>
+      <c r="J239" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>2</v>
+      </c>
+      <c r="B240" t="s">
+        <v>170</v>
+      </c>
+      <c r="C240" t="s">
+        <v>92</v>
+      </c>
+      <c r="D240" t="s">
+        <v>51</v>
+      </c>
+      <c r="E240">
+        <v>2</v>
+      </c>
+      <c r="F240" t="s">
+        <v>23</v>
+      </c>
+      <c r="G240" t="s">
+        <v>29</v>
+      </c>
+      <c r="H240" s="4">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E241" s="5">
+        <v>1</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G241" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H241" s="6">
+        <v>43942</v>
+      </c>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E242" s="5">
+        <v>1</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H242" s="6">
+        <v>43942</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J242" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E243" s="5">
+        <v>1</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H243" s="6">
+        <v>43942</v>
+      </c>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E244" s="5">
+        <v>1</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H244" s="6">
+        <v>43942</v>
+      </c>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E245" s="5">
+        <v>43</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H245" s="6">
+        <v>43942</v>
+      </c>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E246" s="5">
+        <v>48</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H246" s="6">
+        <v>43942</v>
+      </c>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E247" s="5">
+        <v>23</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H247" s="6">
+        <v>43942</v>
+      </c>
+      <c r="I247" s="5"/>
+      <c r="J247" s="5"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E248" s="5">
+        <v>16</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H248" s="6">
+        <v>43942</v>
+      </c>
+      <c r="I248" s="5"/>
+      <c r="J248" s="5"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E249" s="5">
+        <v>3</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H249" s="6">
+        <v>43942</v>
+      </c>
+      <c r="I249" s="5"/>
+      <c r="J249" s="5"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B250" t="s">
+        <v>180</v>
+      </c>
+      <c r="C250" t="s">
+        <v>83</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" s="5">
+        <v>1</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H250" s="4">
+        <v>43943</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J250" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B251" t="s">
+        <v>180</v>
+      </c>
+      <c r="C251" t="s">
+        <v>83</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" s="5">
+        <v>1</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H251" s="4">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B252" t="s">
+        <v>180</v>
+      </c>
+      <c r="C252" t="s">
+        <v>83</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="5">
+        <v>1</v>
+      </c>
+      <c r="F252" t="s">
+        <v>109</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H252" s="4">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" s="5">
+        <v>1</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H253" s="6">
+        <v>43943</v>
+      </c>
+      <c r="I253" s="5"/>
+      <c r="J253" s="5"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="5">
+        <v>1</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H254" s="6">
+        <v>43943</v>
+      </c>
+      <c r="I254" s="5"/>
+      <c r="J254" s="5"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B255" t="s">
+        <v>180</v>
+      </c>
+      <c r="C255" t="s">
+        <v>83</v>
+      </c>
+      <c r="D255" t="s">
+        <v>71</v>
+      </c>
+      <c r="E255" s="5">
+        <v>1</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G255" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H255" s="4">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E256" s="5">
+        <v>1</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H256" s="4">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B257" t="s">
+        <v>180</v>
+      </c>
+      <c r="C257" t="s">
+        <v>83</v>
+      </c>
+      <c r="D257" t="s">
+        <v>77</v>
+      </c>
+      <c r="E257" s="5">
+        <v>1</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H257" s="4">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B258" t="s">
+        <v>180</v>
+      </c>
+      <c r="C258" t="s">
+        <v>83</v>
+      </c>
+      <c r="D258" t="s">
+        <v>67</v>
+      </c>
+      <c r="E258" s="5">
+        <v>1</v>
+      </c>
+      <c r="F258" t="s">
+        <v>239</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H258" s="4">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B259" t="s">
+        <v>180</v>
+      </c>
+      <c r="C259" t="s">
+        <v>83</v>
+      </c>
+      <c r="D259" t="s">
+        <v>67</v>
+      </c>
+      <c r="E259" s="5">
+        <v>1</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H259" s="4">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B260" t="s">
+        <v>180</v>
+      </c>
+      <c r="C260" t="s">
+        <v>83</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="5">
+        <v>1</v>
+      </c>
+      <c r="F260" t="s">
+        <v>113</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H260" s="4">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G261" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H261" s="6">
+        <v>43945</v>
+      </c>
+      <c r="I261" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J261" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H262" s="6">
+        <v>43945</v>
+      </c>
+      <c r="I262" s="5"/>
+      <c r="J262" s="5"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E263" s="5">
+        <v>1</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H263" s="6">
+        <v>43945</v>
+      </c>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E264" s="5">
+        <v>1</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H264" s="6">
+        <v>43945</v>
+      </c>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B265" t="s">
+        <v>180</v>
+      </c>
+      <c r="C265" t="s">
+        <v>83</v>
+      </c>
+      <c r="D265" t="s">
+        <v>71</v>
+      </c>
+      <c r="E265" s="5">
+        <v>2</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G265" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H265" s="4">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="5">
+        <v>1</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H266" s="6">
+        <v>43950</v>
+      </c>
+      <c r="I266" s="5"/>
+      <c r="J266" s="5"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E267" s="5">
+        <v>1</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H267" s="6">
+        <v>43950</v>
+      </c>
+      <c r="I267" s="5"/>
+      <c r="J267" s="5"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E268" s="5">
+        <v>1</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G268" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H268" s="6">
+        <v>43950</v>
+      </c>
+      <c r="I268" s="5"/>
+      <c r="J268" s="5"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E269" s="5">
+        <v>1</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H269" s="4">
+        <v>43951</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J188" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J188">
-      <sortCondition ref="H2:H188"/>
-      <sortCondition ref="C2:C188"/>
-      <sortCondition ref="B2:B188"/>
+  <autoFilter ref="A1:J230" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A155:J225">
+      <sortCondition ref="D1:D225"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J209">
-    <sortCondition ref="H2:H209"/>
-    <sortCondition ref="C2:C209"/>
-    <sortCondition ref="D2:D209"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J269">
+    <sortCondition ref="H2:H269"/>
+    <sortCondition ref="C2:C269"/>
+    <sortCondition ref="D2:D269"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/First Pass Acceptance_Wiesbaden.xlsx
+++ b/data/First Pass Acceptance_Wiesbaden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\firstPassAcceptance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{431652FA-521F-4525-A7CC-18A35E7CF128}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E74EFF0-84E8-48C8-8C17-2F536948FCE0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1215" yWindow="-15390" windowWidth="23820" windowHeight="14235" activeTab="2" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ACR!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FPA!$A$1:$J$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FPA!$A$1:$J$309</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="271">
   <si>
     <t>SQA</t>
   </si>
@@ -767,6 +767,90 @@
   </si>
   <si>
     <t>Adaptations to new AS/400</t>
+  </si>
+  <si>
+    <t>Tracing/references incorrect</t>
+  </si>
+  <si>
+    <t>Incorrect systemname, references incorrect, strategy inadequate</t>
+  </si>
+  <si>
+    <t>Tailoring table incomplete, system impact incorrect</t>
+  </si>
+  <si>
+    <t>Incorrect system name, outlined process inadequate</t>
+  </si>
+  <si>
+    <t>Several sections are incorrect (not taking COTS nature into account)</t>
+  </si>
+  <si>
+    <t>Changes incompletely implemented</t>
+  </si>
+  <si>
+    <t>Tracing/references still incorrect</t>
+  </si>
+  <si>
+    <t>Tracing/references still incorrect, risk classifications inconsistent</t>
+  </si>
+  <si>
+    <t>Formal errors, strategy discussion ongoing, DP aspects not final</t>
+  </si>
+  <si>
+    <t>Outlined process still needs rework (because of COTS nature)</t>
+  </si>
+  <si>
+    <t>Tailoring table still incomplete, system impact still incorrect</t>
+  </si>
+  <si>
+    <t>Release 01.11.01</t>
+  </si>
+  <si>
+    <t>Requirement specifications need rework</t>
+  </si>
+  <si>
+    <t>Release 01.81.00</t>
+  </si>
+  <si>
+    <t>BOML</t>
+  </si>
+  <si>
+    <t>L2000059</t>
+  </si>
+  <si>
+    <t>L2000076</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Content and result do not match, several process and logical errors</t>
+  </si>
+  <si>
+    <t>Item type selections partially incorrect, contents still need some rework</t>
+  </si>
+  <si>
+    <t>Several RS include content errors or are missing completely</t>
+  </si>
+  <si>
+    <t>Some RS have been created as Groups, risk classifications need to be changed and tracing is missing entirely</t>
+  </si>
+  <si>
+    <t>Tracing is still partially missing, one risk classification is missing</t>
+  </si>
+  <si>
+    <t>Additional changes required, contents incorrect, tracing is still partially missing</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1818BC-AC9F-4D38-87AF-905538E5415F}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1444,81 +1528,86 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E44">
     <sortCondition ref="C25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1626,11 +1715,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J269"/>
+  <dimension ref="A1:J315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A270" sqref="A270"/>
+      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9316,16 +9405,1397 @@
         <v>43951</v>
       </c>
     </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E270" s="5">
+        <v>1</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H270" s="4">
+        <v>43955</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J270" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E271" s="5">
+        <v>1</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H271" s="4">
+        <v>43955</v>
+      </c>
+      <c r="I271" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J271" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E272" s="5">
+        <v>1</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H272" s="4">
+        <v>43955</v>
+      </c>
+      <c r="I272" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J272" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E273" s="5">
+        <v>1</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H273" s="4">
+        <v>43955</v>
+      </c>
+      <c r="I273" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J273" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E274" s="5">
+        <v>1</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G274" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H274" s="4">
+        <v>43955</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E275" s="5">
+        <v>1</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G275" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H275" s="4">
+        <v>43955</v>
+      </c>
+      <c r="I275" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J275" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H276" s="6">
+        <v>43955</v>
+      </c>
+      <c r="I276" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J276" s="5"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E277" s="5">
+        <v>1</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G277" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H277" s="4">
+        <v>43956</v>
+      </c>
+      <c r="I277" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J277" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E278" s="5">
+        <v>1</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H278" s="4">
+        <v>43957</v>
+      </c>
+      <c r="I278" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J278" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E279" s="5">
+        <v>1</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G279" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H279" s="4">
+        <v>43963</v>
+      </c>
+      <c r="I279" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J279" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E280" s="5">
+        <v>1</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H280" s="4">
+        <v>43963</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J280" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E281" s="5">
+        <v>1</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G281" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H281" s="4">
+        <v>43963</v>
+      </c>
+      <c r="I281" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J281" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E282" s="5">
+        <v>1</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H282" s="4">
+        <v>43963</v>
+      </c>
+      <c r="I282" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J282" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E283" s="5">
+        <v>1</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G283" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H283" s="4">
+        <v>43963</v>
+      </c>
+      <c r="I283" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J283" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H284" s="6">
+        <v>43963</v>
+      </c>
+      <c r="I284" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J284" s="5"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E285" s="5">
+        <v>1</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G285" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H285" s="4">
+        <v>43966</v>
+      </c>
+      <c r="I285" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J285" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E286" s="5">
+        <v>1</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G286" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H286" s="6">
+        <v>43966</v>
+      </c>
+      <c r="I286" s="5"/>
+      <c r="J286" s="5"/>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E287" s="5">
+        <v>1</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G287" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H287" s="6">
+        <v>43966</v>
+      </c>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5"/>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E288" s="5">
+        <v>1</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H288" s="6">
+        <v>43966</v>
+      </c>
+      <c r="I288" s="5"/>
+      <c r="J288" s="5"/>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E289" s="5">
+        <v>1</v>
+      </c>
+      <c r="F289" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G289" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H289" s="6">
+        <v>43966</v>
+      </c>
+      <c r="I289" s="5"/>
+      <c r="J289" s="5"/>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="5">
+        <v>1</v>
+      </c>
+      <c r="F290" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G290" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H290" s="6">
+        <v>43966</v>
+      </c>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E291" s="5">
+        <v>1</v>
+      </c>
+      <c r="F291" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G291" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H291" s="6">
+        <v>43966</v>
+      </c>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5"/>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E292" s="5">
+        <v>1</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G292" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H292" s="6">
+        <v>43966</v>
+      </c>
+      <c r="I292" s="5"/>
+      <c r="J292" s="5"/>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E293" s="5">
+        <v>16</v>
+      </c>
+      <c r="F293" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G293" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H293" s="6">
+        <v>43966</v>
+      </c>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5"/>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E294" s="5">
+        <v>44</v>
+      </c>
+      <c r="F294" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G294" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H294" s="6">
+        <v>43966</v>
+      </c>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E295" s="5">
+        <v>27</v>
+      </c>
+      <c r="F295" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G295" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H295" s="6">
+        <v>43966</v>
+      </c>
+      <c r="I295" s="5"/>
+      <c r="J295" s="5"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E296" s="5">
+        <v>15</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G296" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H296" s="6">
+        <v>43966</v>
+      </c>
+      <c r="I296" s="5"/>
+      <c r="J296" s="5"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" s="5">
+        <v>1</v>
+      </c>
+      <c r="F297" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G297" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H297" s="6">
+        <v>43969</v>
+      </c>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E298" s="5">
+        <v>2</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G298" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H298" s="6">
+        <v>43969</v>
+      </c>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F299" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G299" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H299" s="6">
+        <v>43969</v>
+      </c>
+      <c r="I299" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J299" s="5"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E300" s="5">
+        <v>1</v>
+      </c>
+      <c r="F300" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G300" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H300" s="6">
+        <v>43970</v>
+      </c>
+      <c r="I300" s="5"/>
+      <c r="J300" s="5"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F301" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G301" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H301" s="6">
+        <v>43970</v>
+      </c>
+      <c r="I301" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J301" s="5"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F302" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G302" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H302" s="6">
+        <v>43970</v>
+      </c>
+      <c r="I302" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J302" s="5"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E303" s="5">
+        <v>1</v>
+      </c>
+      <c r="F303" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G303" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H303" s="6">
+        <v>43970</v>
+      </c>
+      <c r="J303" s="5"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E304" s="5">
+        <v>1</v>
+      </c>
+      <c r="F304" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G304" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H304" s="6">
+        <v>43970</v>
+      </c>
+      <c r="I304" s="5"/>
+      <c r="J304" s="5"/>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E305" s="5">
+        <v>1</v>
+      </c>
+      <c r="F305" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G305" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H305" s="4">
+        <v>43971</v>
+      </c>
+      <c r="I305" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J305" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E306" s="5">
+        <v>6</v>
+      </c>
+      <c r="F306" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G306" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H306" s="6">
+        <v>43971</v>
+      </c>
+      <c r="I306" s="5"/>
+      <c r="J306" s="5"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="5">
+        <v>2</v>
+      </c>
+      <c r="F307" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G307" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H307" s="6">
+        <v>43978</v>
+      </c>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E308" s="5">
+        <v>1</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G308" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H308" s="6">
+        <v>43978</v>
+      </c>
+      <c r="I308" s="5"/>
+      <c r="J308" s="5"/>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E309" s="5">
+        <v>1</v>
+      </c>
+      <c r="F309" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G309" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H309" s="6">
+        <v>43978</v>
+      </c>
+      <c r="I309" s="5"/>
+      <c r="J309" s="5"/>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G310" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H310" s="4">
+        <v>43979</v>
+      </c>
+      <c r="I310" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J310" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E311" s="5">
+        <v>1</v>
+      </c>
+      <c r="F311" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G311" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H311" s="4">
+        <v>43980</v>
+      </c>
+      <c r="I311" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J311" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E312" s="5">
+        <v>1</v>
+      </c>
+      <c r="F312" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G312" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H312" s="4">
+        <v>43994</v>
+      </c>
+      <c r="I312" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J312" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E313" s="5">
+        <v>1</v>
+      </c>
+      <c r="F313" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G313" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H313" s="4">
+        <v>43999</v>
+      </c>
+      <c r="I313" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J313" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E314" s="5">
+        <v>1</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G314" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H314" s="4">
+        <v>44001</v>
+      </c>
+      <c r="I314" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J314" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E315" s="5">
+        <v>1</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G315" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H315" s="4">
+        <v>44005</v>
+      </c>
+      <c r="I315" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J315" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J230" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
+  <autoFilter ref="A1:J309" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A155:J225">
       <sortCondition ref="D1:D225"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J269">
-    <sortCondition ref="H2:H269"/>
-    <sortCondition ref="C2:C269"/>
-    <sortCondition ref="D2:D269"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J315">
+    <sortCondition ref="H2:H315"/>
+    <sortCondition ref="C2:C315"/>
+    <sortCondition ref="D2:D315"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9333,18 +10803,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4698F7A-0802-4195-8585-1B0866AABCC3}">
-          <x14:formula1>
-            <xm:f>Config!$D$2:$D$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF95E1C6-5B3F-419D-ADFD-AA23C2C80F28}">
-          <x14:formula1>
-            <xm:f>Config!$C$2:$C$43</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$103</xm:f>
@@ -9363,6 +10821,18 @@
           </x14:formula1>
           <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4698F7A-0802-4195-8585-1B0866AABCC3}">
+          <x14:formula1>
+            <xm:f>Config!$D$2:$D$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I300 I302:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF95E1C6-5B3F-419D-ADFD-AA23C2C80F28}">
+          <x14:formula1>
+            <xm:f>Config!$C$2:$C$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>

--- a/data/First Pass Acceptance_Wiesbaden.xlsx
+++ b/data/First Pass Acceptance_Wiesbaden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\firstPassAcceptance\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E74EFF0-84E8-48C8-8C17-2F536948FCE0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC09B9E-423C-4D31-8ECD-368AD8FA9187}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
+    <workbookView xWindow="22530" yWindow="1245" windowWidth="25470" windowHeight="18420" activeTab="2" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ACR!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FPA!$A$1:$J$309</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FPA!$A$1:$J$396</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="309">
   <si>
     <t>SQA</t>
   </si>
@@ -851,6 +851,120 @@
   </si>
   <si>
     <t>Additional changes required, contents incorrect, tracing is still partially missing</t>
+  </si>
+  <si>
+    <t>FSP</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Several fields empty</t>
+  </si>
+  <si>
+    <t>Several incorrect references</t>
+  </si>
+  <si>
+    <t>Release 1.1</t>
+  </si>
+  <si>
+    <t>FIIS</t>
+  </si>
+  <si>
+    <t>Several version information mismatches</t>
+  </si>
+  <si>
+    <t>BPO &amp; TR missing</t>
+  </si>
+  <si>
+    <t>WI_C000001</t>
+  </si>
+  <si>
+    <t>WI_C000002</t>
+  </si>
+  <si>
+    <t>WI_L000001</t>
+  </si>
+  <si>
+    <t>Release 9.7</t>
+  </si>
+  <si>
+    <t>MCPR</t>
+  </si>
+  <si>
+    <t>AIR is no longer used, transition to SCR/ACR/IPDR in AQC VERA has concluded</t>
+  </si>
+  <si>
+    <t>Req Coverage missing</t>
+  </si>
+  <si>
+    <t>Release 01.82.00</t>
+  </si>
+  <si>
+    <t>L2000112</t>
+  </si>
+  <si>
+    <t>L2000073</t>
+  </si>
+  <si>
+    <t>L2000066</t>
+  </si>
+  <si>
+    <t>L2000117</t>
+  </si>
+  <si>
+    <t>Release 01.83.00</t>
+  </si>
+  <si>
+    <t>ALC</t>
+  </si>
+  <si>
+    <t>L2000060</t>
+  </si>
+  <si>
+    <t>Release content change</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>Contains several references to AIR and descriptions of the workflows</t>
+  </si>
+  <si>
+    <t>Several trace links missing or incorrect</t>
+  </si>
+  <si>
+    <t>One empty step needs to be deleted</t>
+  </si>
+  <si>
+    <t>Contains reference to eRIM, replace with DLM</t>
+  </si>
+  <si>
+    <t>Incorrrect SPR references, tailoring incorrect, contains reference to eRIM, replace with DLM</t>
+  </si>
+  <si>
+    <t>Rich text filled with redndant information</t>
+  </si>
+  <si>
+    <t>WI_L000002</t>
+  </si>
+  <si>
+    <t>GER42 serial# missing</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>Additional code</t>
+  </si>
+  <si>
+    <t>17a</t>
+  </si>
+  <si>
+    <t>17b</t>
   </si>
 </sst>
 </file>
@@ -909,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -921,6 +1035,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1818BC-AC9F-4D38-87AF-905538E5415F}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1348,7 +1463,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
         <v>62</v>
@@ -1359,7 +1474,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
         <v>63</v>
@@ -1370,7 +1485,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>91</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
         <v>49</v>
@@ -1381,7 +1496,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1392,7 +1507,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
@@ -1403,7 +1518,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1414,7 +1529,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -1425,7 +1540,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -1436,7 +1551,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1447,7 +1562,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -1455,7 +1570,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
@@ -1463,152 +1578,166 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>264</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E44">
-    <sortCondition ref="C25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
+    <sortCondition ref="C29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1617,11 +1746,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DAE5DB-E055-4B79-809B-3CC2C4CB7528}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,30 +1799,153 @@
         <v>39</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="7">
+        <v>44019</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="7">
+        <v>44021</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="7">
+        <v>44022</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="7">
+        <v>44033</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="7">
+        <v>44041</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44041</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="7">
+        <v>44043</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{3A9C1769-6EE6-49EC-A1F0-37710006E669}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J4">
+    <sortCondition ref="D2:D4"/>
+    <sortCondition ref="B2:B4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C3C92040-D72E-4EF6-BBC5-6AA8D8595C6E}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$16</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4260E77A-0060-4AD1-A06E-9DFD65E1B213}">
-          <x14:formula1>
-            <xm:f>Config!$B$2:$B$103</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C1362870-EEE2-41F3-81AD-20771FC144DE}">
-          <x14:formula1>
-            <xm:f>Config!$E$2:$E$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2D2E8A2F-93BE-491B-B991-93FA52D368BA}">
           <x14:formula1>
@@ -1705,7 +1957,13 @@
           <x14:formula1>
             <xm:f>Config!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
+          <xm:sqref>H2:H1048576 E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4260E77A-0060-4AD1-A06E-9DFD65E1B213}">
+          <x14:formula1>
+            <xm:f>Config!$B$2:$B$106</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1715,11 +1973,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J315"/>
+  <dimension ref="A1:J396"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A316" sqref="A316"/>
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H364" sqref="H364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10692,19 +10950,19 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E313" s="5">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="F313" s="5" t="s">
         <v>23</v>
@@ -10712,90 +10970,2413 @@
       <c r="G313" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H313" s="4">
-        <v>43999</v>
+      <c r="H313" s="6">
+        <v>43997</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J313" s="5" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E314" s="5">
         <v>1</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H314" s="4">
-        <v>44001</v>
-      </c>
-      <c r="I314" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J314" s="5" t="s">
-        <v>269</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H314" s="6">
+        <v>43997</v>
+      </c>
+      <c r="I314" s="5"/>
+      <c r="J314" s="5"/>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B315" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E315" s="5">
+        <v>1</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G315" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H315" s="6">
+        <v>43997</v>
+      </c>
+      <c r="I315" s="5"/>
+      <c r="J315" s="5"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E316" s="5">
+        <v>1</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G316" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H316" s="6">
+        <v>43997</v>
+      </c>
+      <c r="I316" s="5"/>
+      <c r="J316" s="5"/>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E317" s="5">
+        <v>49</v>
+      </c>
+      <c r="F317" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G317" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H317" s="6">
+        <v>43997</v>
+      </c>
+      <c r="I317" s="5"/>
+      <c r="J317" s="5"/>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E318" s="5">
+        <v>45</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G318" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H318" s="6">
+        <v>43997</v>
+      </c>
+      <c r="I318" s="5"/>
+      <c r="J318" s="5"/>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E319" s="5">
+        <v>30</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G319" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H319" s="6">
+        <v>43997</v>
+      </c>
+      <c r="I319" s="5"/>
+      <c r="J319" s="5"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B320" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C315" s="5" t="s">
+      <c r="C320" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D315" s="5" t="s">
+      <c r="D320" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E315" s="5">
-        <v>1</v>
-      </c>
-      <c r="F315" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G315" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H315" s="4">
+      <c r="E320" s="5">
+        <v>1</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H320" s="4">
+        <v>43999</v>
+      </c>
+      <c r="I320" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J320" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E321" s="5">
+        <v>1</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G321" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H321" s="6">
+        <v>44000</v>
+      </c>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322" s="5">
+        <v>2</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G322" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H322" s="6">
+        <v>44000</v>
+      </c>
+      <c r="I322" s="5"/>
+      <c r="J322" s="5"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G323" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H323" s="6">
+        <v>44000</v>
+      </c>
+      <c r="I323" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J323" s="5"/>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E324" s="5">
+        <v>1</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H324" s="4">
+        <v>44001</v>
+      </c>
+      <c r="I324" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J324" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E325" s="5">
+        <v>1</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G325" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H325" s="6">
+        <v>44001</v>
+      </c>
+      <c r="I325" s="5"/>
+      <c r="J325" s="5"/>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E326" s="5">
+        <v>1</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G326" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H326" s="6">
+        <v>44001</v>
+      </c>
+      <c r="I326" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J326" s="5"/>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E327" s="5">
+        <v>1</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G327" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H327" s="6">
+        <v>44001</v>
+      </c>
+      <c r="I327" s="5"/>
+      <c r="J327" s="5"/>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E328" s="5">
+        <v>1</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H328" s="6">
+        <v>44001</v>
+      </c>
+      <c r="I328" s="5"/>
+      <c r="J328" s="5"/>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F329" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G329" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H329" s="6">
+        <v>44001</v>
+      </c>
+      <c r="I329" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J329" s="5"/>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G330" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H330" s="6">
+        <v>44001</v>
+      </c>
+      <c r="I330" s="5"/>
+      <c r="J330" s="5"/>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E331" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G331" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H331" s="6">
+        <v>44002</v>
+      </c>
+      <c r="I331" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J331" s="5"/>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E332" s="5">
+        <v>1</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G332" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H332" s="4">
         <v>44005</v>
       </c>
-      <c r="I315" s="5" t="s">
+      <c r="I332" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J315" s="5" t="s">
+      <c r="J332" s="5" t="s">
         <v>270</v>
       </c>
     </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E333" s="5">
+        <v>1</v>
+      </c>
+      <c r="F333" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G333" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H333" s="6">
+        <v>44005</v>
+      </c>
+      <c r="I333" s="5"/>
+      <c r="J333" s="5"/>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E334" s="5">
+        <v>1</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G334" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H334" s="6">
+        <v>44005</v>
+      </c>
+      <c r="I334" s="5"/>
+      <c r="J334" s="5"/>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E335" s="5">
+        <v>1</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G335" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H335" s="6">
+        <v>44005</v>
+      </c>
+      <c r="I335" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J335" s="5"/>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E336" s="5">
+        <v>2</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G336" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H336" s="6">
+        <v>44006</v>
+      </c>
+      <c r="I336" s="5"/>
+      <c r="J336" s="5"/>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E337" s="5">
+        <v>1</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G337" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H337" s="6">
+        <v>44006</v>
+      </c>
+      <c r="I337" s="5"/>
+      <c r="J337" s="5"/>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E338" s="5">
+        <v>1</v>
+      </c>
+      <c r="F338" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G338" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H338" s="6">
+        <v>44007</v>
+      </c>
+      <c r="I338" s="5"/>
+      <c r="J338" s="5"/>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E339" s="5">
+        <v>3</v>
+      </c>
+      <c r="F339" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G339" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H339" s="6">
+        <v>44007</v>
+      </c>
+      <c r="I339" s="5"/>
+      <c r="J339" s="5"/>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E340" s="5">
+        <v>2</v>
+      </c>
+      <c r="F340" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G340" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H340" s="6">
+        <v>44007</v>
+      </c>
+      <c r="I340" s="5"/>
+      <c r="J340" s="5"/>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E341" s="5">
+        <v>2</v>
+      </c>
+      <c r="F341" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G341" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H341" s="6">
+        <v>44007</v>
+      </c>
+      <c r="I341" s="5"/>
+      <c r="J341" s="5"/>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E342" s="5">
+        <v>1</v>
+      </c>
+      <c r="F342" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G342" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H342" s="6">
+        <v>44009</v>
+      </c>
+      <c r="I342" s="5"/>
+      <c r="J342" s="5"/>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E343" s="5">
+        <v>1</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G343" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H343" s="6">
+        <v>44009</v>
+      </c>
+      <c r="I343" s="5"/>
+      <c r="J343" s="5"/>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E344" s="5">
+        <v>1</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G344" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H344" s="6">
+        <v>44009</v>
+      </c>
+      <c r="I344" s="5"/>
+      <c r="J344" s="5"/>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E345" s="5">
+        <v>1</v>
+      </c>
+      <c r="F345" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G345" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H345" s="6">
+        <v>44009</v>
+      </c>
+      <c r="I345" s="5"/>
+      <c r="J345" s="5"/>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E346" s="5">
+        <v>2</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G346" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H346" s="6">
+        <v>44011</v>
+      </c>
+      <c r="I346" s="5"/>
+      <c r="J346" s="5"/>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E347" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F347" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G347" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H347" s="6">
+        <v>44015</v>
+      </c>
+      <c r="I347" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J347" s="5"/>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D348" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G348" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H348" s="6">
+        <v>44015</v>
+      </c>
+      <c r="I348" s="5"/>
+      <c r="J348" s="5"/>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G349" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H349" s="6">
+        <v>44015</v>
+      </c>
+      <c r="I349" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J349" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G350" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H350" s="6">
+        <v>44015</v>
+      </c>
+      <c r="I350" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J350" s="5"/>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E351" s="5">
+        <v>1</v>
+      </c>
+      <c r="F351" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G351" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H351" s="6">
+        <v>44015</v>
+      </c>
+      <c r="I351" s="5"/>
+      <c r="J351" s="5"/>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E352" s="5">
+        <v>1</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G352" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H352" s="6">
+        <v>44015</v>
+      </c>
+      <c r="I352" s="5"/>
+      <c r="J352" s="5"/>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E353" s="5">
+        <v>16</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G353" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H353" s="6">
+        <v>44015</v>
+      </c>
+      <c r="I353" s="5"/>
+      <c r="J353" s="5"/>
+    </row>
+    <row r="354" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E354" s="5">
+        <v>17</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G354" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H354" s="6">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D355" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E355" s="5">
+        <v>16</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G355" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H355" s="6">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E356" s="5">
+        <v>24</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H356" s="6">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E357" s="5">
+        <v>1</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G357" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H357" s="4">
+        <v>44021</v>
+      </c>
+      <c r="I357" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J357" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E358" s="5">
+        <v>6</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G358" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H358" s="4">
+        <v>44021</v>
+      </c>
+      <c r="I358" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J358" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E359" s="5">
+        <v>1</v>
+      </c>
+      <c r="F359">
+        <v>398</v>
+      </c>
+      <c r="G359" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H359" s="4">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E360" s="5">
+        <v>1</v>
+      </c>
+      <c r="F360">
+        <v>399</v>
+      </c>
+      <c r="G360" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H360" s="4">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D361" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E361" s="5">
+        <v>1</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G361" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H361" s="4">
+        <v>44025</v>
+      </c>
+      <c r="I361" t="s">
+        <v>17</v>
+      </c>
+      <c r="J361" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E362" s="5">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>400</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H362" s="4">
+        <v>44028</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D363" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E363" s="5">
+        <v>6</v>
+      </c>
+      <c r="F363" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G363" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H363" s="4">
+        <v>44029</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D364" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E364" s="5">
+        <v>1</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H364" s="4">
+        <v>44029</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E365" s="5">
+        <v>1</v>
+      </c>
+      <c r="F365">
+        <v>402</v>
+      </c>
+      <c r="G365" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H365" s="4">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E366" s="5">
+        <v>1</v>
+      </c>
+      <c r="F366">
+        <v>403</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H366" s="4">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E367" s="5">
+        <v>1</v>
+      </c>
+      <c r="F367">
+        <v>401</v>
+      </c>
+      <c r="G367" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H367" s="4">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E368" s="5">
+        <v>1</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H368" s="4">
+        <v>44033</v>
+      </c>
+      <c r="I368" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J368" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D369" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E369" s="5">
+        <v>1</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G369" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H369" s="4">
+        <v>44033</v>
+      </c>
+      <c r="I369" t="s">
+        <v>15</v>
+      </c>
+      <c r="J369" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E370" s="5">
+        <v>1</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H370" s="4">
+        <v>44033</v>
+      </c>
+      <c r="I370" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E371" s="5">
+        <v>1</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G371" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H371" s="4">
+        <v>44033</v>
+      </c>
+      <c r="I371" t="s">
+        <v>27</v>
+      </c>
+      <c r="J371" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E372" s="5">
+        <v>1</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H372" s="4">
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E373" s="5">
+        <v>1</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G373" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H373" s="4">
+        <v>44035</v>
+      </c>
+      <c r="I373" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J373" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G374" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H374" s="6">
+        <v>44036</v>
+      </c>
+      <c r="I374" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J374" s="5"/>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D375" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G375" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H375" s="6">
+        <v>44037</v>
+      </c>
+      <c r="I375" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J375" s="5"/>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D376" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G376" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H376" s="6">
+        <v>44039</v>
+      </c>
+      <c r="I376" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J376" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D377" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E377" s="5">
+        <v>1</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G377" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H377" s="4">
+        <v>44039</v>
+      </c>
+      <c r="I377" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J377" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D378" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G378" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H378" s="6">
+        <v>44040</v>
+      </c>
+      <c r="I378" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J378" s="5"/>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D379" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E379" s="5">
+        <v>1</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G379" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H379" s="4">
+        <v>44040</v>
+      </c>
+      <c r="I379" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J379" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D380" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E380" s="5">
+        <v>1</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H380" s="4">
+        <v>44040</v>
+      </c>
+      <c r="I380" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J380" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D381" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E381" s="5">
+        <v>1</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G381" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H381" s="4">
+        <v>44040</v>
+      </c>
+      <c r="I381" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J381" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A382" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E382" s="5">
+        <v>1</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H382" s="4">
+        <v>44040</v>
+      </c>
+      <c r="I382" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J382" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A383" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D383" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E383" s="5">
+        <v>1</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G383" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H383" s="4">
+        <v>44040</v>
+      </c>
+      <c r="I383" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J383" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A384" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D384" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E384" s="5">
+        <v>2</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H384" s="6">
+        <v>44041</v>
+      </c>
+      <c r="I384" s="5"/>
+      <c r="J384" s="5"/>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A385" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D385" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E385" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F385" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G385" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H385" s="6">
+        <v>44041</v>
+      </c>
+      <c r="I385" s="5"/>
+      <c r="J385" s="5"/>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A386" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D386" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G386" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H386" s="6">
+        <v>44041</v>
+      </c>
+      <c r="I386" s="5"/>
+      <c r="J386" s="5"/>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A387" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D387" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E387" s="5">
+        <v>1</v>
+      </c>
+      <c r="F387" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G387" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H387" s="6">
+        <v>44041</v>
+      </c>
+      <c r="I387" s="5"/>
+      <c r="J387" s="5"/>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D388" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G388" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H388" s="6">
+        <v>44041</v>
+      </c>
+      <c r="I388" s="5"/>
+      <c r="J388" s="5"/>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D389" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G389" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H389" s="6">
+        <v>44041</v>
+      </c>
+      <c r="I389" s="5"/>
+      <c r="J389" s="5"/>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D390" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E390" s="5">
+        <v>25</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G390" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H390" s="6">
+        <v>44041</v>
+      </c>
+      <c r="I390" s="5"/>
+      <c r="J390" s="5"/>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D391" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E391" s="5">
+        <v>1</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G391" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H391" s="4">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D392" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E392" s="5">
+        <v>1</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H392" s="6">
+        <v>44042</v>
+      </c>
+      <c r="I392" s="5"/>
+      <c r="J392" s="5"/>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D393" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E393" s="5">
+        <v>1</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G393" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H393" s="4">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D394" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E394" s="5">
+        <v>1</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G394" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H394" s="4">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D395" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E395" s="5">
+        <v>1</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G395" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H395" s="6">
+        <v>44043</v>
+      </c>
+      <c r="I395" s="5"/>
+      <c r="J395" s="5"/>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D396" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E396" s="5">
+        <v>1</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G396" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H396" s="6">
+        <v>44043</v>
+      </c>
+      <c r="I396" s="5"/>
+      <c r="J396" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J309" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A155:J225">
-      <sortCondition ref="D1:D225"/>
+  <autoFilter ref="A1:J396" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J396">
+      <sortCondition ref="H1:H396"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J315">
-    <sortCondition ref="H2:H315"/>
-    <sortCondition ref="C2:C315"/>
-    <sortCondition ref="D2:D315"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J388">
+    <sortCondition ref="H2:H388"/>
+    <sortCondition ref="C2:C388"/>
+    <sortCondition ref="D2:D388"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10803,11 +13384,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4698F7A-0802-4195-8585-1B0866AABCC3}">
           <x14:formula1>
-            <xm:f>Config!$B$2:$B$103</xm:f>
+            <xm:f>Config!$D$2:$D$16</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>I2:I300 I302:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7C869D3-BE0F-4D79-B0ED-E3C1B1A79587}">
           <x14:formula1>
@@ -10821,15 +13402,15 @@
           </x14:formula1>
           <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4698F7A-0802-4195-8585-1B0866AABCC3}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
           <x14:formula1>
-            <xm:f>Config!$D$2:$D$16</xm:f>
+            <xm:f>Config!$B$2:$B$106</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I300 I302:I1048576</xm:sqref>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF95E1C6-5B3F-419D-ADFD-AA23C2C80F28}">
           <x14:formula1>
-            <xm:f>Config!$C$2:$C$44</xm:f>
+            <xm:f>Config!$C$2:$C$45</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>

--- a/data/First Pass Acceptance_Wiesbaden.xlsx
+++ b/data/First Pass Acceptance_Wiesbaden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\firstPassAcceptance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC09B9E-423C-4D31-8ECD-368AD8FA9187}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8194D4FD-1239-4B6A-AAF2-1C4F91275C7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22530" yWindow="1245" windowWidth="25470" windowHeight="18420" activeTab="2" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
+    <workbookView xWindow="360" yWindow="-13635" windowWidth="18375" windowHeight="10515" activeTab="2" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ACR!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FPA!$A$1:$J$396</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FPA!$A$1:$J$481</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="329">
   <si>
     <t>SQA</t>
   </si>
@@ -943,9 +943,6 @@
     <t>Incorrrect SPR references, tailoring incorrect, contains reference to eRIM, replace with DLM</t>
   </si>
   <si>
-    <t>Rich text filled with redndant information</t>
-  </si>
-  <si>
     <t>WI_L000002</t>
   </si>
   <si>
@@ -965,6 +962,69 @@
   </si>
   <si>
     <t>17b</t>
+  </si>
+  <si>
+    <t>Release 01.06.02</t>
+  </si>
+  <si>
+    <t>Regulations incorrectly selected</t>
+  </si>
+  <si>
+    <t>Several RS names incorrect, tracing partially missing</t>
+  </si>
+  <si>
+    <t>Deliverables table/tailoring incorrect</t>
+  </si>
+  <si>
+    <t>Release v6.50</t>
+  </si>
+  <si>
+    <t>ImageCompare</t>
+  </si>
+  <si>
+    <t>TM-URS to TP</t>
+  </si>
+  <si>
+    <t>Incorrect templates, incorrect references (Q09.14!), nonsensical contents, tracing missing... This is not even a draft</t>
+  </si>
+  <si>
+    <t>Tailoring incorrect/incomplete</t>
+  </si>
+  <si>
+    <t>TP strategy incorrect</t>
+  </si>
+  <si>
+    <t>Rich text filled with redundant information</t>
+  </si>
+  <si>
+    <t>Executed</t>
+  </si>
+  <si>
+    <t>Copy-Paste errors (containing content only relevant for LIC)</t>
+  </si>
+  <si>
+    <t>TP 15.7a</t>
+  </si>
+  <si>
+    <t>TP 30.9</t>
+  </si>
+  <si>
+    <t>TC1.1</t>
+  </si>
+  <si>
+    <t>TC2.1</t>
+  </si>
+  <si>
+    <t>TC3.1</t>
+  </si>
+  <si>
+    <t>TC4.1</t>
+  </si>
+  <si>
+    <t>LabSolutions</t>
+  </si>
+  <si>
+    <t>Release 6.87</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1818BC-AC9F-4D38-87AF-905538E5415F}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1496,7 +1556,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>84</v>
+        <v>313</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1507,7 +1567,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
@@ -1518,7 +1578,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1529,7 +1589,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -1540,7 +1600,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -1551,7 +1611,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1562,7 +1622,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -1570,7 +1630,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
@@ -1578,7 +1638,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
         <v>283</v>
@@ -1586,7 +1646,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
@@ -1594,7 +1654,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -1602,7 +1662,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
         <v>72</v>
@@ -1610,7 +1670,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
@@ -1618,7 +1678,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
@@ -1626,7 +1686,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
@@ -1634,13 +1694,16 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
       <c r="C27" t="s">
         <v>71</v>
       </c>
@@ -1702,42 +1765,47 @@
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>77</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
-    <sortCondition ref="C29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E50">
+    <sortCondition ref="C30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1756,7 +1824,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
@@ -1898,7 +1966,7 @@
         <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" s="7">
         <v>44041</v>
@@ -1910,7 +1978,7 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1921,7 +1989,7 @@
         <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D8" s="7">
         <v>44043</v>
@@ -1961,7 +2029,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4260E77A-0060-4AD1-A06E-9DFD65E1B213}">
           <x14:formula1>
-            <xm:f>Config!$B$2:$B$106</xm:f>
+            <xm:f>Config!$B$2:$B$107</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -1973,11 +2041,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J396"/>
+  <dimension ref="A1:J481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H364" sqref="H364"/>
+      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A482" sqref="A482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12709,7 +12777,7 @@
         <v>66</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F374" s="5" t="s">
         <v>293</v>
@@ -12739,7 +12807,7 @@
         <v>76</v>
       </c>
       <c r="E375" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F375" s="5" t="s">
         <v>176</v>
@@ -12757,19 +12825,19 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D376" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E376" s="5" t="s">
-        <v>304</v>
+        <v>77</v>
+      </c>
+      <c r="E376" s="5">
+        <v>1</v>
       </c>
       <c r="F376" s="5" t="s">
         <v>23</v>
@@ -12777,31 +12845,31 @@
       <c r="G376" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H376" s="6">
+      <c r="H376" s="4">
         <v>44039</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J376" s="5" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D377" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E377" s="5">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="F377" s="5" t="s">
         <v>23</v>
@@ -12809,31 +12877,31 @@
       <c r="G377" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H377" s="4">
+      <c r="H377" s="6">
         <v>44039</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J377" s="5" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E378" s="5" t="s">
-        <v>304</v>
+        <v>49</v>
+      </c>
+      <c r="E378" s="5">
+        <v>1</v>
       </c>
       <c r="F378" s="5" t="s">
         <v>23</v>
@@ -12841,13 +12909,15 @@
       <c r="G378" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H378" s="6">
+      <c r="H378" s="4">
         <v>44040</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J378" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="J378" s="5" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
@@ -12860,7 +12930,7 @@
         <v>86</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E379" s="5">
         <v>1</v>
@@ -12875,10 +12945,10 @@
         <v>44040</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J379" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
@@ -12892,7 +12962,7 @@
         <v>86</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E380" s="5">
         <v>1</v>
@@ -12907,10 +12977,10 @@
         <v>44040</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J380" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
@@ -12924,7 +12994,7 @@
         <v>86</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E381" s="5">
         <v>1</v>
@@ -12939,10 +13009,10 @@
         <v>44040</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J381" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
@@ -12956,7 +13026,7 @@
         <v>86</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E382" s="5">
         <v>1</v>
@@ -12971,27 +13041,27 @@
         <v>44040</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J382" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D383" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E383" s="5">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="F383" s="5" t="s">
         <v>23</v>
@@ -12999,15 +13069,13 @@
       <c r="G383" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H383" s="4">
+      <c r="H383" s="6">
         <v>44040</v>
       </c>
       <c r="I383" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J383" s="5" t="s">
-        <v>299</v>
-      </c>
+      <c r="J383" s="5"/>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
@@ -13051,7 +13119,7 @@
         <v>51</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F385" s="5" t="s">
         <v>23</v>
@@ -13079,7 +13147,7 @@
         <v>68</v>
       </c>
       <c r="E386" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F386" s="5" t="s">
         <v>23</v>
@@ -13135,7 +13203,7 @@
         <v>66</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F388" s="5" t="s">
         <v>293</v>
@@ -13163,7 +13231,7 @@
         <v>76</v>
       </c>
       <c r="E389" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F389" s="5" t="s">
         <v>176</v>
@@ -13367,16 +13435,2389 @@
       <c r="I396" s="5"/>
       <c r="J396" s="5"/>
     </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>2</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D397" t="s">
+        <v>66</v>
+      </c>
+      <c r="E397">
+        <v>1</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G397" t="s">
+        <v>31</v>
+      </c>
+      <c r="H397" s="4">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>2</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D398" t="s">
+        <v>13</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G398" t="s">
+        <v>30</v>
+      </c>
+      <c r="H398" s="4">
+        <v>44046</v>
+      </c>
+      <c r="I398" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A399" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D399" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E399" s="5">
+        <v>1</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G399" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H399" s="6">
+        <v>44047</v>
+      </c>
+      <c r="I399" s="5"/>
+      <c r="J399" s="5"/>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A400" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D400" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E400" s="5">
+        <v>1</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G400" t="s">
+        <v>30</v>
+      </c>
+      <c r="H400" s="4">
+        <v>44048</v>
+      </c>
+      <c r="I400" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J400" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A401" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D401" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E401" s="5">
+        <v>1</v>
+      </c>
+      <c r="F401" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G401" t="s">
+        <v>30</v>
+      </c>
+      <c r="H401" s="4">
+        <v>44048</v>
+      </c>
+      <c r="I401" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J401" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A402" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D402" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E402" s="5">
+        <v>1</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G402" t="s">
+        <v>30</v>
+      </c>
+      <c r="H402" s="4">
+        <v>44048</v>
+      </c>
+      <c r="I402" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J402" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A403" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D403" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E403" s="5">
+        <v>1</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G403" t="s">
+        <v>30</v>
+      </c>
+      <c r="H403" s="4">
+        <v>44048</v>
+      </c>
+      <c r="I403" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J403" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A404" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E404" s="5">
+        <v>1</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G404" t="s">
+        <v>30</v>
+      </c>
+      <c r="H404" s="4">
+        <v>44048</v>
+      </c>
+      <c r="I404" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J404" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A405" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D405" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E405" s="5">
+        <v>1</v>
+      </c>
+      <c r="F405" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G405" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H405" s="4">
+        <v>44048</v>
+      </c>
+      <c r="I405" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J405" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A406" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D406" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E406" s="5">
+        <v>1</v>
+      </c>
+      <c r="F406" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G406" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H406" s="4">
+        <v>44048</v>
+      </c>
+      <c r="I406" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J406" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A407" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D407" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E407" s="5">
+        <v>1</v>
+      </c>
+      <c r="F407" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G407" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H407" s="4">
+        <v>44048</v>
+      </c>
+      <c r="I407" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J407" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>2</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D408" t="s">
+        <v>47</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G408" t="s">
+        <v>31</v>
+      </c>
+      <c r="H408" s="4">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A409" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D409" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E409" s="5">
+        <v>1</v>
+      </c>
+      <c r="F409" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G409" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H409" s="6">
+        <v>44055</v>
+      </c>
+      <c r="I409" s="5"/>
+      <c r="J409" s="5"/>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A410" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D410" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E410" s="5">
+        <v>1</v>
+      </c>
+      <c r="F410" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G410" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H410" s="6">
+        <v>44055</v>
+      </c>
+      <c r="I410" s="5"/>
+      <c r="J410" s="5"/>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A411" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D411" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E411" s="5">
+        <v>1</v>
+      </c>
+      <c r="F411" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G411" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H411" s="6">
+        <v>44055</v>
+      </c>
+      <c r="I411" s="5"/>
+      <c r="J411" s="5"/>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>2</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D412" t="s">
+        <v>13</v>
+      </c>
+      <c r="E412">
+        <v>1</v>
+      </c>
+      <c r="F412" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G412" t="s">
+        <v>29</v>
+      </c>
+      <c r="H412" s="4">
+        <v>44055</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A413" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C413" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D413" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E413" s="5">
+        <v>1</v>
+      </c>
+      <c r="F413" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G413" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H413" s="4">
+        <v>44061</v>
+      </c>
+      <c r="I413" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J413" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>2</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D414" t="s">
+        <v>10</v>
+      </c>
+      <c r="E414">
+        <v>1</v>
+      </c>
+      <c r="F414" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G414" t="s">
+        <v>30</v>
+      </c>
+      <c r="H414" s="4">
+        <v>44061</v>
+      </c>
+      <c r="I414" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A415" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D415" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E415" s="5">
+        <v>1</v>
+      </c>
+      <c r="F415" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G415" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H415" s="4">
+        <v>44062</v>
+      </c>
+      <c r="I415" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J415" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A416" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D416" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E416" s="5">
+        <v>1</v>
+      </c>
+      <c r="F416" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G416" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H416" s="4">
+        <v>44062</v>
+      </c>
+      <c r="I416" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J416" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A417" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D417" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E417" s="5">
+        <v>1</v>
+      </c>
+      <c r="F417" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G417" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H417" s="4">
+        <v>44062</v>
+      </c>
+      <c r="I417" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J417" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A418" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D418" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E418" s="5">
+        <v>1</v>
+      </c>
+      <c r="F418" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G418" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H418" s="4">
+        <v>44062</v>
+      </c>
+      <c r="I418" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J418" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A419" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D419" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E419" s="5">
+        <v>1</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G419" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H419" s="4">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A420" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D420" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E420" s="5">
+        <v>1</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G420" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H420" s="4">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A421" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D421" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E421" s="5">
+        <v>1</v>
+      </c>
+      <c r="F421" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G421" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H421" s="4">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A422" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D422" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E422" s="5">
+        <v>1</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G422" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H422" s="4">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A423" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D423" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E423" s="5">
+        <v>1</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G423" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H423" s="4">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A424" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E424" s="5">
+        <v>1</v>
+      </c>
+      <c r="F424" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G424" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H424" s="4">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>2</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D425" t="s">
+        <v>9</v>
+      </c>
+      <c r="E425">
+        <v>1</v>
+      </c>
+      <c r="F425" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G425" t="s">
+        <v>30</v>
+      </c>
+      <c r="H425" s="4">
+        <v>44063</v>
+      </c>
+      <c r="I425" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>2</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D426" t="s">
+        <v>73</v>
+      </c>
+      <c r="E426">
+        <v>1</v>
+      </c>
+      <c r="F426" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G426" t="s">
+        <v>30</v>
+      </c>
+      <c r="H426" s="4">
+        <v>44064</v>
+      </c>
+      <c r="I426" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A427" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D427" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E427" s="5">
+        <v>2</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G427" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H427" s="4">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>2</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C428" t="s">
+        <v>93</v>
+      </c>
+      <c r="D428" t="s">
+        <v>9</v>
+      </c>
+      <c r="E428">
+        <v>1</v>
+      </c>
+      <c r="F428" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G428" t="s">
+        <v>30</v>
+      </c>
+      <c r="H428" s="4">
+        <v>44067</v>
+      </c>
+      <c r="I428" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>2</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C429" t="s">
+        <v>93</v>
+      </c>
+      <c r="D429" t="s">
+        <v>10</v>
+      </c>
+      <c r="E429">
+        <v>1</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G429" t="s">
+        <v>30</v>
+      </c>
+      <c r="H429" s="4">
+        <v>44067</v>
+      </c>
+      <c r="I429" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>2</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C430" t="s">
+        <v>93</v>
+      </c>
+      <c r="D430" t="s">
+        <v>73</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G430" t="s">
+        <v>30</v>
+      </c>
+      <c r="H430" s="4">
+        <v>44067</v>
+      </c>
+      <c r="I430" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>2</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C431" t="s">
+        <v>93</v>
+      </c>
+      <c r="D431" t="s">
+        <v>55</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
+      </c>
+      <c r="F431" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G431" t="s">
+        <v>30</v>
+      </c>
+      <c r="H431" s="4">
+        <v>44067</v>
+      </c>
+      <c r="I431" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>2</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C432" t="s">
+        <v>93</v>
+      </c>
+      <c r="D432" t="s">
+        <v>52</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
+      <c r="F432" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G432" t="s">
+        <v>30</v>
+      </c>
+      <c r="H432" s="4">
+        <v>44067</v>
+      </c>
+      <c r="I432" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>2</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C433" t="s">
+        <v>93</v>
+      </c>
+      <c r="D433" t="s">
+        <v>66</v>
+      </c>
+      <c r="E433">
+        <v>1</v>
+      </c>
+      <c r="F433" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G433" t="s">
+        <v>30</v>
+      </c>
+      <c r="H433" s="4">
+        <v>44067</v>
+      </c>
+      <c r="I433" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>2</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C434" t="s">
+        <v>93</v>
+      </c>
+      <c r="D434" t="s">
+        <v>66</v>
+      </c>
+      <c r="E434">
+        <v>1</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G434" t="s">
+        <v>30</v>
+      </c>
+      <c r="H434" s="4">
+        <v>44067</v>
+      </c>
+      <c r="I434" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>2</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C435" t="s">
+        <v>93</v>
+      </c>
+      <c r="D435" t="s">
+        <v>66</v>
+      </c>
+      <c r="E435">
+        <v>1</v>
+      </c>
+      <c r="F435" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G435" t="s">
+        <v>30</v>
+      </c>
+      <c r="H435" s="4">
+        <v>44067</v>
+      </c>
+      <c r="I435" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>2</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C436" t="s">
+        <v>93</v>
+      </c>
+      <c r="D436" t="s">
+        <v>66</v>
+      </c>
+      <c r="E436">
+        <v>1</v>
+      </c>
+      <c r="F436" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G436" t="s">
+        <v>30</v>
+      </c>
+      <c r="H436" s="4">
+        <v>44067</v>
+      </c>
+      <c r="I436" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>2</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C437" t="s">
+        <v>93</v>
+      </c>
+      <c r="D437" t="s">
+        <v>13</v>
+      </c>
+      <c r="E437">
+        <v>1</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G437" t="s">
+        <v>30</v>
+      </c>
+      <c r="H437" s="4">
+        <v>44067</v>
+      </c>
+      <c r="I437" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A438" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D438" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E438" s="5">
+        <v>1</v>
+      </c>
+      <c r="F438" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G438" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H438" s="4">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A439" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D439" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E439" s="5">
+        <v>1</v>
+      </c>
+      <c r="F439" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G439" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H439" s="4">
+        <v>44067</v>
+      </c>
+      <c r="J439" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A440" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D440" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E440" s="5">
+        <v>1</v>
+      </c>
+      <c r="F440" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H440" s="4">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A441" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D441" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E441" s="5">
+        <v>1</v>
+      </c>
+      <c r="F441" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G441" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H441" s="4">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A442" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D442" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E442" s="5">
+        <v>1</v>
+      </c>
+      <c r="F442" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G442" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H442" s="4">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A443" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D443" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E443" s="5">
+        <v>1</v>
+      </c>
+      <c r="F443" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G443" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H443" s="4">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>2</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D444" t="s">
+        <v>9</v>
+      </c>
+      <c r="E444">
+        <v>1</v>
+      </c>
+      <c r="F444" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G444" t="s">
+        <v>29</v>
+      </c>
+      <c r="H444" s="4">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A445" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B445" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D445" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E445" s="5">
+        <v>1</v>
+      </c>
+      <c r="F445" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G445" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H445" s="4">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A446" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D446" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E446" s="5">
+        <v>1</v>
+      </c>
+      <c r="F446" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G446" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H446" s="4">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A447" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D447" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E447" s="5">
+        <v>1</v>
+      </c>
+      <c r="F447" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G447" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H447" s="4">
+        <v>44068</v>
+      </c>
+      <c r="J447" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>2</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C448" t="s">
+        <v>93</v>
+      </c>
+      <c r="D448" t="s">
+        <v>49</v>
+      </c>
+      <c r="E448">
+        <v>1</v>
+      </c>
+      <c r="F448" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G448" t="s">
+        <v>31</v>
+      </c>
+      <c r="H448" s="4">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>2</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C449" t="s">
+        <v>93</v>
+      </c>
+      <c r="D449" t="s">
+        <v>9</v>
+      </c>
+      <c r="E449">
+        <v>1</v>
+      </c>
+      <c r="F449" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G449" t="s">
+        <v>29</v>
+      </c>
+      <c r="H449" s="4">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>2</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C450" t="s">
+        <v>93</v>
+      </c>
+      <c r="D450" t="s">
+        <v>73</v>
+      </c>
+      <c r="E450">
+        <v>1</v>
+      </c>
+      <c r="F450" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G450" t="s">
+        <v>29</v>
+      </c>
+      <c r="H450" s="4">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>2</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C451" t="s">
+        <v>93</v>
+      </c>
+      <c r="D451" t="s">
+        <v>52</v>
+      </c>
+      <c r="E451">
+        <v>1</v>
+      </c>
+      <c r="F451" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G451" t="s">
+        <v>29</v>
+      </c>
+      <c r="H451" s="4">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>2</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C452" t="s">
+        <v>93</v>
+      </c>
+      <c r="D452" t="s">
+        <v>13</v>
+      </c>
+      <c r="E452">
+        <v>1</v>
+      </c>
+      <c r="F452" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G452" t="s">
+        <v>29</v>
+      </c>
+      <c r="H452" s="4">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A453" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D453" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E453" s="5">
+        <v>1</v>
+      </c>
+      <c r="F453" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G453" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H453" s="4">
+        <v>44069</v>
+      </c>
+      <c r="I453" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J453" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A454" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D454" t="s">
+        <v>77</v>
+      </c>
+      <c r="E454" s="5">
+        <v>1</v>
+      </c>
+      <c r="F454" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G454" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H454" s="4">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A455" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B455" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D455" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E455" s="5">
+        <v>1</v>
+      </c>
+      <c r="F455" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G455" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H455" s="4">
+        <v>44069</v>
+      </c>
+      <c r="J455" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A456" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D456" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E456" s="5">
+        <v>1</v>
+      </c>
+      <c r="F456" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G456" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H456" s="4">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>2</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D457" t="s">
+        <v>10</v>
+      </c>
+      <c r="E457">
+        <v>1</v>
+      </c>
+      <c r="F457" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G457" t="s">
+        <v>29</v>
+      </c>
+      <c r="H457" s="4">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>2</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D458" t="s">
+        <v>73</v>
+      </c>
+      <c r="E458">
+        <v>1</v>
+      </c>
+      <c r="F458" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G458" t="s">
+        <v>29</v>
+      </c>
+      <c r="H458" s="4">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>2</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D459" t="s">
+        <v>55</v>
+      </c>
+      <c r="E459">
+        <v>1</v>
+      </c>
+      <c r="F459" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G459" t="s">
+        <v>30</v>
+      </c>
+      <c r="H459" s="4">
+        <v>44069</v>
+      </c>
+      <c r="I459" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A460" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D460" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E460" s="5">
+        <v>1</v>
+      </c>
+      <c r="F460" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G460" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H460" s="4">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A461" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B461" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D461" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E461" s="5">
+        <v>1</v>
+      </c>
+      <c r="F461" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G461" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H461" s="4">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A462" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B462" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D462" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E462" s="5">
+        <v>1</v>
+      </c>
+      <c r="F462" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G462" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H462" s="4">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A463" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B463" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D463" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E463" s="5">
+        <v>1</v>
+      </c>
+      <c r="F463" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G463" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H463" s="4">
+        <v>44070</v>
+      </c>
+      <c r="J463" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>2</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C464" t="s">
+        <v>93</v>
+      </c>
+      <c r="D464" t="s">
+        <v>10</v>
+      </c>
+      <c r="E464">
+        <v>1</v>
+      </c>
+      <c r="F464" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G464" t="s">
+        <v>29</v>
+      </c>
+      <c r="H464" s="4">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A465" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B465" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D465" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E465" s="5">
+        <v>1</v>
+      </c>
+      <c r="F465" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G465" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H465" s="4">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A466" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D466" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E466" s="5">
+        <v>1</v>
+      </c>
+      <c r="F466" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G466" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H466" s="4">
+        <v>44071</v>
+      </c>
+      <c r="J466" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A467" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D467" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E467" s="5">
+        <v>1</v>
+      </c>
+      <c r="F467" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G467" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H467" s="4">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>2</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C468" t="s">
+        <v>93</v>
+      </c>
+      <c r="D468" t="s">
+        <v>55</v>
+      </c>
+      <c r="E468">
+        <v>1</v>
+      </c>
+      <c r="F468" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G468" t="s">
+        <v>29</v>
+      </c>
+      <c r="H468" s="4">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>2</v>
+      </c>
+      <c r="B469" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C469" t="s">
+        <v>93</v>
+      </c>
+      <c r="D469" t="s">
+        <v>48</v>
+      </c>
+      <c r="E469">
+        <v>1</v>
+      </c>
+      <c r="F469" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G469" t="s">
+        <v>31</v>
+      </c>
+      <c r="H469" s="4">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>2</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C470" t="s">
+        <v>93</v>
+      </c>
+      <c r="D470" t="s">
+        <v>66</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+      <c r="F470" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G470" t="s">
+        <v>29</v>
+      </c>
+      <c r="H470" s="4">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>2</v>
+      </c>
+      <c r="B471" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C471" t="s">
+        <v>93</v>
+      </c>
+      <c r="D471" t="s">
+        <v>66</v>
+      </c>
+      <c r="E471">
+        <v>1</v>
+      </c>
+      <c r="F471" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G471" t="s">
+        <v>29</v>
+      </c>
+      <c r="H471" s="4">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>2</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C472" t="s">
+        <v>93</v>
+      </c>
+      <c r="D472" t="s">
+        <v>66</v>
+      </c>
+      <c r="E472">
+        <v>1</v>
+      </c>
+      <c r="F472" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G472" t="s">
+        <v>29</v>
+      </c>
+      <c r="H472" s="4">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>2</v>
+      </c>
+      <c r="B473" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C473" t="s">
+        <v>93</v>
+      </c>
+      <c r="D473" t="s">
+        <v>66</v>
+      </c>
+      <c r="E473">
+        <v>1</v>
+      </c>
+      <c r="F473" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G473" t="s">
+        <v>29</v>
+      </c>
+      <c r="H473" s="4">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A474" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D474" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E474" s="5">
+        <v>1</v>
+      </c>
+      <c r="F474" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G474" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H474" s="4">
+        <v>44071</v>
+      </c>
+      <c r="J474" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>2</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C475" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D475" t="s">
+        <v>49</v>
+      </c>
+      <c r="E475">
+        <v>1</v>
+      </c>
+      <c r="F475" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G475" t="s">
+        <v>31</v>
+      </c>
+      <c r="H475" s="4">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A476" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D476" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E476" s="5">
+        <v>1</v>
+      </c>
+      <c r="F476" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G476" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H476" s="4">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A477" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B477" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D477" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E477" s="5">
+        <v>1</v>
+      </c>
+      <c r="F477" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G477" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H477" s="4">
+        <v>44074</v>
+      </c>
+      <c r="J477" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A478" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D478" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E478" s="5">
+        <v>1</v>
+      </c>
+      <c r="F478" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G478" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H478" s="4">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A479" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D479" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E479" s="5">
+        <v>1</v>
+      </c>
+      <c r="F479" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G479" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H479" s="4">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A480" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D480" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E480" s="5">
+        <v>1</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G480" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H480" s="4">
+        <v>44075</v>
+      </c>
+      <c r="J480" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A481" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D481" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E481" s="5">
+        <v>1</v>
+      </c>
+      <c r="F481" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G481" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H481" s="4">
+        <v>44076</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J396" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J396">
-      <sortCondition ref="H1:H396"/>
+  <autoFilter ref="A1:J481" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J430">
+      <sortCondition ref="H2:H430"/>
+      <sortCondition ref="C2:C430"/>
+      <sortCondition ref="D2:D430"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J388">
-    <sortCondition ref="H2:H388"/>
-    <sortCondition ref="C2:C388"/>
-    <sortCondition ref="D2:D388"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J481">
+    <sortCondition ref="H2:H481"/>
+    <sortCondition ref="C2:C481"/>
+    <sortCondition ref="D2:D481"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13390,6 +15831,12 @@
           </x14:formula1>
           <xm:sqref>I2:I300 I302:I1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
+          <x14:formula1>
+            <xm:f>Config!$B$2:$B$107</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C475 C477:C1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7C869D3-BE0F-4D79-B0ED-E3C1B1A79587}">
           <x14:formula1>
             <xm:f>Config!$A$2:$A$3</xm:f>
@@ -13402,15 +15849,9 @@
           </x14:formula1>
           <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
-          <x14:formula1>
-            <xm:f>Config!$B$2:$B$106</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF95E1C6-5B3F-419D-ADFD-AA23C2C80F28}">
           <x14:formula1>
-            <xm:f>Config!$C$2:$C$45</xm:f>
+            <xm:f>Config!$C$2:$C$46</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>

--- a/data/First Pass Acceptance_Wiesbaden.xlsx
+++ b/data/First Pass Acceptance_Wiesbaden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\firstPassAcceptance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8194D4FD-1239-4B6A-AAF2-1C4F91275C7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F5DFACF-4222-4686-A03A-3567E145E8C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="-13635" windowWidth="18375" windowHeight="10515" activeTab="2" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
+    <workbookView xWindow="975" yWindow="750" windowWidth="15330" windowHeight="10920" activeTab="2" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="FPA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ACR!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FPA!$A$1:$J$481</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ACR!$A$1:$J$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FPA!$A$1:$J$523</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="361">
   <si>
     <t>SQA</t>
   </si>
@@ -1025,6 +1025,102 @@
   </si>
   <si>
     <t>Release 6.87</t>
+  </si>
+  <si>
+    <t>Tailoring incorrect/incomplete, documentation impact incorrect, application impact not included</t>
+  </si>
+  <si>
+    <t>SOP change not listed, NPV/AIR references still included</t>
+  </si>
+  <si>
+    <t>Availiability of previous version incorrectly reflected</t>
+  </si>
+  <si>
+    <t>Several E-Sig requirements missing, or incorrectly "N/A-ed"</t>
+  </si>
+  <si>
+    <t>Testing missing for several requirements</t>
+  </si>
+  <si>
+    <t>Tailoring still partially incorrect, documentation impact partially incorrect</t>
+  </si>
+  <si>
+    <t>Partially incorrect contents, system name incorrect, no section numbers</t>
+  </si>
+  <si>
+    <t>Partially incorrect contents, system name incorrect</t>
+  </si>
+  <si>
+    <t>TC5.1</t>
+  </si>
+  <si>
+    <t>TC5.2</t>
+  </si>
+  <si>
+    <t>TC1.2</t>
+  </si>
+  <si>
+    <t>TC3.2</t>
+  </si>
+  <si>
+    <t>Workstation</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>TC4.3</t>
+  </si>
+  <si>
+    <t>TC4.2</t>
+  </si>
+  <si>
+    <t>TC2.3</t>
+  </si>
+  <si>
+    <t>TC2.2</t>
+  </si>
+  <si>
+    <t>TC1.4</t>
+  </si>
+  <si>
+    <t>TC1.3</t>
+  </si>
+  <si>
+    <t>WI_L000003</t>
+  </si>
+  <si>
+    <t>WI_L000004</t>
+  </si>
+  <si>
+    <t>WI_L000006</t>
+  </si>
+  <si>
+    <t>WI_L000007</t>
+  </si>
+  <si>
+    <t>Testing still missing for several requirements; TPconfiguration needs rework</t>
+  </si>
+  <si>
+    <t>Interface definitions don't match CII</t>
+  </si>
+  <si>
+    <t>Interface definitions don't match URS</t>
+  </si>
+  <si>
+    <t>Several AIR references contained and AIR workflows defined</t>
+  </si>
+  <si>
+    <t>WI_C000011</t>
+  </si>
+  <si>
+    <t>WI_C000012</t>
+  </si>
+  <si>
+    <t>Description contents insufficient</t>
+  </si>
+  <si>
+    <t>WI_L000005</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1818BC-AC9F-4D38-87AF-905538E5415F}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1600,7 +1698,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -1611,7 +1709,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1622,7 +1720,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -1630,7 +1728,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
@@ -1638,7 +1736,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
         <v>283</v>
@@ -1646,7 +1744,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
@@ -1654,7 +1752,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -1662,7 +1760,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
         <v>72</v>
@@ -1670,7 +1768,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
@@ -1678,7 +1776,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
@@ -1686,7 +1784,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
@@ -1694,7 +1792,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>70</v>
@@ -1702,13 +1800,16 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
       <c r="C28" t="s">
         <v>74</v>
       </c>
@@ -1804,8 +1905,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E50">
-    <sortCondition ref="C30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E51">
+    <sortCondition ref="C31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1814,11 +1915,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DAE5DB-E055-4B79-809B-3CC2C4CB7528}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,16 +2030,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>357</v>
       </c>
       <c r="D5" s="7">
-        <v>44033</v>
+        <v>44083</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1946,16 +2053,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
-      </c>
-      <c r="G6" s="7">
-        <v>44041</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
+        <v>357</v>
+      </c>
+      <c r="D6" s="7">
+        <v>44083</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1963,13 +2070,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="D7" s="7">
-        <v>44041</v>
+        <v>44098</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
@@ -1978,7 +2085,7 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>302</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1986,23 +2093,206 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="D8" s="7">
-        <v>44043</v>
+        <v>44098</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="7">
+        <v>44033</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="7">
+        <v>44041</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="7">
+        <v>44041</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="7">
+        <v>44043</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="7">
+        <v>44083</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D14" s="7">
+        <v>44083</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="7">
+        <v>44091</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D16" s="7">
+        <v>44104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="7">
+        <v>44104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>360</v>
+      </c>
+      <c r="D18" s="7">
+        <v>44105</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{3A9C1769-6EE6-49EC-A1F0-37710006E669}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J4">
-    <sortCondition ref="D2:D4"/>
-    <sortCondition ref="B2:B4"/>
+  <autoFilter ref="A1:J18" xr:uid="{3A9C1769-6EE6-49EC-A1F0-37710006E669}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
+    <sortCondition ref="C2:C16"/>
+    <sortCondition ref="D2:D16"/>
+    <sortCondition ref="G2:G16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2025,11 +2315,11 @@
           <x14:formula1>
             <xm:f>Config!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H1048576 E2:E1048576</xm:sqref>
+          <xm:sqref>E2:E1048576 H2:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4260E77A-0060-4AD1-A06E-9DFD65E1B213}">
           <x14:formula1>
-            <xm:f>Config!$B$2:$B$107</xm:f>
+            <xm:f>Config!$B$2:$B$108</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -2041,11 +2331,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J481"/>
+  <dimension ref="A1:J523"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A482" sqref="A482"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15343,7 +15633,7 @@
         <v>1</v>
       </c>
       <c r="F464" s="5" t="s">
-        <v>23</v>
+        <v>341</v>
       </c>
       <c r="G464" t="s">
         <v>29</v>
@@ -15528,10 +15818,10 @@
         <v>1</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="G471" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H471" s="4">
         <v>44071</v>
@@ -15554,10 +15844,10 @@
         <v>1</v>
       </c>
       <c r="F472" s="5" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="G472" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H472" s="4">
         <v>44071</v>
@@ -15580,10 +15870,10 @@
         <v>1</v>
       </c>
       <c r="F473" s="5" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="G473" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H473" s="4">
         <v>44071</v>
@@ -15780,7 +16070,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
         <v>1</v>
       </c>
@@ -15806,18 +16096,1182 @@
         <v>44076</v>
       </c>
     </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>2</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C482" t="s">
+        <v>327</v>
+      </c>
+      <c r="D482" t="s">
+        <v>48</v>
+      </c>
+      <c r="E482">
+        <v>1</v>
+      </c>
+      <c r="F482" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G482" t="s">
+        <v>31</v>
+      </c>
+      <c r="H482" s="4">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>2</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C483" t="s">
+        <v>93</v>
+      </c>
+      <c r="D483" t="s">
+        <v>10</v>
+      </c>
+      <c r="E483">
+        <v>1</v>
+      </c>
+      <c r="F483" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G483" t="s">
+        <v>29</v>
+      </c>
+      <c r="H483" s="4">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>2</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C484" t="s">
+        <v>93</v>
+      </c>
+      <c r="D484" t="s">
+        <v>66</v>
+      </c>
+      <c r="E484">
+        <v>1</v>
+      </c>
+      <c r="F484" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G484" t="s">
+        <v>29</v>
+      </c>
+      <c r="H484" s="4">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>2</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C485" t="s">
+        <v>93</v>
+      </c>
+      <c r="D485" t="s">
+        <v>66</v>
+      </c>
+      <c r="E485">
+        <v>1</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G485" t="s">
+        <v>31</v>
+      </c>
+      <c r="H485" s="4">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>2</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C486" t="s">
+        <v>93</v>
+      </c>
+      <c r="D486" t="s">
+        <v>66</v>
+      </c>
+      <c r="E486">
+        <v>1</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G486" t="s">
+        <v>31</v>
+      </c>
+      <c r="H486" s="4">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>2</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C487" t="s">
+        <v>93</v>
+      </c>
+      <c r="D487" t="s">
+        <v>66</v>
+      </c>
+      <c r="E487">
+        <v>1</v>
+      </c>
+      <c r="F487" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G487" t="s">
+        <v>31</v>
+      </c>
+      <c r="H487" s="4">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>2</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C488" t="s">
+        <v>93</v>
+      </c>
+      <c r="D488" t="s">
+        <v>66</v>
+      </c>
+      <c r="E488">
+        <v>1</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G488" t="s">
+        <v>29</v>
+      </c>
+      <c r="H488" s="4">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>2</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C489" t="s">
+        <v>93</v>
+      </c>
+      <c r="D489" t="s">
+        <v>66</v>
+      </c>
+      <c r="E489">
+        <v>1</v>
+      </c>
+      <c r="F489" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G489" t="s">
+        <v>31</v>
+      </c>
+      <c r="H489" s="4">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>2</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C490" t="s">
+        <v>93</v>
+      </c>
+      <c r="D490" t="s">
+        <v>66</v>
+      </c>
+      <c r="E490">
+        <v>1</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G490" t="s">
+        <v>31</v>
+      </c>
+      <c r="H490" s="4">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>2</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C491" t="s">
+        <v>93</v>
+      </c>
+      <c r="D491" t="s">
+        <v>66</v>
+      </c>
+      <c r="E491">
+        <v>1</v>
+      </c>
+      <c r="F491" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G491" t="s">
+        <v>29</v>
+      </c>
+      <c r="H491" s="4">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>2</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D492" t="s">
+        <v>55</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G492" t="s">
+        <v>31</v>
+      </c>
+      <c r="H492" s="4">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>2</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C493" t="s">
+        <v>93</v>
+      </c>
+      <c r="D493" t="s">
+        <v>69</v>
+      </c>
+      <c r="E493">
+        <v>1</v>
+      </c>
+      <c r="F493" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G493" t="s">
+        <v>31</v>
+      </c>
+      <c r="H493" s="4">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>2</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C494" t="s">
+        <v>94</v>
+      </c>
+      <c r="D494" t="s">
+        <v>69</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G494" t="s">
+        <v>31</v>
+      </c>
+      <c r="H494" s="4">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A495" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D495" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E495" s="5">
+        <v>1</v>
+      </c>
+      <c r="F495" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G495" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H495" s="4">
+        <v>44084</v>
+      </c>
+      <c r="I495" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J495" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A496" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D496" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E496" s="5">
+        <v>1</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G496" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H496" s="4">
+        <v>44084</v>
+      </c>
+      <c r="I496" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J496" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A497" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D497" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E497" s="5">
+        <v>1</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G497" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H497" s="4">
+        <v>44084</v>
+      </c>
+      <c r="I497" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J497" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A498" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D498" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E498" s="5">
+        <v>1</v>
+      </c>
+      <c r="F498" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G498" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H498" s="4">
+        <v>44084</v>
+      </c>
+      <c r="I498" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J498" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A499" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B499" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D499" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E499" s="5">
+        <v>1</v>
+      </c>
+      <c r="F499" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G499" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H499" s="4">
+        <v>44084</v>
+      </c>
+      <c r="I499" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J499" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A500" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D500" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E500" s="5">
+        <v>1</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G500" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H500" s="4">
+        <v>44084</v>
+      </c>
+      <c r="I500" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J500" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>2</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C501" t="s">
+        <v>93</v>
+      </c>
+      <c r="D501" t="s">
+        <v>67</v>
+      </c>
+      <c r="E501">
+        <v>1</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G501" t="s">
+        <v>31</v>
+      </c>
+      <c r="H501" s="4">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>2</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C502" t="s">
+        <v>93</v>
+      </c>
+      <c r="D502" t="s">
+        <v>67</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+      <c r="F502" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G502" t="s">
+        <v>31</v>
+      </c>
+      <c r="H502" s="4">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>2</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C503" t="s">
+        <v>93</v>
+      </c>
+      <c r="D503" t="s">
+        <v>67</v>
+      </c>
+      <c r="E503">
+        <v>1</v>
+      </c>
+      <c r="F503" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G503" t="s">
+        <v>31</v>
+      </c>
+      <c r="H503" s="4">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>2</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C504" t="s">
+        <v>93</v>
+      </c>
+      <c r="D504" t="s">
+        <v>67</v>
+      </c>
+      <c r="E504">
+        <v>1</v>
+      </c>
+      <c r="F504" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G504" t="s">
+        <v>31</v>
+      </c>
+      <c r="H504" s="4">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>2</v>
+      </c>
+      <c r="B505" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C505" t="s">
+        <v>93</v>
+      </c>
+      <c r="D505" t="s">
+        <v>67</v>
+      </c>
+      <c r="E505">
+        <v>1</v>
+      </c>
+      <c r="F505" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G505" t="s">
+        <v>31</v>
+      </c>
+      <c r="H505" s="4">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>2</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C506" t="s">
+        <v>93</v>
+      </c>
+      <c r="D506" t="s">
+        <v>67</v>
+      </c>
+      <c r="E506">
+        <v>1</v>
+      </c>
+      <c r="F506" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G506" t="s">
+        <v>31</v>
+      </c>
+      <c r="H506" s="4">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>2</v>
+      </c>
+      <c r="B507" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C507" t="s">
+        <v>93</v>
+      </c>
+      <c r="D507" t="s">
+        <v>314</v>
+      </c>
+      <c r="E507">
+        <v>1</v>
+      </c>
+      <c r="F507" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G507" t="s">
+        <v>31</v>
+      </c>
+      <c r="H507" s="4">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A508" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D508" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E508" s="5">
+        <v>1</v>
+      </c>
+      <c r="F508" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G508" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H508" s="4">
+        <v>44091</v>
+      </c>
+      <c r="I508" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J508" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A509" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B509" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D509" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E509" s="5">
+        <v>1</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G509" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H509" s="4">
+        <v>44091</v>
+      </c>
+      <c r="I509" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J509" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>2</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C510" t="s">
+        <v>93</v>
+      </c>
+      <c r="D510" t="s">
+        <v>49</v>
+      </c>
+      <c r="E510">
+        <v>1</v>
+      </c>
+      <c r="F510" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G510" t="s">
+        <v>31</v>
+      </c>
+      <c r="H510" s="4">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>2</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D511" t="s">
+        <v>49</v>
+      </c>
+      <c r="E511">
+        <v>2</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G511" t="s">
+        <v>31</v>
+      </c>
+      <c r="H511" s="4">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>2</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D512" t="s">
+        <v>314</v>
+      </c>
+      <c r="E512">
+        <v>1</v>
+      </c>
+      <c r="F512" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G512" t="s">
+        <v>31</v>
+      </c>
+      <c r="H512" s="4">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>2</v>
+      </c>
+      <c r="B513" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C513" t="s">
+        <v>93</v>
+      </c>
+      <c r="D513" t="s">
+        <v>10</v>
+      </c>
+      <c r="E513">
+        <v>2</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G513" t="s">
+        <v>29</v>
+      </c>
+      <c r="H513" s="4">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>2</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C514" t="s">
+        <v>93</v>
+      </c>
+      <c r="D514" t="s">
+        <v>71</v>
+      </c>
+      <c r="E514">
+        <v>1</v>
+      </c>
+      <c r="F514" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G514" t="s">
+        <v>31</v>
+      </c>
+      <c r="H514" s="4">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>2</v>
+      </c>
+      <c r="B515" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C515" t="s">
+        <v>93</v>
+      </c>
+      <c r="D515" t="s">
+        <v>66</v>
+      </c>
+      <c r="E515">
+        <v>2</v>
+      </c>
+      <c r="F515" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G515" t="s">
+        <v>31</v>
+      </c>
+      <c r="H515" s="4">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>2</v>
+      </c>
+      <c r="B516" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C516" t="s">
+        <v>93</v>
+      </c>
+      <c r="D516" t="s">
+        <v>66</v>
+      </c>
+      <c r="E516">
+        <v>2</v>
+      </c>
+      <c r="F516" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G516" t="s">
+        <v>31</v>
+      </c>
+      <c r="H516" s="4">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>2</v>
+      </c>
+      <c r="B517" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C517" t="s">
+        <v>94</v>
+      </c>
+      <c r="D517" t="s">
+        <v>10</v>
+      </c>
+      <c r="E517">
+        <v>2</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G517" t="s">
+        <v>31</v>
+      </c>
+      <c r="H517" s="4">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>2</v>
+      </c>
+      <c r="B518" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D518" t="s">
+        <v>71</v>
+      </c>
+      <c r="E518">
+        <v>1</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G518" t="s">
+        <v>31</v>
+      </c>
+      <c r="H518" s="4">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A519" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B519" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C519" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D519" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E519" s="5">
+        <v>1</v>
+      </c>
+      <c r="F519" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G519" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H519" s="4">
+        <v>44103</v>
+      </c>
+      <c r="I519" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J519" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A520" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B520" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C520" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D520" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E520" s="5">
+        <v>1</v>
+      </c>
+      <c r="F520" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H520" s="4">
+        <v>44103</v>
+      </c>
+      <c r="I520" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J520" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A521" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B521" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C521" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D521" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E521" s="5">
+        <v>1</v>
+      </c>
+      <c r="F521" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G521" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H521" s="4">
+        <v>44104</v>
+      </c>
+      <c r="I521" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J521" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A522" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D522" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E522" s="5">
+        <v>1</v>
+      </c>
+      <c r="F522" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G522" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H522" s="4">
+        <v>44104</v>
+      </c>
+      <c r="I522" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J522" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A523" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C523" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D523" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E523" s="5">
+        <v>1</v>
+      </c>
+      <c r="F523" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G523" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H523" s="4">
+        <v>44104</v>
+      </c>
+      <c r="I523" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J523" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J481" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J430">
-      <sortCondition ref="H2:H430"/>
-      <sortCondition ref="C2:C430"/>
-      <sortCondition ref="D2:D430"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J481">
-    <sortCondition ref="H2:H481"/>
-    <sortCondition ref="C2:C481"/>
-    <sortCondition ref="D2:D481"/>
+  <autoFilter ref="A1:J523" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J523">
+    <sortCondition ref="H2:H523"/>
+    <sortCondition ref="C2:C523"/>
+    <sortCondition ref="D2:D523"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15830,12 +17284,6 @@
             <xm:f>Config!$D$2:$D$16</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I300 I302:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
-          <x14:formula1>
-            <xm:f>Config!$B$2:$B$107</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C475 C477:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7C869D3-BE0F-4D79-B0ED-E3C1B1A79587}">
           <x14:formula1>
@@ -15855,6 +17303,12 @@
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
+          <x14:formula1>
+            <xm:f>Config!$B$2:$B$108</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C475 C477:C1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>

--- a/data/First Pass Acceptance_Wiesbaden.xlsx
+++ b/data/First Pass Acceptance_Wiesbaden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9FA8F4-2651-494E-83F9-E3360C5248EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24505C85-13DE-448C-BBE5-C806705F248C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="FPA" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$1321</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$1506</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8981" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9974" uniqueCount="748">
   <si>
     <t>SQA</t>
   </si>
@@ -2081,6 +2081,204 @@
   </si>
   <si>
     <t>WI_C 20</t>
+  </si>
+  <si>
+    <t>LSP 01.87.00 IIVP 2 Pre-Steps / GER42</t>
+  </si>
+  <si>
+    <t>LSP 01.87.00 IIVP 3 Installation Steps / GER42</t>
+  </si>
+  <si>
+    <t>LSP 01.87.00 IIVP 4 Post-Steps / GER42</t>
+  </si>
+  <si>
+    <t>LSP 01.87.00 IIVP 5 Verification Steps / GER42</t>
+  </si>
+  <si>
+    <t>LSP 01.88.00 IIVP</t>
+  </si>
+  <si>
+    <t>CSL TP7 - Transmission Control Maintenance</t>
+  </si>
+  <si>
+    <t>CSL TP6 - Maintenance of the Print Matrix</t>
+  </si>
+  <si>
+    <t>CSL TP5 - Label File Archiving</t>
+  </si>
+  <si>
+    <t>CSL TP4 - Generate a print request using DAC</t>
+  </si>
+  <si>
+    <t>CSL TP3 - Print labels including verification labels, one at the beginning and one at the end of each print job</t>
+  </si>
+  <si>
+    <t>CSL TP2 - Generate a print request and send it to the CSL print engine</t>
+  </si>
+  <si>
+    <t>CSL TP1 - Process the input folder and add the label file to the CSL database</t>
+  </si>
+  <si>
+    <t>WI_L14</t>
+  </si>
+  <si>
+    <t>WI_L20</t>
+  </si>
+  <si>
+    <t>LQA PC Setup for CSL</t>
+  </si>
+  <si>
+    <t>DAC Verification IVP</t>
+  </si>
+  <si>
+    <t>DCI 01.07.00 Readme</t>
+  </si>
+  <si>
+    <t>PD-004435 Automatic Lot to Lot Assignments</t>
+  </si>
+  <si>
+    <t>Release 01.90.00</t>
+  </si>
+  <si>
+    <t>LSP 01.88.00 IIVP CSL Migration REF</t>
+  </si>
+  <si>
+    <t>LSP 01.88.00 IIVP CSL Migration PROD</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 0.1 General Setup</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 1.1 Check Control User Access</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 1.2 Check Manage LabSolutions Users</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 1.3 Check Manage LabSolutions User Rights</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 2.2 Check Select Instrument System</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 2.3 Check Manage Instruments</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 2.4 Check Manage Columns</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 2.5 Check Import Method and Data Files</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 3.1 Check Method Files</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 4.1 Check Maintain Batch Tables</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 5.1 Check Single Run</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 5.2 Check Batch Run With Multiple Samples</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 5.3 Check Created Data Files</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 6.1 Check Maintain Report Templates</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 6.3 Check Sign and Print Reports</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 6.2 Check Evaluate Results</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 7.1 Check Event Log (Audit Trail)</t>
+  </si>
+  <si>
+    <t>WI_L19</t>
+  </si>
+  <si>
+    <t>WI_L21</t>
+  </si>
+  <si>
+    <t>WI_L22</t>
+  </si>
+  <si>
+    <t>PD-005851 - Upgrade LSP-ZARA for Compliance reasons</t>
+  </si>
+  <si>
+    <t>WI_C 31</t>
+  </si>
+  <si>
+    <t>Run 72</t>
+  </si>
+  <si>
+    <t>Release v33.30.0</t>
+  </si>
+  <si>
+    <t>Produktionsumgebung</t>
+  </si>
+  <si>
+    <t>Testumgebung</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>Release 6.1</t>
+  </si>
+  <si>
+    <t>Run 76</t>
+  </si>
+  <si>
+    <t>Run 77</t>
+  </si>
+  <si>
+    <t>Run 78</t>
+  </si>
+  <si>
+    <t>Run 82</t>
+  </si>
+  <si>
+    <t>Release 5.0f #2210/6.2.4256.3</t>
+  </si>
+  <si>
+    <t>Security &amp; Access Controls</t>
+  </si>
+  <si>
+    <t>SAC-FU</t>
+  </si>
+  <si>
+    <t>SAC-NF</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>ExOps-AD</t>
+  </si>
+  <si>
+    <t>ExOps-SED</t>
+  </si>
+  <si>
+    <t>ExOps-ID</t>
+  </si>
+  <si>
+    <t>WI_C 25</t>
+  </si>
+  <si>
+    <t>Release 01.10.00</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>WI_C 27</t>
   </si>
 </sst>
 </file>
@@ -2568,7 +2766,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>746</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
@@ -2579,7 +2777,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>611</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
@@ -2590,7 +2788,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>660</v>
+        <v>611</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -2601,7 +2799,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -2612,7 +2810,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>579</v>
+        <v>661</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
@@ -2623,7 +2821,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>95</v>
+        <v>579</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
@@ -2634,7 +2832,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>268</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2645,7 +2843,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
@@ -2656,7 +2854,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>632</v>
+        <v>264</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -2667,7 +2865,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>265</v>
+        <v>632</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
@@ -2678,7 +2876,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -2686,7 +2884,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="C18" t="s">
         <v>668</v>
@@ -2694,7 +2892,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>669</v>
@@ -2702,7 +2900,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -2710,7 +2908,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>562</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
@@ -2718,7 +2916,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>314</v>
+        <v>562</v>
       </c>
       <c r="C22" t="s">
         <v>49</v>
@@ -2726,7 +2924,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="C23" t="s">
         <v>272</v>
@@ -2734,7 +2932,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
@@ -2742,7 +2940,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -2750,7 +2948,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>625</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
@@ -2758,7 +2956,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>442</v>
+        <v>625</v>
       </c>
       <c r="C27" t="s">
         <v>65</v>
@@ -2766,7 +2964,7 @@
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>108</v>
+        <v>442</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -2774,7 +2972,7 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
@@ -2782,7 +2980,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>563</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
@@ -2790,7 +2988,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>88</v>
+        <v>563</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -2798,7 +2996,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
         <v>64</v>
@@ -2806,7 +3004,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
         <v>67</v>
@@ -2814,7 +3012,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -2822,7 +3020,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
         <v>257</v>
@@ -2830,7 +3028,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
@@ -2838,7 +3036,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
         <v>114</v>
@@ -2846,13 +3044,16 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
       <c r="C39" t="s">
         <v>47</v>
       </c>
@@ -2918,7 +3119,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C51">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C52">
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2928,20 +3129,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J1348"/>
+  <dimension ref="A1:J1510"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1342" sqref="I1342"/>
+      <pane ySplit="1" topLeftCell="A1478" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1511" sqref="A1511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="12" style="4" customWidth="1"/>
     <col min="9" max="9" width="32" customWidth="1"/>
@@ -37025,21 +37227,21 @@
         <v>1</v>
       </c>
       <c r="B1219" s="5" t="s">
-        <v>609</v>
+        <v>674</v>
       </c>
       <c r="C1219" s="5" t="s">
         <v>264</v>
       </c>
       <c r="D1219" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1219" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1219" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="G1219" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1219">
+        <v>1</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1219" t="s">
         <v>31</v>
       </c>
       <c r="H1219" s="4">
@@ -37057,16 +37259,16 @@
         <v>264</v>
       </c>
       <c r="D1220" s="5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E1220" s="5">
         <v>1</v>
       </c>
       <c r="F1220" s="5" t="s">
-        <v>23</v>
+        <v>656</v>
       </c>
       <c r="G1220" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1220" s="4">
         <v>44235</v>
@@ -37083,13 +37285,13 @@
         <v>264</v>
       </c>
       <c r="D1221" s="5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E1221" s="5">
         <v>1</v>
       </c>
       <c r="F1221" s="5" t="s">
-        <v>458</v>
+        <v>23</v>
       </c>
       <c r="G1221" s="5" t="s">
         <v>29</v>
@@ -37100,25 +37302,25 @@
     </row>
     <row r="1222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1222" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1222" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1222" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1222">
-        <v>1</v>
-      </c>
-      <c r="F1222" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1222" t="s">
-        <v>31</v>
+        <v>609</v>
+      </c>
+      <c r="C1222" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1222" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1222" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1222" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="G1222" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H1222" s="4">
         <v>44235</v>
@@ -37126,28 +37328,28 @@
     </row>
     <row r="1223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1223" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="C1223" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1223" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1223" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1223" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="G1223" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1223">
+        <v>1</v>
+      </c>
+      <c r="F1223" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1223" t="s">
         <v>31</v>
       </c>
       <c r="H1223" s="4">
-        <v>44236</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="1224" spans="1:9" x14ac:dyDescent="0.25">
@@ -37161,16 +37363,16 @@
         <v>264</v>
       </c>
       <c r="D1224" s="5" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E1224" s="5">
         <v>1</v>
       </c>
       <c r="F1224" s="5" t="s">
-        <v>23</v>
+        <v>659</v>
       </c>
       <c r="G1224" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1224" s="4">
         <v>44236</v>
@@ -37196,14 +37398,11 @@
         <v>23</v>
       </c>
       <c r="G1225" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1225" s="4">
         <v>44236</v>
       </c>
-      <c r="I1225" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
@@ -37216,49 +37415,49 @@
         <v>264</v>
       </c>
       <c r="D1226" s="5" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E1226" s="5">
         <v>1</v>
       </c>
       <c r="F1226" s="5" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="G1226" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1226" s="4">
         <v>44236</v>
       </c>
+      <c r="I1226" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1227" s="5" t="s">
-        <v>2</v>
+      <c r="A1227" t="s">
+        <v>1</v>
       </c>
       <c r="B1227" s="5" t="s">
-        <v>486</v>
+        <v>609</v>
       </c>
       <c r="C1227" s="5" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="D1227" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1227" s="5">
         <v>1</v>
       </c>
-      <c r="F1227" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1227" t="s">
-        <v>30</v>
+      <c r="F1227" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1227" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H1227" s="4">
         <v>44236</v>
       </c>
-      <c r="I1227" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1228" s="5" t="s">
@@ -37280,12 +37479,14 @@
         <v>23</v>
       </c>
       <c r="G1228" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1228" s="4">
         <v>44236</v>
       </c>
-      <c r="I1228" s="5"/>
+      <c r="I1228" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1229" s="5" t="s">
@@ -37298,7 +37499,7 @@
         <v>85</v>
       </c>
       <c r="D1229" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E1229" s="5">
         <v>1</v>
@@ -37307,7 +37508,7 @@
         <v>23</v>
       </c>
       <c r="G1229" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1229" s="4">
         <v>44236</v>
@@ -37325,23 +37526,21 @@
         <v>85</v>
       </c>
       <c r="D1230" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E1230" s="5">
         <v>1</v>
       </c>
       <c r="F1230" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="G1230" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="G1230" t="s">
+        <v>31</v>
       </c>
       <c r="H1230" s="4">
         <v>44236</v>
       </c>
-      <c r="I1230" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="I1230" s="5"/>
     </row>
     <row r="1231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1231" s="5" t="s">
@@ -37363,38 +37562,41 @@
         <v>610</v>
       </c>
       <c r="G1231" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1231" s="4">
         <v>44236</v>
       </c>
-      <c r="I1231" s="5"/>
+      <c r="I1231" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1232" t="s">
+      <c r="A1232" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1232" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1232" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1232" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1232">
-        <v>23</v>
+        <v>486</v>
+      </c>
+      <c r="C1232" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1232" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1232" s="5">
+        <v>1</v>
       </c>
       <c r="F1232" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="G1232" t="s">
-        <v>31</v>
+        <v>610</v>
+      </c>
+      <c r="G1232" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H1232" s="4">
-        <v>44237</v>
-      </c>
+        <v>44236</v>
+      </c>
+      <c r="I1232" s="5"/>
     </row>
     <row r="1233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
@@ -37410,7 +37612,7 @@
         <v>10</v>
       </c>
       <c r="E1233">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F1233" s="7" t="s">
         <v>607</v>
@@ -37433,10 +37635,10 @@
         <v>314</v>
       </c>
       <c r="D1234" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E1234">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F1234" s="7" t="s">
         <v>607</v>
@@ -37459,13 +37661,13 @@
         <v>314</v>
       </c>
       <c r="D1235" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E1235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1235" s="7" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="G1235" t="s">
         <v>31</v>
@@ -37485,13 +37687,13 @@
         <v>314</v>
       </c>
       <c r="D1236" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E1236">
         <v>1</v>
       </c>
       <c r="F1236" s="7" t="s">
-        <v>23</v>
+        <v>626</v>
       </c>
       <c r="G1236" t="s">
         <v>31</v>
@@ -37511,7 +37713,7 @@
         <v>314</v>
       </c>
       <c r="D1237" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E1237">
         <v>1</v>
@@ -37520,7 +37722,7 @@
         <v>23</v>
       </c>
       <c r="G1237" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1237" s="4">
         <v>44237</v>
@@ -37531,10 +37733,10 @@
         <v>2</v>
       </c>
       <c r="B1238" s="5" t="s">
-        <v>624</v>
+        <v>315</v>
       </c>
       <c r="C1238" t="s">
-        <v>625</v>
+        <v>314</v>
       </c>
       <c r="D1238" t="s">
         <v>13</v>
@@ -37546,7 +37748,7 @@
         <v>23</v>
       </c>
       <c r="G1238" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1238" s="4">
         <v>44237</v>
@@ -37554,28 +37756,28 @@
     </row>
     <row r="1239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1239" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="C1239" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1239" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1239" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1239" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1239" s="5" t="s">
-        <v>29</v>
+        <v>624</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1239">
+        <v>1</v>
+      </c>
+      <c r="F1239" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>31</v>
       </c>
       <c r="H1239" s="4">
-        <v>44238</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="1240" spans="1:9" x14ac:dyDescent="0.25">
@@ -37598,14 +37800,11 @@
         <v>23</v>
       </c>
       <c r="G1240" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1240" s="4">
         <v>44238</v>
       </c>
-      <c r="I1240" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="1241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
@@ -37618,20 +37817,23 @@
         <v>264</v>
       </c>
       <c r="D1241" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1241" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1241" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G1241" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1241" s="4">
         <v>44238</v>
       </c>
+      <c r="I1241" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
@@ -37644,16 +37846,16 @@
         <v>264</v>
       </c>
       <c r="D1242" s="5" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E1242" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1242" s="5" t="s">
-        <v>656</v>
+        <v>23</v>
       </c>
       <c r="G1242" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1242" s="4">
         <v>44238</v>
@@ -37676,7 +37878,7 @@
         <v>1</v>
       </c>
       <c r="F1243" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G1243" s="5" t="s">
         <v>29</v>
@@ -37702,7 +37904,7 @@
         <v>1</v>
       </c>
       <c r="F1244" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G1244" s="5" t="s">
         <v>29</v>
@@ -37728,17 +37930,14 @@
         <v>1</v>
       </c>
       <c r="F1245" s="5" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G1245" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1245" s="4">
         <v>44238</v>
       </c>
-      <c r="I1245" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
@@ -37757,7 +37956,7 @@
         <v>1</v>
       </c>
       <c r="F1246" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G1246" s="5" t="s">
         <v>30</v>
@@ -37786,7 +37985,7 @@
         <v>1</v>
       </c>
       <c r="F1247" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G1247" s="5" t="s">
         <v>30</v>
@@ -37799,32 +37998,32 @@
       </c>
     </row>
     <row r="1248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1248" s="5" t="s">
-        <v>2</v>
+      <c r="A1248" t="s">
+        <v>1</v>
       </c>
       <c r="B1248" s="5" t="s">
-        <v>486</v>
+        <v>609</v>
       </c>
       <c r="C1248" s="5" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="D1248" s="5" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E1248" s="5">
-        <v>2</v>
-      </c>
-      <c r="F1248" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1248" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1248" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="G1248" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H1248" s="4">
         <v>44238</v>
       </c>
-      <c r="I1248" s="5" t="s">
-        <v>17</v>
+      <c r="I1248" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1249" spans="1:9" x14ac:dyDescent="0.25">
@@ -37847,12 +38046,14 @@
         <v>23</v>
       </c>
       <c r="G1249" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1249" s="4">
         <v>44238</v>
       </c>
-      <c r="I1249" s="5"/>
+      <c r="I1249" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1250" s="5" t="s">
@@ -37865,16 +38066,16 @@
         <v>85</v>
       </c>
       <c r="D1250" s="5" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E1250" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1250" s="7" t="s">
-        <v>627</v>
+        <v>23</v>
       </c>
       <c r="G1250" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1250" s="4">
         <v>44238</v>
@@ -37898,7 +38099,7 @@
         <v>1</v>
       </c>
       <c r="F1251" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G1251" t="s">
         <v>31</v>
@@ -37925,7 +38126,7 @@
         <v>1</v>
       </c>
       <c r="F1252" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G1252" t="s">
         <v>31</v>
@@ -37952,7 +38153,7 @@
         <v>1</v>
       </c>
       <c r="F1253" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G1253" t="s">
         <v>31</v>
@@ -37979,7 +38180,7 @@
         <v>1</v>
       </c>
       <c r="F1254" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G1254" t="s">
         <v>31</v>
@@ -38000,13 +38201,13 @@
         <v>85</v>
       </c>
       <c r="D1255" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E1255" s="5">
         <v>1</v>
       </c>
       <c r="F1255" s="7" t="s">
-        <v>23</v>
+        <v>631</v>
       </c>
       <c r="G1255" t="s">
         <v>31</v>
@@ -38021,54 +38222,55 @@
         <v>2</v>
       </c>
       <c r="B1256" s="5" t="s">
-        <v>581</v>
+        <v>486</v>
       </c>
       <c r="C1256" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1256" s="5" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E1256" s="5">
         <v>1</v>
       </c>
       <c r="F1256" s="7" t="s">
-        <v>453</v>
+        <v>23</v>
       </c>
       <c r="G1256" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1256" s="4">
         <v>44238</v>
       </c>
-      <c r="I1256" s="5" t="s">
+      <c r="I1256" s="5"/>
+    </row>
+    <row r="1257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1257" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1257" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1257" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1257" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1257" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1257" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1257" s="4">
+        <v>44238</v>
+      </c>
+      <c r="I1257" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1257" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1257" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="C1257" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1257" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1257" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1257" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="G1257" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1257" s="4">
-        <v>44239</v>
       </c>
     </row>
     <row r="1258" spans="1:9" x14ac:dyDescent="0.25">
@@ -38088,7 +38290,7 @@
         <v>1</v>
       </c>
       <c r="F1258" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G1258" s="5" t="s">
         <v>29</v>
@@ -38114,7 +38316,7 @@
         <v>1</v>
       </c>
       <c r="F1259" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G1259" s="5" t="s">
         <v>29</v>
@@ -38140,17 +38342,14 @@
         <v>1</v>
       </c>
       <c r="F1260" s="5" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G1260" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1260" s="4">
         <v>44239</v>
       </c>
-      <c r="I1260" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="1261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
@@ -38169,7 +38368,7 @@
         <v>1</v>
       </c>
       <c r="F1261" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G1261" s="5" t="s">
         <v>30</v>
@@ -38198,7 +38397,7 @@
         <v>1</v>
       </c>
       <c r="F1262" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G1262" s="5" t="s">
         <v>30</v>
@@ -38221,19 +38420,22 @@
         <v>264</v>
       </c>
       <c r="D1263" s="5" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E1263" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1263" s="5" t="s">
-        <v>23</v>
+        <v>658</v>
       </c>
       <c r="G1263" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1263" s="4">
-        <v>44242</v>
+        <v>44239</v>
+      </c>
+      <c r="I1263" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="1264" spans="1:9" x14ac:dyDescent="0.25">
@@ -38241,22 +38443,22 @@
         <v>1</v>
       </c>
       <c r="B1264" s="5" t="s">
-        <v>609</v>
+        <v>745</v>
       </c>
       <c r="C1264" s="5" t="s">
-        <v>264</v>
+        <v>746</v>
       </c>
       <c r="D1264" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1264" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1264" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="G1264" s="5" t="s">
-        <v>29</v>
+        <v>667</v>
+      </c>
+      <c r="E1264">
+        <v>1</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>747</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>31</v>
       </c>
       <c r="H1264" s="4">
         <v>44242</v>
@@ -38273,23 +38475,20 @@
         <v>264</v>
       </c>
       <c r="D1265" s="5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E1265" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1265" s="5" t="s">
-        <v>531</v>
+        <v>23</v>
       </c>
       <c r="G1265" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1265" s="4">
         <v>44242</v>
       </c>
-      <c r="I1265" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
@@ -38302,16 +38501,16 @@
         <v>264</v>
       </c>
       <c r="D1266" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E1266" s="5">
         <v>1</v>
       </c>
       <c r="F1266" s="5" t="s">
-        <v>23</v>
+        <v>531</v>
       </c>
       <c r="G1266" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1266" s="4">
         <v>44242</v>
@@ -38319,86 +38518,83 @@
     </row>
     <row r="1267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1267" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1267" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1267" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1267">
-        <v>2</v>
-      </c>
-      <c r="F1267" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="G1267" t="s">
-        <v>31</v>
+        <v>609</v>
+      </c>
+      <c r="C1267" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1267" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1267" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1267" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G1267" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H1267" s="4">
         <v>44242</v>
       </c>
+      <c r="I1267" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1268" s="5" t="s">
-        <v>2</v>
+      <c r="A1268" t="s">
+        <v>1</v>
       </c>
       <c r="B1268" s="5" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="C1268" s="5" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="D1268" s="5" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E1268" s="5">
         <v>1</v>
       </c>
-      <c r="F1268" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1268" t="s">
-        <v>30</v>
+      <c r="F1268" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1268" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H1268" s="4">
         <v>44242</v>
       </c>
-      <c r="I1268" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1269" s="5" t="s">
+      <c r="A1269" t="s">
         <v>2</v>
       </c>
       <c r="B1269" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1269" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="D1269" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1269" s="5">
-        <v>1</v>
+        <v>315</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1269">
+        <v>2</v>
       </c>
       <c r="F1269" s="7" t="s">
-        <v>23</v>
+        <v>607</v>
       </c>
       <c r="G1269" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1269" s="4">
-        <v>44243</v>
-      </c>
-      <c r="I1269" s="5" t="s">
-        <v>15</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="1270" spans="1:9" x14ac:dyDescent="0.25">
@@ -38406,86 +38602,86 @@
         <v>2</v>
       </c>
       <c r="B1270" s="5" t="s">
-        <v>649</v>
+        <v>581</v>
       </c>
       <c r="C1270" s="5" t="s">
-        <v>632</v>
+        <v>85</v>
       </c>
       <c r="D1270" s="5" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E1270" s="5">
         <v>1</v>
       </c>
       <c r="F1270" s="7" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="G1270" t="s">
         <v>30</v>
       </c>
       <c r="H1270" s="4">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="I1270" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="1271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1271" t="s">
-        <v>1</v>
+      <c r="A1271" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B1271" s="5" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="C1271" s="5" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="D1271" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1271" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1271" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1271" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1271" s="4">
+        <v>44243</v>
+      </c>
+      <c r="I1271" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1272" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1272" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1272" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1272" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E1271" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1271" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1271" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1271" s="4">
-        <v>44244</v>
-      </c>
-      <c r="I1271" t="s">
+      <c r="E1272" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1272" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1272" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1272" s="4">
+        <v>44243</v>
+      </c>
+      <c r="I1272" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1272" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1272" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1272" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1272" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1272" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1272" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1272" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1272" s="4">
-        <v>44244</v>
-      </c>
-      <c r="I1272" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="1273" spans="1:9" x14ac:dyDescent="0.25">
@@ -38499,13 +38695,13 @@
         <v>660</v>
       </c>
       <c r="D1273" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E1273" s="5">
         <v>1</v>
       </c>
-      <c r="F1273" t="s">
-        <v>663</v>
+      <c r="F1273" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G1273" t="s">
         <v>30</v>
@@ -38514,7 +38710,7 @@
         <v>44244</v>
       </c>
       <c r="I1273" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1274" spans="1:9" x14ac:dyDescent="0.25">
@@ -38522,73 +38718,79 @@
         <v>1</v>
       </c>
       <c r="B1274" s="5" t="s">
-        <v>609</v>
+        <v>662</v>
       </c>
       <c r="C1274" s="5" t="s">
-        <v>264</v>
+        <v>660</v>
       </c>
       <c r="D1274" s="5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E1274" s="5">
         <v>1</v>
       </c>
       <c r="F1274" s="5" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="G1274" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1274" s="4">
         <v>44244</v>
       </c>
+      <c r="I1274" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1275" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1275" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1275" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1275">
-        <v>26</v>
-      </c>
-      <c r="F1275" s="7" t="s">
-        <v>608</v>
+        <v>662</v>
+      </c>
+      <c r="C1275" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1275" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1275" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1275" t="s">
+        <v>663</v>
       </c>
       <c r="G1275" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1275" s="4">
         <v>44244</v>
       </c>
+      <c r="I1275" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1276" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1276" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1276" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1276">
-        <v>29</v>
-      </c>
-      <c r="F1276" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="G1276" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1276" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1276" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1276" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1276" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1276" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1276" s="4">
@@ -38596,60 +38798,56 @@
       </c>
     </row>
     <row r="1277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1277" s="5" t="s">
+      <c r="A1277" t="s">
         <v>2</v>
       </c>
       <c r="B1277" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="C1277" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1277" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1277" s="5">
-        <v>1</v>
+        <v>315</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1277">
+        <v>26</v>
       </c>
       <c r="F1277" s="7" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="G1277" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1277" s="4">
         <v>44244</v>
       </c>
-      <c r="I1277" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1278" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1278" s="5" t="s">
+      <c r="A1278" t="s">
         <v>2</v>
       </c>
       <c r="B1278" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="C1278" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1278" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1278" s="5">
-        <v>1</v>
+        <v>315</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1278">
+        <v>29</v>
       </c>
       <c r="F1278" s="7" t="s">
-        <v>633</v>
+        <v>584</v>
       </c>
       <c r="G1278" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1278" s="4">
         <v>44244</v>
       </c>
-      <c r="I1278" s="5"/>
     </row>
     <row r="1279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1279" s="5" t="s">
@@ -38662,13 +38860,13 @@
         <v>85</v>
       </c>
       <c r="D1279" s="5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E1279" s="5">
         <v>1</v>
       </c>
       <c r="F1279" s="7" t="s">
-        <v>23</v>
+        <v>633</v>
       </c>
       <c r="G1279" t="s">
         <v>30</v>
@@ -38691,188 +38889,186 @@
         <v>85</v>
       </c>
       <c r="D1280" s="5" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="E1280" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1280" s="7" t="s">
-        <v>195</v>
+        <v>633</v>
       </c>
       <c r="G1280" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1280" s="4">
         <v>44244</v>
       </c>
-      <c r="I1280" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="I1280" s="5"/>
     </row>
     <row r="1281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1281" t="s">
+      <c r="A1281" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1281" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="C1281" t="s">
-        <v>563</v>
-      </c>
-      <c r="D1281" t="s">
-        <v>62</v>
+        <v>581</v>
+      </c>
+      <c r="C1281" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1281" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E1281" s="5">
         <v>1</v>
       </c>
       <c r="F1281" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="G1281" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>30</v>
       </c>
       <c r="H1281" s="4">
         <v>44244</v>
       </c>
+      <c r="I1281" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1282" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1282" t="s">
+      <c r="A1282" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1282" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="C1282" t="s">
-        <v>563</v>
-      </c>
-      <c r="D1282" t="s">
-        <v>62</v>
+        <v>581</v>
+      </c>
+      <c r="C1282" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1282" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E1282" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1282" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="G1282" s="5" t="s">
-        <v>31</v>
+        <v>195</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>30</v>
       </c>
       <c r="H1282" s="4">
         <v>44244</v>
       </c>
+      <c r="I1282" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1283" s="5" t="s">
+      <c r="A1283" t="s">
         <v>2</v>
       </c>
       <c r="B1283" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1283" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1283" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="G1283" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1283" s="4">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1284" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1284" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1284" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1284" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="G1284" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1284" s="4">
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1285" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1285" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="C1283" s="5" t="s">
+      <c r="C1285" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="D1283" s="5" t="s">
+      <c r="D1285" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E1283" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1283" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1283" t="s">
+      <c r="E1285" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1285" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1285" t="s">
         <v>29</v>
       </c>
-      <c r="H1283" s="4">
+      <c r="H1285" s="4">
         <v>44245</v>
       </c>
-      <c r="I1283" s="5"/>
-    </row>
-    <row r="1284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1284" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1284" s="5" t="s">
+      <c r="I1285" s="5"/>
+    </row>
+    <row r="1286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1286" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1286" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="C1284" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1284" s="5" t="s">
+      <c r="C1286" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1286" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E1284" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1284" s="7" t="s">
+      <c r="E1286" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1286" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="G1284" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1284" s="4">
+      <c r="G1286" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1286" s="4">
         <v>44245</v>
       </c>
-      <c r="I1284" s="5" t="s">
+      <c r="I1286" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1285" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1285" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1285" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1285" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1285" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1285" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1285" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1285" s="4">
-        <v>44246</v>
-      </c>
-      <c r="I1285" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1286" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1286" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1286" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1286" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1286" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1286" t="s">
-        <v>663</v>
-      </c>
-      <c r="G1286" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1286" s="4">
-        <v>44246</v>
-      </c>
-      <c r="I1286" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="1287" spans="1:9" x14ac:dyDescent="0.25">
@@ -38886,19 +39082,19 @@
         <v>660</v>
       </c>
       <c r="D1287" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1287" s="5">
         <v>1</v>
       </c>
-      <c r="F1287" t="s">
+      <c r="F1287" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G1287" t="s">
         <v>30</v>
       </c>
       <c r="H1287" s="4">
-        <v>44249</v>
+        <v>44246</v>
       </c>
       <c r="I1287" t="s">
         <v>22</v>
@@ -38915,22 +39111,22 @@
         <v>660</v>
       </c>
       <c r="D1288" s="5" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E1288" s="5">
         <v>1</v>
       </c>
-      <c r="F1288" s="5" t="s">
-        <v>23</v>
+      <c r="F1288" t="s">
+        <v>663</v>
       </c>
       <c r="G1288" t="s">
         <v>30</v>
       </c>
       <c r="H1288" s="4">
-        <v>44249</v>
+        <v>44246</v>
       </c>
       <c r="I1288" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1289" spans="1:9" x14ac:dyDescent="0.25">
@@ -38944,13 +39140,13 @@
         <v>660</v>
       </c>
       <c r="D1289" s="5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E1289" s="5">
         <v>1</v>
       </c>
       <c r="F1289" t="s">
-        <v>663</v>
+        <v>23</v>
       </c>
       <c r="G1289" t="s">
         <v>30</v>
@@ -38963,23 +39159,23 @@
       </c>
     </row>
     <row r="1290" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1290" s="5" t="s">
-        <v>2</v>
+      <c r="A1290" t="s">
+        <v>1</v>
       </c>
       <c r="B1290" s="5" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="C1290" s="5" t="s">
-        <v>85</v>
+        <v>660</v>
       </c>
       <c r="D1290" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E1290" s="5">
         <v>1</v>
       </c>
-      <c r="F1290" s="7" t="s">
-        <v>641</v>
+      <c r="F1290" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G1290" t="s">
         <v>30</v>
@@ -38987,7 +39183,7 @@
       <c r="H1290" s="4">
         <v>44249</v>
       </c>
-      <c r="I1290" s="5" t="s">
+      <c r="I1290" t="s">
         <v>15</v>
       </c>
     </row>
@@ -39002,22 +39198,22 @@
         <v>660</v>
       </c>
       <c r="D1291" s="5" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E1291" s="5">
         <v>1</v>
       </c>
       <c r="F1291" t="s">
-        <v>23</v>
+        <v>663</v>
       </c>
       <c r="G1291" t="s">
         <v>30</v>
       </c>
       <c r="H1291" s="4">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="I1291" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1292" spans="1:9" x14ac:dyDescent="0.25">
@@ -39025,27 +39221,29 @@
         <v>2</v>
       </c>
       <c r="B1292" s="5" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="C1292" s="5" t="s">
-        <v>558</v>
+        <v>85</v>
       </c>
       <c r="D1292" s="5" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E1292" s="5">
         <v>1</v>
       </c>
       <c r="F1292" s="7" t="s">
-        <v>23</v>
+        <v>641</v>
       </c>
       <c r="G1292" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1292" s="4">
-        <v>44251</v>
-      </c>
-      <c r="I1292" s="5"/>
+        <v>44249</v>
+      </c>
+      <c r="I1292" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
@@ -39058,22 +39256,22 @@
         <v>660</v>
       </c>
       <c r="D1293" s="5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E1293" s="5">
         <v>1</v>
       </c>
       <c r="F1293" t="s">
-        <v>663</v>
+        <v>23</v>
       </c>
       <c r="G1293" t="s">
         <v>30</v>
       </c>
       <c r="H1293" s="4">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="I1293" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1294" spans="1:9" x14ac:dyDescent="0.25">
@@ -39081,22 +39279,22 @@
         <v>2</v>
       </c>
       <c r="B1294" s="5" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="C1294" s="5" t="s">
-        <v>85</v>
+        <v>558</v>
       </c>
       <c r="D1294" s="5" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="E1294" s="5">
         <v>1</v>
       </c>
       <c r="F1294" s="7" t="s">
-        <v>634</v>
+        <v>23</v>
       </c>
       <c r="G1294" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1294" s="4">
         <v>44251</v>
@@ -39104,31 +39302,33 @@
       <c r="I1294" s="5"/>
     </row>
     <row r="1295" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1295" s="5" t="s">
-        <v>2</v>
+      <c r="A1295" t="s">
+        <v>1</v>
       </c>
       <c r="B1295" s="5" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="C1295" s="5" t="s">
-        <v>85</v>
+        <v>660</v>
       </c>
       <c r="D1295" s="5" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E1295" s="5">
         <v>1</v>
       </c>
-      <c r="F1295" s="7" t="s">
-        <v>635</v>
+      <c r="F1295" t="s">
+        <v>663</v>
       </c>
       <c r="G1295" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1295" s="4">
         <v>44251</v>
       </c>
-      <c r="I1295" s="5"/>
+      <c r="I1295" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1296" s="5" t="s">
@@ -39141,16 +39341,16 @@
         <v>85</v>
       </c>
       <c r="D1296" s="5" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E1296" s="5">
         <v>1</v>
       </c>
       <c r="F1296" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G1296" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1296" s="4">
         <v>44251</v>
@@ -39168,16 +39368,16 @@
         <v>85</v>
       </c>
       <c r="D1297" s="5" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E1297" s="5">
         <v>1</v>
       </c>
       <c r="F1297" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G1297" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1297" s="4">
         <v>44251</v>
@@ -39201,7 +39401,7 @@
         <v>1</v>
       </c>
       <c r="F1298" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G1298" t="s">
         <v>31</v>
@@ -39228,7 +39428,7 @@
         <v>1</v>
       </c>
       <c r="F1299" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G1299" t="s">
         <v>31</v>
@@ -39255,7 +39455,7 @@
         <v>1</v>
       </c>
       <c r="F1300" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G1300" t="s">
         <v>31</v>
@@ -39276,16 +39476,16 @@
         <v>85</v>
       </c>
       <c r="D1301" s="5" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E1301" s="5">
         <v>1</v>
       </c>
       <c r="F1301" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G1301" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1301" s="4">
         <v>44251</v>
@@ -39293,113 +39493,113 @@
       <c r="I1301" s="5"/>
     </row>
     <row r="1302" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1302" t="s">
+      <c r="A1302" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1302" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1302" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1302" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1302" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1302" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1302" s="4">
+        <v>44251</v>
+      </c>
+      <c r="I1302" s="5"/>
+    </row>
+    <row r="1303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1303" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1303" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1303" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1303" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1303" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1303" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1303" s="4">
+        <v>44251</v>
+      </c>
+      <c r="I1303" s="5"/>
+    </row>
+    <row r="1304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1304" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="C1302" t="s">
+      <c r="C1304" t="s">
         <v>611</v>
       </c>
-      <c r="D1302" t="s">
+      <c r="D1304" t="s">
         <v>40</v>
       </c>
-      <c r="E1302">
-        <v>23</v>
-      </c>
-      <c r="F1302" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1302" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1302" s="4">
-        <v>44252</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1303" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1303" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1303" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1303" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1303" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1303" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1303" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1303" s="4">
-        <v>44252</v>
-      </c>
-      <c r="I1303" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1304" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1304" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="C1304" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1304" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1304" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1304" s="7" t="s">
+      <c r="E1304">
+        <v>23</v>
+      </c>
+      <c r="F1304" t="s">
         <v>23</v>
       </c>
       <c r="G1304" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1304" s="4">
         <v>44252</v>
       </c>
-      <c r="I1304" s="5"/>
     </row>
     <row r="1305" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1305" s="5" t="s">
-        <v>2</v>
+      <c r="A1305" t="s">
+        <v>1</v>
       </c>
       <c r="B1305" s="5" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="C1305" s="5" t="s">
-        <v>85</v>
+        <v>660</v>
       </c>
       <c r="D1305" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E1305" s="5">
         <v>1</v>
       </c>
-      <c r="F1305" s="7" t="s">
+      <c r="F1305" t="s">
         <v>23</v>
       </c>
       <c r="G1305" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1305" s="4">
         <v>44252</v>
       </c>
-      <c r="I1305" s="5"/>
+      <c r="I1305" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1306" s="5" t="s">
@@ -39411,21 +39611,22 @@
       <c r="C1306" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D1306" t="s">
-        <v>59</v>
+      <c r="D1306" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E1306" s="5">
         <v>1</v>
       </c>
       <c r="F1306" s="7" t="s">
-        <v>642</v>
+        <v>23</v>
       </c>
       <c r="G1306" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1306" s="4">
         <v>44252</v>
       </c>
+      <c r="I1306" s="5"/>
     </row>
     <row r="1307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1307" s="5" t="s">
@@ -39437,14 +39638,14 @@
       <c r="C1307" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D1307" t="s">
-        <v>59</v>
+      <c r="D1307" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E1307" s="5">
         <v>1</v>
       </c>
       <c r="F1307" s="7" t="s">
-        <v>643</v>
+        <v>23</v>
       </c>
       <c r="G1307" t="s">
         <v>31</v>
@@ -39452,6 +39653,7 @@
       <c r="H1307" s="4">
         <v>44252</v>
       </c>
+      <c r="I1307" s="5"/>
     </row>
     <row r="1308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1308" s="5" t="s">
@@ -39470,7 +39672,7 @@
         <v>1</v>
       </c>
       <c r="F1308" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G1308" t="s">
         <v>31</v>
@@ -39496,7 +39698,7 @@
         <v>1</v>
       </c>
       <c r="F1309" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G1309" t="s">
         <v>31</v>
@@ -39522,7 +39724,7 @@
         <v>1</v>
       </c>
       <c r="F1310" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G1310" t="s">
         <v>31</v>
@@ -39548,7 +39750,7 @@
         <v>1</v>
       </c>
       <c r="F1311" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G1311" t="s">
         <v>31</v>
@@ -39574,7 +39776,7 @@
         <v>1</v>
       </c>
       <c r="F1312" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G1312" t="s">
         <v>31</v>
@@ -39593,22 +39795,21 @@
       <c r="C1313" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D1313" s="5" t="s">
-        <v>14</v>
+      <c r="D1313" t="s">
+        <v>59</v>
       </c>
       <c r="E1313" s="5">
         <v>1</v>
       </c>
       <c r="F1313" s="7" t="s">
-        <v>453</v>
+        <v>647</v>
       </c>
       <c r="G1313" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1313" s="4">
         <v>44252</v>
       </c>
-      <c r="I1313" s="5"/>
     </row>
     <row r="1314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1314" s="5" t="s">
@@ -39620,51 +39821,48 @@
       <c r="C1314" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D1314" s="5" t="s">
-        <v>14</v>
+      <c r="D1314" t="s">
+        <v>59</v>
       </c>
       <c r="E1314" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1314" s="7" t="s">
-        <v>195</v>
+        <v>648</v>
       </c>
       <c r="G1314" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1314" s="4">
         <v>44252</v>
       </c>
-      <c r="I1314" s="5"/>
     </row>
     <row r="1315" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1315" t="s">
-        <v>1</v>
+      <c r="A1315" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B1315" s="5" t="s">
-        <v>662</v>
+        <v>581</v>
       </c>
       <c r="C1315" s="5" t="s">
-        <v>660</v>
+        <v>85</v>
       </c>
       <c r="D1315" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1315" s="5">
         <v>1</v>
       </c>
-      <c r="F1315" t="s">
-        <v>663</v>
+      <c r="F1315" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="G1315" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1315" s="4">
-        <v>44253</v>
-      </c>
-      <c r="I1315" t="s">
-        <v>22</v>
-      </c>
+        <v>44252</v>
+      </c>
+      <c r="I1315" s="5"/>
     </row>
     <row r="1316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1316" s="5" t="s">
@@ -39677,48 +39875,50 @@
         <v>85</v>
       </c>
       <c r="D1316" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E1316" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1316" s="7" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="G1316" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1316" s="4">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="I1316" s="5"/>
     </row>
     <row r="1317" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1317" s="5" t="s">
-        <v>2</v>
+      <c r="A1317" t="s">
+        <v>1</v>
       </c>
       <c r="B1317" s="5" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="C1317" s="5" t="s">
-        <v>85</v>
+        <v>660</v>
       </c>
       <c r="D1317" s="5" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E1317" s="5">
         <v>1</v>
       </c>
-      <c r="F1317" s="7" t="s">
-        <v>650</v>
+      <c r="F1317" t="s">
+        <v>663</v>
       </c>
       <c r="G1317" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1317" s="4">
         <v>44253</v>
       </c>
-      <c r="I1317" s="5"/>
+      <c r="I1317" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1318" s="5" t="s">
@@ -39731,13 +39931,13 @@
         <v>85</v>
       </c>
       <c r="D1318" s="5" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E1318" s="5">
         <v>1</v>
       </c>
       <c r="F1318" s="7" t="s">
-        <v>651</v>
+        <v>23</v>
       </c>
       <c r="G1318" t="s">
         <v>31</v>
@@ -39764,7 +39964,7 @@
         <v>1</v>
       </c>
       <c r="F1319" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G1319" t="s">
         <v>31</v>
@@ -39791,7 +39991,7 @@
         <v>1</v>
       </c>
       <c r="F1320" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G1320" t="s">
         <v>31</v>
@@ -39818,7 +40018,7 @@
         <v>1</v>
       </c>
       <c r="F1321" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G1321" t="s">
         <v>31</v>
@@ -39839,19 +40039,19 @@
         <v>85</v>
       </c>
       <c r="D1322" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E1322" s="5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F1322" s="7" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="G1322" t="s">
         <v>31</v>
       </c>
       <c r="H1322" s="4">
-        <v>44256</v>
+        <v>44253</v>
       </c>
       <c r="I1322" s="5"/>
     </row>
@@ -39866,154 +40066,164 @@
         <v>85</v>
       </c>
       <c r="D1323" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E1323" s="5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F1323" s="7" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="G1323" t="s">
         <v>31</v>
       </c>
       <c r="H1323" s="4">
-        <v>44256</v>
+        <v>44253</v>
       </c>
       <c r="I1323" s="5"/>
     </row>
     <row r="1324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1324" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1324" s="5" t="s">
-        <v>581</v>
+        <v>671</v>
       </c>
       <c r="C1324" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1324" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E1324" s="5">
-        <v>23</v>
-      </c>
-      <c r="F1324" s="7" t="s">
-        <v>638</v>
+        <v>1</v>
+      </c>
+      <c r="F1324" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G1324" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1324" s="4">
         <v>44256</v>
       </c>
-      <c r="I1324" s="5"/>
+      <c r="I1324" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1325" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1325" s="5" t="s">
-        <v>581</v>
+        <v>671</v>
       </c>
       <c r="C1325" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1325" s="5" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E1325" s="5">
-        <v>25</v>
-      </c>
-      <c r="F1325" s="7" t="s">
-        <v>639</v>
+        <v>1</v>
+      </c>
+      <c r="F1325" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G1325" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1325" s="4">
         <v>44256</v>
       </c>
-      <c r="I1325" s="5"/>
+      <c r="I1325" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1326" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1326" s="5" t="s">
-        <v>581</v>
+        <v>671</v>
       </c>
       <c r="C1326" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1326" s="5" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E1326" s="5">
         <v>1</v>
       </c>
-      <c r="F1326" s="7" t="s">
-        <v>641</v>
+      <c r="F1326" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G1326" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1326" s="4">
         <v>44256</v>
       </c>
-      <c r="I1326" s="5"/>
+      <c r="I1326" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1327" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1327" s="5" t="s">
-        <v>581</v>
+        <v>671</v>
       </c>
       <c r="C1327" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1327" t="s">
-        <v>60</v>
+        <v>83</v>
+      </c>
+      <c r="D1327" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E1327" s="5">
         <v>1</v>
       </c>
-      <c r="F1327" s="7" t="s">
-        <v>642</v>
+      <c r="F1327" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G1327" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1327" s="4">
         <v>44256</v>
       </c>
+      <c r="I1327" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1328" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1328" s="5" t="s">
-        <v>665</v>
+        <v>581</v>
       </c>
       <c r="C1328" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D1328" t="s">
-        <v>41</v>
+      <c r="D1328" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E1328" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1328" t="s">
-        <v>664</v>
+        <v>22</v>
+      </c>
+      <c r="F1328" s="7" t="s">
+        <v>636</v>
       </c>
       <c r="G1328" t="s">
         <v>31</v>
       </c>
       <c r="H1328" s="4">
-        <v>44257</v>
-      </c>
+        <v>44256</v>
+      </c>
+      <c r="I1328" s="5"/>
     </row>
     <row r="1329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1329" s="5" t="s">
@@ -40025,21 +40235,22 @@
       <c r="C1329" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D1329" t="s">
-        <v>60</v>
+      <c r="D1329" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E1329" s="5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F1329" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G1329" t="s">
         <v>31</v>
       </c>
       <c r="H1329" s="4">
-        <v>44257</v>
-      </c>
+        <v>44256</v>
+      </c>
+      <c r="I1329" s="5"/>
     </row>
     <row r="1330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1330" s="5" t="s">
@@ -40051,21 +40262,22 @@
       <c r="C1330" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D1330" t="s">
-        <v>60</v>
+      <c r="D1330" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E1330" s="5">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F1330" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="G1330" t="s">
         <v>31</v>
       </c>
       <c r="H1330" s="4">
-        <v>44257</v>
-      </c>
+        <v>44256</v>
+      </c>
+      <c r="I1330" s="5"/>
     </row>
     <row r="1331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1331" s="5" t="s">
@@ -40077,24 +40289,22 @@
       <c r="C1331" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D1331" t="s">
-        <v>60</v>
+      <c r="D1331" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E1331" s="5">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F1331" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G1331" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1331" s="4">
-        <v>44257</v>
-      </c>
-      <c r="I1331" t="s">
-        <v>15</v>
-      </c>
+        <v>44256</v>
+      </c>
+      <c r="I1331" s="5"/>
     </row>
     <row r="1332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1332" s="5" t="s">
@@ -40106,21 +40316,22 @@
       <c r="C1332" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D1332" t="s">
+      <c r="D1332" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E1332" s="5">
         <v>1</v>
       </c>
       <c r="F1332" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G1332" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1332" s="4">
-        <v>44257</v>
-      </c>
+        <v>44256</v>
+      </c>
+      <c r="I1332" s="5"/>
     </row>
     <row r="1333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1333" s="5" t="s">
@@ -40133,19 +40344,19 @@
         <v>85</v>
       </c>
       <c r="D1333" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E1333" s="5">
         <v>1</v>
       </c>
       <c r="F1333" s="7" t="s">
-        <v>23</v>
+        <v>642</v>
       </c>
       <c r="G1333" t="s">
         <v>31</v>
       </c>
       <c r="H1333" s="4">
-        <v>44258</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="1334" spans="1:9" x14ac:dyDescent="0.25">
@@ -40153,25 +40364,25 @@
         <v>2</v>
       </c>
       <c r="B1334" s="5" t="s">
-        <v>581</v>
+        <v>665</v>
       </c>
       <c r="C1334" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1334" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E1334" s="5">
         <v>1</v>
       </c>
-      <c r="F1334" s="7" t="s">
-        <v>23</v>
+      <c r="F1334" t="s">
+        <v>664</v>
       </c>
       <c r="G1334" t="s">
         <v>31</v>
       </c>
       <c r="H1334" s="4">
-        <v>44258</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="1335" spans="1:9" x14ac:dyDescent="0.25">
@@ -40191,13 +40402,13 @@
         <v>1</v>
       </c>
       <c r="F1335" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G1335" t="s">
         <v>31</v>
       </c>
       <c r="H1335" s="4">
-        <v>44258</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="1336" spans="1:9" x14ac:dyDescent="0.25">
@@ -40217,13 +40428,13 @@
         <v>1</v>
       </c>
       <c r="F1336" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G1336" t="s">
         <v>31</v>
       </c>
       <c r="H1336" s="4">
-        <v>44258</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="1337" spans="1:9" x14ac:dyDescent="0.25">
@@ -40243,13 +40454,13 @@
         <v>1</v>
       </c>
       <c r="F1337" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G1337" t="s">
         <v>30</v>
       </c>
       <c r="H1337" s="4">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="I1337" t="s">
         <v>15</v>
@@ -40272,192 +40483,192 @@
         <v>1</v>
       </c>
       <c r="F1338" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G1338" t="s">
         <v>29</v>
       </c>
       <c r="H1338" s="4">
-        <v>44258</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="1339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1339" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1339" s="5" t="s">
-        <v>671</v>
+        <v>581</v>
       </c>
       <c r="C1339" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1339" s="5" t="s">
-        <v>668</v>
+        <v>85</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>63</v>
       </c>
       <c r="E1339" s="5">
         <v>1</v>
       </c>
-      <c r="F1339" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="G1339" s="5" t="s">
+      <c r="F1339" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1339" t="s">
         <v>31</v>
       </c>
       <c r="H1339" s="4">
-        <v>44259</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="1340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1340" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1340" s="5" t="s">
-        <v>674</v>
+        <v>581</v>
       </c>
       <c r="C1340" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1340" s="5" t="s">
-        <v>666</v>
+        <v>85</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>70</v>
       </c>
       <c r="E1340" s="5">
         <v>1</v>
       </c>
-      <c r="F1340" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="G1340" s="5" t="s">
+      <c r="F1340" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1340" t="s">
         <v>31</v>
       </c>
       <c r="H1340" s="4">
-        <v>44259</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="1341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1341" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1341" s="5" t="s">
-        <v>674</v>
+        <v>581</v>
       </c>
       <c r="C1341" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1341" s="5" t="s">
-        <v>666</v>
+        <v>85</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>60</v>
       </c>
       <c r="E1341" s="5">
         <v>1</v>
       </c>
-      <c r="F1341" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="G1341" s="5" t="s">
+      <c r="F1341" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="G1341" t="s">
         <v>31</v>
       </c>
       <c r="H1341" s="4">
-        <v>44259</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="1342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1342" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1342" s="5" t="s">
-        <v>674</v>
+        <v>581</v>
       </c>
       <c r="C1342" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1342" s="5" t="s">
-        <v>667</v>
+        <v>85</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>60</v>
       </c>
       <c r="E1342" s="5">
         <v>1</v>
       </c>
-      <c r="F1342" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="G1342" s="5" t="s">
-        <v>30</v>
+      <c r="F1342" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="G1342" t="s">
+        <v>31</v>
       </c>
       <c r="H1342" s="4">
-        <v>44259</v>
-      </c>
-      <c r="I1342" t="s">
-        <v>16</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="1343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1343" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1343" s="5" t="s">
-        <v>267</v>
+        <v>581</v>
       </c>
       <c r="C1343" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1343" s="5" t="s">
-        <v>666</v>
+        <v>85</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>60</v>
       </c>
       <c r="E1343" s="5">
         <v>1</v>
       </c>
-      <c r="F1343" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="G1343" s="5" t="s">
-        <v>31</v>
+      <c r="F1343" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="G1343" t="s">
+        <v>30</v>
       </c>
       <c r="H1343" s="4">
-        <v>44259</v>
+        <v>44258</v>
+      </c>
+      <c r="I1343" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1344" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1344" s="5" t="s">
-        <v>267</v>
+        <v>581</v>
       </c>
       <c r="C1344" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1344" s="5" t="s">
-        <v>666</v>
+        <v>85</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>60</v>
       </c>
       <c r="E1344" s="5">
         <v>1</v>
       </c>
-      <c r="F1344" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="G1344" s="5" t="s">
-        <v>31</v>
+      <c r="F1344" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="G1344" t="s">
+        <v>29</v>
       </c>
       <c r="H1344" s="4">
-        <v>44259</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44258</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1345" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1345" s="5" t="s">
-        <v>148</v>
+        <v>671</v>
       </c>
       <c r="C1345" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D1345" s="5" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E1345" s="5">
         <v>1</v>
       </c>
       <c r="F1345" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G1345" s="5" t="s">
         <v>31</v>
@@ -40466,41 +40677,41 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="1346" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1346" s="5" t="s">
+    <row r="1346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1346" t="s">
         <v>1</v>
       </c>
       <c r="B1346" s="5" t="s">
-        <v>148</v>
+        <v>671</v>
       </c>
       <c r="C1346" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D1346" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="E1346" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1346" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="G1346" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1346">
+        <v>1</v>
+      </c>
+      <c r="F1346" t="s">
+        <v>672</v>
+      </c>
+      <c r="G1346" t="s">
         <v>31</v>
       </c>
       <c r="H1346" s="4">
         <v>44259</v>
       </c>
     </row>
-    <row r="1347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1347" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1347" s="5" t="s">
-        <v>148</v>
+        <v>674</v>
       </c>
       <c r="C1347" s="5" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="D1347" s="5" t="s">
         <v>666</v>
@@ -40509,7 +40720,7 @@
         <v>1</v>
       </c>
       <c r="F1347" s="5" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="G1347" s="5" t="s">
         <v>31</v>
@@ -40518,44 +40729,4307 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="1348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1348" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1348" s="5" t="s">
-        <v>295</v>
+        <v>674</v>
       </c>
       <c r="C1348" s="5" t="s">
-        <v>89</v>
+        <v>264</v>
       </c>
       <c r="D1348" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E1348" s="5">
         <v>1</v>
       </c>
-      <c r="F1348" t="s">
-        <v>670</v>
-      </c>
-      <c r="G1348" t="s">
+      <c r="F1348" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="G1348" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1348" s="4">
         <v>44259</v>
       </c>
     </row>
+    <row r="1349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1349" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1349" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1349" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1349">
+        <v>1</v>
+      </c>
+      <c r="F1349" t="s">
+        <v>675</v>
+      </c>
+      <c r="G1349" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1349" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1350" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1350" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1350" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1350">
+        <v>1</v>
+      </c>
+      <c r="F1350" t="s">
+        <v>679</v>
+      </c>
+      <c r="G1350" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1350" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1351" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1351" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1351" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1351" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1351" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1351" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="G1351" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1351" s="4">
+        <v>44259</v>
+      </c>
+      <c r="I1351" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1352" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1352" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1352" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1352" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1352" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1352" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1352" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1352" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1353" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1353" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1353" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1353" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1353" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1353" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G1353" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1353" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1354" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1354" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1354" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1354">
+        <v>1</v>
+      </c>
+      <c r="F1354" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1354" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1354" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1355" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1355" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1355" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1355">
+        <v>1</v>
+      </c>
+      <c r="F1355" t="s">
+        <v>678</v>
+      </c>
+      <c r="G1355" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1355" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1356" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1356" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1356" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1356" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1356" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1356" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="G1356" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1356" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1357" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1357" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1357" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1357" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1357" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1357" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="G1357" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1357" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1358" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1358" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1358" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1358" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1358" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1358" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="G1358" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1358" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1359" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1359" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1359" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1359">
+        <v>1</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>676</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1359" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1360" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1360" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1360" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1360">
+        <v>1</v>
+      </c>
+      <c r="F1360" t="s">
+        <v>677</v>
+      </c>
+      <c r="G1360" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1360" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1361" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1361" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1361" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1361" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1361">
+        <v>1</v>
+      </c>
+      <c r="F1361" t="s">
+        <v>681</v>
+      </c>
+      <c r="G1361" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1361" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1362" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1362" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1362" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1362" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1362" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1362" t="s">
+        <v>670</v>
+      </c>
+      <c r="G1362" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1362" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1363" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1363" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1363" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1363" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1363">
+        <v>1</v>
+      </c>
+      <c r="F1363" t="s">
+        <v>670</v>
+      </c>
+      <c r="G1363" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1363" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1364" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1364" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1364" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1364" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1364" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1364" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1364" s="4">
+        <v>44260</v>
+      </c>
+      <c r="I1364" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1365" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1365" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1365" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1365" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1365" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1365" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1365" s="4">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1366" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1366" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1366" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1366" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1366" t="s">
+        <v>686</v>
+      </c>
+      <c r="G1366" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1366" s="4">
+        <v>44260</v>
+      </c>
+      <c r="I1366" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1367" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1367" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1367" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1367" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1367" t="s">
+        <v>686</v>
+      </c>
+      <c r="G1367" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1367" s="4">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1368" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1368" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1368" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1368" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1368" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1368" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="G1368" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1368" s="4">
+        <v>44260</v>
+      </c>
+      <c r="I1368" s="5"/>
+    </row>
+    <row r="1369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1369" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1369" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1369" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1369" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1369" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1369" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="G1369" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1369" s="4">
+        <v>44260</v>
+      </c>
+      <c r="I1369" s="5"/>
+    </row>
+    <row r="1370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1370" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1370" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1370" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1370" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1370" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1370" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="G1370" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1370" s="4">
+        <v>44260</v>
+      </c>
+      <c r="I1370" s="5"/>
+    </row>
+    <row r="1371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1371" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1371" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1371" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1371" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1371" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1371" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="G1371" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1371" s="4">
+        <v>44260</v>
+      </c>
+      <c r="I1371" s="5"/>
+    </row>
+    <row r="1372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1372" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1372" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1372" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1372" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1372" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1372" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1372" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1372" s="4">
+        <v>44260</v>
+      </c>
+      <c r="I1372" s="5"/>
+    </row>
+    <row r="1373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1373" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1373" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1373" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1373" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1373" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1373" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1373" s="4">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1374" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1374" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1374" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1374" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1374" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1374" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1374" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1374" s="4">
+        <v>44260</v>
+      </c>
+      <c r="I1374" s="5"/>
+    </row>
+    <row r="1375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1375" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1375" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1375" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1375" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1375" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="G1375" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1375" s="4">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1376" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1376" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1376" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1376" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1376" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="G1376" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1376" s="4">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1377" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1377" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1377" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1377" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1377" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1377" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1377" s="4">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1378" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1378" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1378" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1378" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1378" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="G1378" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1378" s="4">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1379" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1379" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1379" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1379" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1379" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="G1379" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1379" s="4">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1380" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1380" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1380" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1380" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1380" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="G1380" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1380" s="4">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1381" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1381" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1381" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1381" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1381" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1381" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1381" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1381" s="4">
+        <v>44263</v>
+      </c>
+      <c r="I1381" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1382" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1382" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1382" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1382" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1382" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="G1382" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1382" s="4">
+        <v>44263</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1383" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1383" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1383" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1383" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1383" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1383" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1383" s="4">
+        <v>44263</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1384" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1384" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1384" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1384" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="G1384" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1384" s="4">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1385" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1385" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1385" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1385" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1385" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1385" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1385" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1385" s="4">
+        <v>44264</v>
+      </c>
+      <c r="I1385" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1386" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1386" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1386" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1386" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1386" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1386" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1386" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1386" s="4">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1387" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1387" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1387" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1387" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1387" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1387" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1387" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1387" s="4">
+        <v>44264</v>
+      </c>
+      <c r="I1387" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1388" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1388" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1388" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1388" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1388">
+        <v>1</v>
+      </c>
+      <c r="F1388" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1388" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1388" s="4">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1389" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1389" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1389" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1389" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1389" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="G1389" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1389" s="4">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1390" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1390" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1390" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1390" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1390" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G1390" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1390" s="4">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1391" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1391" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1391" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1391" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1391" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1391" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1391" s="4">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1392" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1392" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1392" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1392" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1392" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1392" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1392" s="4">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1393" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1393" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1393" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1393" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1393" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1393" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1393" s="4">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1394" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1394" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1394" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1394" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1394" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1394" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1394" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1394" s="4">
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1395" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1395" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1395" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1395" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1395" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1395" t="s">
+        <v>663</v>
+      </c>
+      <c r="G1395" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1395" s="4">
+        <v>44265</v>
+      </c>
+      <c r="I1395" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1396" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1396" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1396" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1396" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1396" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1396" t="s">
+        <v>655</v>
+      </c>
+      <c r="G1396" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1396" s="4">
+        <v>44265</v>
+      </c>
+      <c r="I1396" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1397" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1397" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1397" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1397" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1397" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1397" t="s">
+        <v>737</v>
+      </c>
+      <c r="G1397" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1397" s="4">
+        <v>44265</v>
+      </c>
+      <c r="I1397" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1398" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1398" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1398" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1398" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1398" t="s">
+        <v>699</v>
+      </c>
+      <c r="G1398" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1398" s="4">
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1399" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1399" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1399" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1399" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1399" t="s">
+        <v>701</v>
+      </c>
+      <c r="G1399" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1399" s="4">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1400" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1400" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1400" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1400" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1400" t="s">
+        <v>702</v>
+      </c>
+      <c r="G1400" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1400" s="4">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1401" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1401" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1401" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1401" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1401" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1401" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1401" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1401" s="4">
+        <v>44267</v>
+      </c>
+      <c r="I1401" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1402" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1402" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1402" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1402" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1402" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1402" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1402" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1402" s="4">
+        <v>44267</v>
+      </c>
+      <c r="I1402" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1403" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1403" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1403" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1403" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1403" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G1403" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1403" s="4">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1404" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1404" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1404" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1404" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1404" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1404" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1404" s="4">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1405" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1405" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1405" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1405" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1405" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1405" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="G1405" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1405" s="4">
+        <v>44267</v>
+      </c>
+      <c r="I1405" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1406" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1406" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1406" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1406" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1406" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1406" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="G1406" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1406" s="4">
+        <v>44267</v>
+      </c>
+      <c r="I1406" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1407" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1407" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1407" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1407" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1407" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1407" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1407" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1407" s="4">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1408" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1408" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1408" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1408" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1408" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1408" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1408" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1408" s="4">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1409" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1409" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1409" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1409" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1409" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1409" t="s">
+        <v>655</v>
+      </c>
+      <c r="G1409" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1409" s="4">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1410" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1410" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1410" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1410" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1410" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1410" t="s">
+        <v>663</v>
+      </c>
+      <c r="G1410" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1410" s="4">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1411" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1411" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1411" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1411" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1411" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1411" t="s">
+        <v>737</v>
+      </c>
+      <c r="G1411" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1411" s="4">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1412" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1412" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1412">
+        <v>2</v>
+      </c>
+      <c r="F1412" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1412" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1412" s="4">
+        <v>44271</v>
+      </c>
+      <c r="I1412" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1413" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1413" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1413" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1413" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1413" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1413" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1413" s="4">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1414" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1414" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1414" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1414" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1414" t="s">
+        <v>686</v>
+      </c>
+      <c r="G1414" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1414" s="4">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1415" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1415" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1415" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1415" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1415" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1415" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1415" s="4">
+        <v>44271</v>
+      </c>
+      <c r="I1415" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1416" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1416" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1416" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1416" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1416">
+        <v>1</v>
+      </c>
+      <c r="F1416" t="s">
+        <v>738</v>
+      </c>
+      <c r="G1416" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1416" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1417" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1417" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1417" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1417" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1417">
+        <v>1</v>
+      </c>
+      <c r="F1417" t="s">
+        <v>739</v>
+      </c>
+      <c r="G1417" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1417" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1418" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1418" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1418" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1418" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1418">
+        <v>1</v>
+      </c>
+      <c r="F1418" t="s">
+        <v>741</v>
+      </c>
+      <c r="G1418" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1418" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1419" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1419" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1419" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1419" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1419">
+        <v>1</v>
+      </c>
+      <c r="F1419" t="s">
+        <v>742</v>
+      </c>
+      <c r="G1419" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1419" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1420" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1420" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1420" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1420" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1420">
+        <v>1</v>
+      </c>
+      <c r="F1420" t="s">
+        <v>743</v>
+      </c>
+      <c r="G1420" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1420" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1421" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1421" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1421" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1421" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1421" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1421" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1421" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1421" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1422" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1422" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1422" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1422" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1422" t="s">
+        <v>701</v>
+      </c>
+      <c r="G1422" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1422" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1423" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1423" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1423" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1423" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1423" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="G1423" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1423" s="4">
+        <v>44272</v>
+      </c>
+      <c r="I1423" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1424" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1424" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1424" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1424" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1424" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="G1424" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1424" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1425" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1425" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1425" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1425" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1425" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1425" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="G1425" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1425" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1426" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1426" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1426" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1426" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1426" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1426" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="G1426" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1426" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1427" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1427" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1427" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1427" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1427" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1427" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="G1427" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1427" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1428" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1428" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1428" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1428" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1428" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1428" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="G1428" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1428" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1429" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1429" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1429" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1429" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1429" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1429" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1429" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1430" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1430" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1430" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1430" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1430" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1430" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1430" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1431" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1431" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1431" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1431" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1431" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1431" t="s">
+        <v>727</v>
+      </c>
+      <c r="G1431" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1431" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1432" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1432" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1432" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1432" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1432" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1432" t="s">
+        <v>728</v>
+      </c>
+      <c r="G1432" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1432" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1433" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1433" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1433" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1433" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1433" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1433" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1433" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1434" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1434" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1434" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1434" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1434" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>729</v>
+      </c>
+      <c r="G1434" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1434" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1435" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1435" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1435" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1435" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1435" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1435" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1435" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1436" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1436" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1436" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1436" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1436" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1436" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1436" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1437" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1437" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1437" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1437" s="5">
+        <v>7</v>
+      </c>
+      <c r="F1437" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1437" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1437" s="4">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1438" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1438" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1438" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1438" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1438" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1438" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1438" s="4">
+        <v>44273</v>
+      </c>
+      <c r="I1438" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1439" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1439" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1439" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1439" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1439" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="G1439" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1439" s="4">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1440" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1440" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1440" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1440" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1440" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1440" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1440" s="4">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1441" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1441" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1441" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1441" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1441" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="G1441" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1441" s="4">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1442" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1442" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1442" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1442" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1442" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="G1442" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1442" s="4">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1443" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1443" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1443" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1443" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1443" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="G1443" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1443" s="4">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1444" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1444" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1444" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1444" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1444" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="G1444" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1444" s="4">
+        <v>44273</v>
+      </c>
+      <c r="I1444" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1445" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1445" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1445" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1445" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1445" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="G1445" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1445" s="4">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1446" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1446" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1446" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1446" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1446" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>728</v>
+      </c>
+      <c r="G1446" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1446" s="4">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1447" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1447" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1447" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1447" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1447">
+        <v>1</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>739</v>
+      </c>
+      <c r="G1447" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1447" s="4">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1448" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1448" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1448" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1448" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>686</v>
+      </c>
+      <c r="G1448" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1448" s="4">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1449" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1449" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1449" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1449" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1449" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1449" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1449" s="4">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1450" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1450" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1450" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1450" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1450" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1450" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1450" s="4">
+        <v>44274</v>
+      </c>
+      <c r="I1450" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1451" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1451" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1451" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1451" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1451" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1451" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1451" s="4">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1452" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1452" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1452" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1452" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1452" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1452" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1452" s="4">
+        <v>44274</v>
+      </c>
+      <c r="I1452" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1453" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1453" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1453" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1453" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1453" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1453" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1453" s="4">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1454" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1454" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1454" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1454" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1454" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1454" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1454" s="4">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1455" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1455" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1455" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1455" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1455" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1455" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1455" s="4">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1456" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1456" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1456" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1456" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1456" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1456" t="s">
+        <v>729</v>
+      </c>
+      <c r="G1456" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1456" s="4">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1457" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1457" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1457" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1457" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1457" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1457" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1457" s="4">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1458" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1458" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1458">
+        <v>2</v>
+      </c>
+      <c r="F1458" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1458" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1458" s="4">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1459" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1459" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1459" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1459" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1459" t="s">
+        <v>686</v>
+      </c>
+      <c r="G1459" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1459" s="4">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1460" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1460" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1460" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1460" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1460" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1460" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1460" s="4">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1461" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1461" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1461" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1461" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1461" s="5">
+        <v>1</v>
+      </c>
+      <c r="G1461" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1461" s="4">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1462" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1462" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1462">
+        <v>1</v>
+      </c>
+      <c r="F1462" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="G1462" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1462" s="4">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1463" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1463" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1463">
+        <v>1</v>
+      </c>
+      <c r="F1463" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="G1463" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1463" s="4">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1464" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1464" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1464">
+        <v>1</v>
+      </c>
+      <c r="F1464" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="G1464" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1464" s="4">
+        <v>44278</v>
+      </c>
+      <c r="I1464" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1465" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1465" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1465" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1465" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1465" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1465" t="s">
+        <v>740</v>
+      </c>
+      <c r="G1465" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1465" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1466" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1466" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1466" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1466" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1466" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1466" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1466" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1466" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1467" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1467" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1467" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1467" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1467" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1467" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1467" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1467" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1468" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1468" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1468" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1468" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1468">
+        <v>1</v>
+      </c>
+      <c r="F1468" t="s">
+        <v>738</v>
+      </c>
+      <c r="G1468" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1468" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1469" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1469" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1469" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1469" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1469">
+        <v>1</v>
+      </c>
+      <c r="F1469" t="s">
+        <v>741</v>
+      </c>
+      <c r="G1469" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1469" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1470" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1470" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1470" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1470" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1470">
+        <v>1</v>
+      </c>
+      <c r="F1470" t="s">
+        <v>742</v>
+      </c>
+      <c r="G1470" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1470" s="4">
+        <v>44279</v>
+      </c>
+      <c r="I1470" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1471" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1471" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1471" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1471" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1471">
+        <v>1</v>
+      </c>
+      <c r="F1471" t="s">
+        <v>743</v>
+      </c>
+      <c r="G1471" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1471" s="4">
+        <v>44279</v>
+      </c>
+      <c r="I1471" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1472" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1472" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1472" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1472" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1472">
+        <v>1</v>
+      </c>
+      <c r="F1472" t="s">
+        <v>742</v>
+      </c>
+      <c r="G1472" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1472" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1473" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1473" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1473" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1473" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1473">
+        <v>1</v>
+      </c>
+      <c r="F1473" t="s">
+        <v>743</v>
+      </c>
+      <c r="G1473" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1473" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1474" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1474" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1474">
+        <v>1</v>
+      </c>
+      <c r="F1474" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="G1474" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1474" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1475" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1475" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1475">
+        <v>1</v>
+      </c>
+      <c r="F1475" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="G1475" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1475" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1476" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1476" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1476">
+        <v>1</v>
+      </c>
+      <c r="F1476" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="G1476" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1476" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1477" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1477" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1477">
+        <v>1</v>
+      </c>
+      <c r="F1477" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="G1477" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1477" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1478" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1478" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1478">
+        <v>1</v>
+      </c>
+      <c r="F1478" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1478" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1478" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1479" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1479" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1479">
+        <v>1</v>
+      </c>
+      <c r="F1479" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="G1479" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1479" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1480" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1480" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1480">
+        <v>2</v>
+      </c>
+      <c r="F1480" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1480" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1480" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1481" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1481" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1481">
+        <v>1</v>
+      </c>
+      <c r="F1481" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="G1481" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1481" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1482" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1482" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1482">
+        <v>1</v>
+      </c>
+      <c r="F1482" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="G1482" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1482" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1483" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1483" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1483">
+        <v>1</v>
+      </c>
+      <c r="F1483" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G1483" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1483" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1484" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1484" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1484">
+        <v>1</v>
+      </c>
+      <c r="F1484" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G1484" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1484" s="4">
+        <v>44280</v>
+      </c>
+      <c r="I1484" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1485" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1485" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1485">
+        <v>1</v>
+      </c>
+      <c r="F1485" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G1485" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1485" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1486" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1486" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1486">
+        <v>1</v>
+      </c>
+      <c r="F1486" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="G1486" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1486" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1487" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1487" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1487">
+        <v>1</v>
+      </c>
+      <c r="F1487" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="G1487" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1487" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1488" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1488" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1488">
+        <v>1</v>
+      </c>
+      <c r="F1488" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="G1488" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1488" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1489" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1489" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1489">
+        <v>1</v>
+      </c>
+      <c r="F1489" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="G1489" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1489" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1490" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1490" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1490">
+        <v>1</v>
+      </c>
+      <c r="F1490" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="G1490" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1490" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1491" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1491" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1491">
+        <v>1</v>
+      </c>
+      <c r="F1491" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="G1491" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1491" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1492" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1492" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1492" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1492" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1492" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="G1492" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1492" s="4">
+        <v>44280</v>
+      </c>
+      <c r="I1492" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1493" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1493" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1493" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1493" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1493" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="G1493" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1493" s="4">
+        <v>44280</v>
+      </c>
+      <c r="I1493" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1494" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1494" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1494" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1494" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1494" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G1494" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1494" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1495" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1495" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1495" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1495" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1495" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="G1495" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1495" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1496" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1496" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1496" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1496" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1496" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1496" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1496" s="4">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1497" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1497" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1497" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1497" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1497" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1497" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1497" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1497" s="4">
+        <v>44284</v>
+      </c>
+      <c r="I1497" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1498" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1498" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1498" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1498" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1498" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1498" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1498" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1498" s="4">
+        <v>44284</v>
+      </c>
+      <c r="I1498" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1499" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1499" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1499" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1499" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1499" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="G1499" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1499" s="4">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1500" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1500" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1500" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1500" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1500" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1500" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="G1500" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1500" s="4">
+        <v>44284</v>
+      </c>
+      <c r="I1500" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1501" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1501" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1501" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1501" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1501" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1501" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1501" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1501" s="4">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1502" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1502" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1502" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1502" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1502" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1502" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1502" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1502" s="4">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1503" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1503" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1503" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1503" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1503" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1503" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1503" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1503" s="4">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1504" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1504" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1504" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1504" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1504" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1504" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1504" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1504" s="4">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1505" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1505" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1505" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1505" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1505" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1505" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1505" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1505" s="4">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1506" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1506" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1506" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1506" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1506" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1506" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1506" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1506" s="4">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1507" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1507" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1507" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1507" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1507" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1507" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1507" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1507" s="4">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1508" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1508" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1508" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1508" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1508" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1508" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1508" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1508" s="4">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1509" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1509" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1509" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1509" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1509" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1509" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1509" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1509" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1510" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1510" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1510" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1510" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1510" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1510" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1510" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1510" s="4">
+        <v>44287</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1321" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1321">
-      <sortCondition ref="H2:H1321"/>
-      <sortCondition ref="C2:C1321"/>
-      <sortCondition ref="D2:D1321"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1348">
-    <sortCondition ref="H2:H1348"/>
-    <sortCondition ref="C2:C1348"/>
-    <sortCondition ref="D2:D1348"/>
+  <autoFilter ref="A1:J1506" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1510">
+    <sortCondition ref="H2:H1510"/>
+    <sortCondition ref="C2:C1510"/>
+    <sortCondition ref="D2:D1510"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40581,18 +45055,18 @@
           </x14:formula1>
           <xm:sqref>G2:G552 G556 G558:G559 G562:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
-          <x14:formula1>
-            <xm:f>Config!$B$2:$B$115</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C475 C477:C552 C555:C556 C562:C1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF95E1C6-5B3F-419D-ADFD-AA23C2C80F28}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$51</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D552 D555:D1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
+          <x14:formula1>
+            <xm:f>Config!$B$2:$B$116</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C475 C555:C556 C477:C552 C562:C1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>

--- a/data/First Pass Acceptance_Wiesbaden.xlsx
+++ b/data/First Pass Acceptance_Wiesbaden.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24505C85-13DE-448C-BBE5-C806705F248C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23E5399-4131-4EB1-8EB4-11560111741B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
+    <workbookView xWindow="42060" yWindow="1944" windowWidth="22992" windowHeight="18348" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
     <sheet name="FPA" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$1506</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$1669</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9974" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10956" uniqueCount="779">
   <si>
     <t>SQA</t>
   </si>
@@ -2279,6 +2279,99 @@
   </si>
   <si>
     <t>WI_C 27</t>
+  </si>
+  <si>
+    <t>WI_L23</t>
+  </si>
+  <si>
+    <t>Release 01.88.01</t>
+  </si>
+  <si>
+    <t>TP IPDR ID22 DHL Express Web - Dry ice issues</t>
+  </si>
+  <si>
+    <t>UT IPDR ID22 DHL Express Web - Dry ice issues</t>
+  </si>
+  <si>
+    <t>Result UT IPDR ID22 DHL Express Web - Dry ice issues</t>
+  </si>
+  <si>
+    <t>D-PADLIST04-UR-1.2.7.4</t>
+  </si>
+  <si>
+    <t>PD-005425 Warehouse Optimization Part 4.1</t>
+  </si>
+  <si>
+    <t>WI_L24</t>
+  </si>
+  <si>
+    <t>GER 400</t>
+  </si>
+  <si>
+    <t>ATMT</t>
+  </si>
+  <si>
+    <t>SAP Scanner</t>
+  </si>
+  <si>
+    <t>User Training</t>
+  </si>
+  <si>
+    <t>Trigger Table</t>
+  </si>
+  <si>
+    <t>UT PD-005425 - Warehouse Optimization Part 4.1 - Country of Origin</t>
+  </si>
+  <si>
+    <t>TP PD-005425 - Warehouse Optimization Part 4.1 - TP1 - Country of Origin Maintenance Program</t>
+  </si>
+  <si>
+    <t>TP PD-005425 - Warehouse Optimization Part 4.1 - TP2 - Set Country of Origin Pop-up flag</t>
+  </si>
+  <si>
+    <t>TP PD-005425 - Warehouse Optimization Part 4.1 - TP3 - Change Country of Origin Pop-up flag</t>
+  </si>
+  <si>
+    <t>Release 01.03.00</t>
+  </si>
+  <si>
+    <t>Result UT PD-005425 - Warehouse Optimization Part 4.1 - Country of Origin</t>
+  </si>
+  <si>
+    <t>LabSolutions 6.87 OP_DD-I683-R001</t>
+  </si>
+  <si>
+    <t>LabSolutions 6.87 Software Manuals</t>
+  </si>
+  <si>
+    <t>LabSolutions-TC 2.1 Check Manage Projects</t>
+  </si>
+  <si>
+    <t>LIM</t>
+  </si>
+  <si>
+    <t>Release 01.22.00</t>
+  </si>
+  <si>
+    <t>Release 01.57.00</t>
+  </si>
+  <si>
+    <t>INS</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Release 01.00.01</t>
+  </si>
+  <si>
+    <t>WI_L25</t>
   </si>
 </sst>
 </file>
@@ -2755,7 +2848,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>558</v>
+        <v>757</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
@@ -2766,7 +2859,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>746</v>
+        <v>558</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
@@ -2777,7 +2870,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>79</v>
+        <v>746</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
@@ -2788,7 +2881,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>611</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -2799,7 +2892,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>660</v>
+        <v>611</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -2810,7 +2903,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
@@ -2821,7 +2914,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>579</v>
+        <v>661</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
@@ -2832,7 +2925,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>95</v>
+        <v>579</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2843,7 +2936,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>268</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
@@ -2854,7 +2947,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -2865,7 +2958,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>632</v>
+        <v>264</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
@@ -2876,7 +2969,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>265</v>
+        <v>632</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -2884,7 +2977,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C18" t="s">
         <v>668</v>
@@ -2892,7 +2985,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
         <v>669</v>
@@ -2900,7 +2993,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -2908,7 +3001,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
@@ -2916,7 +3009,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>562</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
         <v>49</v>
@@ -2924,7 +3017,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>314</v>
+        <v>562</v>
       </c>
       <c r="C23" t="s">
         <v>272</v>
@@ -2932,7 +3025,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
@@ -2940,7 +3033,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -2948,7 +3041,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>86</v>
+        <v>770</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
@@ -2956,7 +3049,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>625</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
         <v>65</v>
@@ -2964,7 +3057,7 @@
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>442</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -2972,7 +3065,7 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>108</v>
+        <v>625</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
@@ -2980,7 +3073,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
@@ -2988,7 +3081,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>563</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -2996,7 +3089,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
         <v>64</v>
@@ -3004,7 +3097,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>89</v>
+        <v>758</v>
       </c>
       <c r="C33" t="s">
         <v>67</v>
@@ -3012,7 +3105,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>90</v>
+        <v>563</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -3020,7 +3113,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
         <v>257</v>
@@ -3028,7 +3121,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
@@ -3036,7 +3129,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
         <v>114</v>
@@ -3044,7 +3137,7 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -3052,23 +3145,32 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
       <c r="C40" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
       <c r="C41" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
       <c r="C42" t="s">
         <v>72</v>
       </c>
@@ -3119,7 +3221,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C55">
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3129,11 +3231,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J1510"/>
+  <dimension ref="A1:J1669"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1478" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1511" sqref="A1511"/>
+      <pane ySplit="1" topLeftCell="A1648" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1641" sqref="H1641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,14 +3245,14 @@
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="12" style="4" customWidth="1"/>
     <col min="9" max="9" width="32" customWidth="1"/>
     <col min="10" max="10" width="72.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -40756,6 +40858,9 @@
       </c>
     </row>
     <row r="1349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>1</v>
+      </c>
       <c r="B1349" s="5" t="s">
         <v>674</v>
       </c>
@@ -40779,6 +40884,9 @@
       </c>
     </row>
     <row r="1350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>1</v>
+      </c>
       <c r="B1350" s="5" t="s">
         <v>674</v>
       </c>
@@ -40909,6 +41017,9 @@
       </c>
     </row>
     <row r="1355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>1</v>
+      </c>
       <c r="B1355" s="5" t="s">
         <v>267</v>
       </c>
@@ -41010,6 +41121,9 @@
       </c>
     </row>
     <row r="1359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1359" t="s">
+        <v>1</v>
+      </c>
       <c r="B1359" s="5" t="s">
         <v>148</v>
       </c>
@@ -41033,6 +41147,9 @@
       </c>
     </row>
     <row r="1360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1360" t="s">
+        <v>1</v>
+      </c>
       <c r="B1360" s="5" t="s">
         <v>148</v>
       </c>
@@ -41938,26 +42055,26 @@
       <c r="A1394" t="s">
         <v>1</v>
       </c>
-      <c r="B1394" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1394" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1394" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1394" s="5">
+      <c r="B1394" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1394">
         <v>1</v>
       </c>
       <c r="F1394" t="s">
         <v>23</v>
       </c>
-      <c r="G1394" s="5" t="s">
-        <v>29</v>
+      <c r="G1394" t="s">
+        <v>31</v>
       </c>
       <c r="H1394" s="4">
-        <v>44265</v>
+        <v>44264</v>
       </c>
     </row>
     <row r="1395" spans="1:9" x14ac:dyDescent="0.25">
@@ -41971,23 +42088,20 @@
         <v>660</v>
       </c>
       <c r="D1395" s="5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E1395" s="5">
         <v>1</v>
       </c>
       <c r="F1395" t="s">
-        <v>663</v>
+        <v>23</v>
       </c>
       <c r="G1395" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1395" s="4">
         <v>44265</v>
       </c>
-      <c r="I1395" s="5" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="1396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
@@ -42006,7 +42120,7 @@
         <v>1</v>
       </c>
       <c r="F1396" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G1396" s="5" t="s">
         <v>30</v>
@@ -42035,7 +42149,7 @@
         <v>1</v>
       </c>
       <c r="F1397" t="s">
-        <v>737</v>
+        <v>655</v>
       </c>
       <c r="G1397" s="5" t="s">
         <v>30</v>
@@ -42044,279 +42158,270 @@
         <v>44265</v>
       </c>
       <c r="I1397" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1398" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1398" s="5" t="s">
-        <v>2</v>
+      <c r="A1398" t="s">
+        <v>1</v>
       </c>
       <c r="B1398" s="5" t="s">
-        <v>700</v>
+        <v>662</v>
       </c>
       <c r="C1398" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1398" t="s">
-        <v>41</v>
+        <v>660</v>
+      </c>
+      <c r="D1398" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E1398" s="5">
         <v>1</v>
       </c>
       <c r="F1398" t="s">
-        <v>699</v>
-      </c>
-      <c r="G1398" t="s">
-        <v>31</v>
+        <v>737</v>
+      </c>
+      <c r="G1398" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H1398" s="4">
         <v>44265</v>
       </c>
+      <c r="I1398" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1399" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1399" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1399" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1399" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1399" t="s">
+        <v>699</v>
+      </c>
+      <c r="G1399" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1399" s="4">
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1400" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1400">
+        <v>1</v>
+      </c>
+      <c r="F1400" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1400" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1400" s="4">
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1401" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1401" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="C1399" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1399" t="s">
+      <c r="C1401" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1401" t="s">
         <v>10</v>
       </c>
-      <c r="E1399" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1399" t="s">
+      <c r="E1401" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1401" t="s">
         <v>701</v>
       </c>
-      <c r="G1399" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1399" s="4">
+      <c r="G1401" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1401" s="4">
         <v>44266</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1400" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1400" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="C1400" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1400" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1400" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1400" t="s">
-        <v>702</v>
-      </c>
-      <c r="G1400" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1400" s="4">
-        <v>44266</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1401" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1401" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1401" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1401" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1401" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1401" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1401" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1401" s="4">
-        <v>44267</v>
-      </c>
-      <c r="I1401" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="1402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1402" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1402" s="5" t="s">
-        <v>736</v>
+        <v>600</v>
       </c>
       <c r="C1402" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="D1402" s="5" t="s">
-        <v>40</v>
+        <v>85</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>10</v>
       </c>
       <c r="E1402" s="5">
         <v>1</v>
       </c>
-      <c r="F1402" s="5" t="s">
-        <v>23</v>
+      <c r="F1402" t="s">
+        <v>702</v>
       </c>
       <c r="G1402" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1402" s="4">
-        <v>44267</v>
-      </c>
-      <c r="I1402" t="s">
-        <v>15</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="1403" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1403" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1403" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C1403" s="5" t="s">
-        <v>85</v>
+      <c r="A1403" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>442</v>
       </c>
       <c r="D1403" t="s">
-        <v>666</v>
-      </c>
-      <c r="E1403" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1403" s="7" t="s">
-        <v>695</v>
+        <v>44</v>
+      </c>
+      <c r="E1403">
+        <v>1</v>
+      </c>
+      <c r="F1403" t="s">
+        <v>23</v>
       </c>
       <c r="G1403" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1403" s="4">
-        <v>44267</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="1404" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1404" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1404" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="C1404" s="5" t="s">
-        <v>85</v>
+      <c r="A1404" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>442</v>
       </c>
       <c r="D1404" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1404" s="5">
-        <v>2</v>
-      </c>
-      <c r="F1404" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1404">
+        <v>1</v>
+      </c>
+      <c r="F1404" t="s">
         <v>23</v>
       </c>
       <c r="G1404" t="s">
         <v>31</v>
       </c>
       <c r="H1404" s="4">
-        <v>44267</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="1405" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1405" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1405" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="C1405" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1405" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1405" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1405" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="G1405" s="5" t="s">
-        <v>30</v>
+      <c r="A1405" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1405">
+        <v>1</v>
+      </c>
+      <c r="F1405" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1405" t="s">
+        <v>31</v>
       </c>
       <c r="H1405" s="4">
-        <v>44267</v>
-      </c>
-      <c r="I1405" s="5" t="s">
-        <v>15</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="1406" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1406" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1406" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="C1406" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1406" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1406" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1406" s="5" t="s">
-        <v>733</v>
+      <c r="A1406" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1406">
+        <v>1</v>
+      </c>
+      <c r="F1406" t="s">
+        <v>773</v>
       </c>
       <c r="G1406" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1406" s="4">
-        <v>44267</v>
-      </c>
-      <c r="I1406" t="s">
-        <v>15</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="1407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
         <v>1</v>
       </c>
-      <c r="B1407" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1407" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1407" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1407" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1407" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1407" s="5" t="s">
-        <v>29</v>
+      <c r="B1407" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1407">
+        <v>1</v>
+      </c>
+      <c r="F1407" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1407" t="s">
+        <v>31</v>
       </c>
       <c r="H1407" s="4">
-        <v>44270</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="1408" spans="1:9" x14ac:dyDescent="0.25">
@@ -42330,204 +42435,213 @@
         <v>660</v>
       </c>
       <c r="D1408" s="5" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E1408" s="5">
         <v>1</v>
       </c>
-      <c r="F1408" t="s">
+      <c r="F1408" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G1408" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1408" s="4">
-        <v>44270</v>
+        <v>44267</v>
+      </c>
+      <c r="I1408" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="1409" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1409" t="s">
+      <c r="A1409" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1409" s="5" t="s">
-        <v>662</v>
+        <v>736</v>
       </c>
       <c r="C1409" s="5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D1409" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E1409" s="5">
         <v>1</v>
       </c>
-      <c r="F1409" t="s">
-        <v>655</v>
-      </c>
-      <c r="G1409" s="5" t="s">
-        <v>29</v>
+      <c r="F1409" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1409" t="s">
+        <v>30</v>
       </c>
       <c r="H1409" s="4">
-        <v>44270</v>
+        <v>44267</v>
+      </c>
+      <c r="I1409" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1410" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1410" t="s">
-        <v>1</v>
+      <c r="A1410" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B1410" s="5" t="s">
-        <v>662</v>
+        <v>486</v>
       </c>
       <c r="C1410" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1410" s="5" t="s">
-        <v>13</v>
+        <v>85</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>666</v>
       </c>
       <c r="E1410" s="5">
         <v>1</v>
       </c>
-      <c r="F1410" t="s">
-        <v>663</v>
-      </c>
-      <c r="G1410" s="5" t="s">
-        <v>29</v>
+      <c r="F1410" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G1410" t="s">
+        <v>31</v>
       </c>
       <c r="H1410" s="4">
-        <v>44270</v>
+        <v>44267</v>
       </c>
     </row>
     <row r="1411" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1411" t="s">
-        <v>1</v>
+      <c r="A1411" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B1411" s="5" t="s">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="C1411" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1411" s="5" t="s">
-        <v>13</v>
+        <v>85</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>44</v>
       </c>
       <c r="E1411" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1411" t="s">
-        <v>737</v>
-      </c>
-      <c r="G1411" s="5" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="F1411" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1411" t="s">
+        <v>31</v>
       </c>
       <c r="H1411" s="4">
-        <v>44270</v>
+        <v>44267</v>
       </c>
     </row>
     <row r="1412" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1412" t="s">
-        <v>2</v>
+      <c r="A1412" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B1412" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1412" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1412" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1412">
-        <v>2</v>
-      </c>
-      <c r="F1412" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1412" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1412" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1412" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1412" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1412" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="G1412" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H1412" s="4">
-        <v>44271</v>
-      </c>
-      <c r="I1412" t="s">
+        <v>44267</v>
+      </c>
+      <c r="I1412" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="1413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1413" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1413" s="5" t="s">
-        <v>600</v>
+        <v>731</v>
       </c>
       <c r="C1413" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1413" t="s">
-        <v>7</v>
+        <v>108</v>
+      </c>
+      <c r="D1413" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E1413" s="5">
         <v>1</v>
       </c>
-      <c r="F1413" s="7" t="s">
-        <v>23</v>
+      <c r="F1413" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="G1413" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1413" s="4">
-        <v>44271</v>
+        <v>44267</v>
+      </c>
+      <c r="I1413" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1414" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1414" s="5" t="s">
-        <v>2</v>
+      <c r="A1414" t="s">
+        <v>1</v>
       </c>
       <c r="B1414" s="5" t="s">
-        <v>600</v>
+        <v>662</v>
       </c>
       <c r="C1414" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1414" t="s">
-        <v>62</v>
+        <v>660</v>
+      </c>
+      <c r="D1414" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E1414" s="5">
         <v>1</v>
       </c>
-      <c r="F1414" t="s">
-        <v>686</v>
-      </c>
-      <c r="G1414" t="s">
-        <v>31</v>
+      <c r="F1414" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1414" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H1414" s="4">
-        <v>44271</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="1415" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1415" s="5" t="s">
+      <c r="A1415" t="s">
         <v>1</v>
       </c>
       <c r="B1415" s="5" t="s">
-        <v>726</v>
+        <v>662</v>
       </c>
       <c r="C1415" s="5" t="s">
-        <v>88</v>
+        <v>660</v>
       </c>
       <c r="D1415" s="5" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E1415" s="5">
         <v>1</v>
       </c>
-      <c r="G1415" t="s">
-        <v>30</v>
+      <c r="F1415" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1415" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H1415" s="4">
-        <v>44271</v>
-      </c>
-      <c r="I1415" t="s">
-        <v>15</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="1416" spans="1:9" x14ac:dyDescent="0.25">
@@ -42541,19 +42655,19 @@
         <v>660</v>
       </c>
       <c r="D1416" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1416">
+        <v>13</v>
+      </c>
+      <c r="E1416" s="5">
         <v>1</v>
       </c>
       <c r="F1416" t="s">
-        <v>738</v>
-      </c>
-      <c r="G1416" t="s">
-        <v>31</v>
+        <v>655</v>
+      </c>
+      <c r="G1416" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H1416" s="4">
-        <v>44272</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="1417" spans="1:9" x14ac:dyDescent="0.25">
@@ -42567,19 +42681,19 @@
         <v>660</v>
       </c>
       <c r="D1417" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1417">
+        <v>13</v>
+      </c>
+      <c r="E1417" s="5">
         <v>1</v>
       </c>
       <c r="F1417" t="s">
-        <v>739</v>
-      </c>
-      <c r="G1417" t="s">
-        <v>31</v>
+        <v>663</v>
+      </c>
+      <c r="G1417" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H1417" s="4">
-        <v>44272</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="1418" spans="1:9" x14ac:dyDescent="0.25">
@@ -42593,200 +42707,200 @@
         <v>660</v>
       </c>
       <c r="D1418" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1418">
+        <v>13</v>
+      </c>
+      <c r="E1418" s="5">
         <v>1</v>
       </c>
       <c r="F1418" t="s">
-        <v>741</v>
-      </c>
-      <c r="G1418" t="s">
-        <v>31</v>
+        <v>737</v>
+      </c>
+      <c r="G1418" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H1418" s="4">
-        <v>44272</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="1419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1419" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1419" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1419" s="5" t="s">
-        <v>59</v>
+        <v>315</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>13</v>
       </c>
       <c r="E1419">
-        <v>1</v>
-      </c>
-      <c r="F1419" t="s">
-        <v>742</v>
+        <v>2</v>
+      </c>
+      <c r="F1419" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G1419" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1419" s="4">
-        <v>44272</v>
+        <v>44271</v>
+      </c>
+      <c r="I1419" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1420" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1420" t="s">
-        <v>1</v>
+      <c r="A1420" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B1420" s="5" t="s">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="C1420" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1420" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1420">
-        <v>1</v>
-      </c>
-      <c r="F1420" t="s">
-        <v>743</v>
+        <v>85</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1420" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1420" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G1420" t="s">
         <v>31</v>
       </c>
       <c r="H1420" s="4">
-        <v>44272</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="1421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1421" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1421" s="5" t="s">
-        <v>736</v>
+        <v>600</v>
       </c>
       <c r="C1421" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="D1421" s="5" t="s">
-        <v>40</v>
+        <v>85</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>62</v>
       </c>
       <c r="E1421" s="5">
         <v>1</v>
       </c>
-      <c r="F1421" s="5" t="s">
-        <v>23</v>
+      <c r="F1421" t="s">
+        <v>686</v>
       </c>
       <c r="G1421" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1421" s="4">
-        <v>44272</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="1422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1422" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1422" s="5" t="s">
-        <v>600</v>
+        <v>726</v>
       </c>
       <c r="C1422" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1422" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+      <c r="D1422" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E1422" s="5">
         <v>1</v>
       </c>
-      <c r="F1422" t="s">
-        <v>701</v>
-      </c>
       <c r="G1422" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1422" s="4">
-        <v>44272</v>
+        <v>44271</v>
+      </c>
+      <c r="I1422" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1423" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1423" s="5" t="s">
-        <v>2</v>
+      <c r="A1423" t="s">
+        <v>1</v>
       </c>
       <c r="B1423" s="5" t="s">
-        <v>600</v>
+        <v>662</v>
       </c>
       <c r="C1423" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1423" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1423" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1423" s="7" t="s">
-        <v>693</v>
+        <v>660</v>
+      </c>
+      <c r="D1423" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1423">
+        <v>1</v>
+      </c>
+      <c r="F1423" t="s">
+        <v>738</v>
       </c>
       <c r="G1423" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1423" s="4">
         <v>44272</v>
       </c>
-      <c r="I1423" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="1424" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1424" s="5" t="s">
-        <v>2</v>
+      <c r="A1424" t="s">
+        <v>1</v>
       </c>
       <c r="B1424" s="5" t="s">
-        <v>600</v>
+        <v>662</v>
       </c>
       <c r="C1424" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1424" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1424" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1424" s="7" t="s">
-        <v>693</v>
+        <v>660</v>
+      </c>
+      <c r="D1424" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1424">
+        <v>1</v>
+      </c>
+      <c r="F1424" t="s">
+        <v>739</v>
       </c>
       <c r="G1424" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1424" s="4">
         <v>44272</v>
       </c>
     </row>
     <row r="1425" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1425" s="5" t="s">
+      <c r="A1425" t="s">
         <v>1</v>
       </c>
       <c r="B1425" s="5" t="s">
-        <v>731</v>
+        <v>662</v>
       </c>
       <c r="C1425" s="5" t="s">
-        <v>108</v>
+        <v>660</v>
       </c>
       <c r="D1425" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1425" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1425" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="G1425" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1425">
+        <v>1</v>
+      </c>
+      <c r="F1425" t="s">
+        <v>741</v>
+      </c>
+      <c r="G1425" t="s">
         <v>31</v>
       </c>
       <c r="H1425" s="4">
@@ -42794,23 +42908,23 @@
       </c>
     </row>
     <row r="1426" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1426" s="5" t="s">
+      <c r="A1426" t="s">
         <v>1</v>
       </c>
       <c r="B1426" s="5" t="s">
-        <v>731</v>
+        <v>662</v>
       </c>
       <c r="C1426" s="5" t="s">
-        <v>108</v>
+        <v>660</v>
       </c>
       <c r="D1426" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1426" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1426" s="5" t="s">
-        <v>734</v>
+        <v>59</v>
+      </c>
+      <c r="E1426">
+        <v>1</v>
+      </c>
+      <c r="F1426" t="s">
+        <v>742</v>
       </c>
       <c r="G1426" t="s">
         <v>31</v>
@@ -42820,26 +42934,26 @@
       </c>
     </row>
     <row r="1427" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1427" s="5" t="s">
+      <c r="A1427" t="s">
         <v>1</v>
       </c>
       <c r="B1427" s="5" t="s">
-        <v>731</v>
+        <v>662</v>
       </c>
       <c r="C1427" s="5" t="s">
-        <v>108</v>
+        <v>660</v>
       </c>
       <c r="D1427" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1427" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1427" s="5" t="s">
-        <v>725</v>
+        <v>59</v>
+      </c>
+      <c r="E1427">
+        <v>1</v>
+      </c>
+      <c r="F1427" t="s">
+        <v>743</v>
       </c>
       <c r="G1427" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1427" s="4">
         <v>44272</v>
@@ -42850,19 +42964,19 @@
         <v>1</v>
       </c>
       <c r="B1428" s="5" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="C1428" s="5" t="s">
-        <v>108</v>
+        <v>661</v>
       </c>
       <c r="D1428" s="5" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E1428" s="5">
         <v>1</v>
       </c>
       <c r="F1428" s="5" t="s">
-        <v>733</v>
+        <v>23</v>
       </c>
       <c r="G1428" t="s">
         <v>29</v>
@@ -42873,19 +42987,22 @@
     </row>
     <row r="1429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1429" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1429" s="5" t="s">
-        <v>726</v>
+        <v>600</v>
       </c>
       <c r="C1429" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1429" s="5" t="s">
-        <v>7</v>
+        <v>85</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>62</v>
       </c>
       <c r="E1429" s="5">
         <v>1</v>
+      </c>
+      <c r="F1429" t="s">
+        <v>701</v>
       </c>
       <c r="G1429" t="s">
         <v>31</v>
@@ -42896,71 +43013,77 @@
     </row>
     <row r="1430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1430" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1430" s="5" t="s">
-        <v>726</v>
+        <v>600</v>
       </c>
       <c r="C1430" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1430" s="5" t="s">
-        <v>44</v>
+        <v>85</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>60</v>
       </c>
       <c r="E1430" s="5">
         <v>1</v>
       </c>
+      <c r="F1430" s="7" t="s">
+        <v>693</v>
+      </c>
       <c r="G1430" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1430" s="4">
         <v>44272</v>
       </c>
+      <c r="I1430" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1431" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1431" s="5" t="s">
-        <v>726</v>
+        <v>600</v>
       </c>
       <c r="C1431" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1431" s="5" t="s">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>60</v>
       </c>
       <c r="E1431" s="5">
         <v>1</v>
       </c>
-      <c r="F1431" t="s">
-        <v>727</v>
+      <c r="F1431" s="7" t="s">
+        <v>693</v>
       </c>
       <c r="G1431" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1431" s="4">
         <v>44272</v>
       </c>
     </row>
     <row r="1432" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1432" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1432" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="C1432" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1432" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1432" s="5">
+      <c r="A1432" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1432">
         <v>1</v>
       </c>
       <c r="F1432" t="s">
-        <v>728</v>
+        <v>773</v>
       </c>
       <c r="G1432" t="s">
         <v>31</v>
@@ -42974,18 +43097,21 @@
         <v>1</v>
       </c>
       <c r="B1433" s="5" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C1433" s="5" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D1433" s="5" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E1433" s="5">
         <v>1</v>
       </c>
-      <c r="G1433" t="s">
+      <c r="F1433" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="G1433" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1433" s="4">
@@ -42997,19 +43123,19 @@
         <v>1</v>
       </c>
       <c r="B1434" s="5" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C1434" s="5" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D1434" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1434" s="5">
         <v>1</v>
       </c>
-      <c r="F1434" t="s">
-        <v>729</v>
+      <c r="F1434" s="5" t="s">
+        <v>734</v>
       </c>
       <c r="G1434" t="s">
         <v>31</v>
@@ -43023,22 +43149,22 @@
         <v>1</v>
       </c>
       <c r="B1435" s="5" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C1435" s="5" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D1435" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1435" s="5">
         <v>1</v>
       </c>
-      <c r="F1435" t="s">
-        <v>730</v>
+      <c r="F1435" s="5" t="s">
+        <v>725</v>
       </c>
       <c r="G1435" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1435" s="4">
         <v>44272</v>
@@ -43049,19 +43175,22 @@
         <v>1</v>
       </c>
       <c r="B1436" s="5" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C1436" s="5" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D1436" s="5" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E1436" s="5">
         <v>1</v>
       </c>
+      <c r="F1436" s="5" t="s">
+        <v>733</v>
+      </c>
       <c r="G1436" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1436" s="4">
         <v>44272</v>
@@ -43069,216 +43198,198 @@
     </row>
     <row r="1437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1437" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1437" s="5" t="s">
-        <v>600</v>
+        <v>726</v>
       </c>
       <c r="C1437" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1437" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1437" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E1437" s="5">
-        <v>7</v>
-      </c>
-      <c r="F1437" s="7" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G1437" t="s">
         <v>31</v>
       </c>
       <c r="H1437" s="4">
-        <v>44273</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="1438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1438" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1438" s="5" t="s">
-        <v>600</v>
+        <v>726</v>
       </c>
       <c r="C1438" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1438" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+      <c r="D1438" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E1438" s="5">
-        <v>2</v>
-      </c>
-      <c r="F1438" s="7" t="s">
-        <v>697</v>
+        <v>1</v>
       </c>
       <c r="G1438" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1438" s="4">
-        <v>44273</v>
-      </c>
-      <c r="I1438" t="s">
-        <v>22</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="1439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1439" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1439" s="5" t="s">
-        <v>600</v>
+        <v>726</v>
       </c>
       <c r="C1439" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1439" t="s">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="D1439" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E1439" s="5">
         <v>1</v>
       </c>
-      <c r="F1439" s="7" t="s">
-        <v>688</v>
+      <c r="F1439" t="s">
+        <v>727</v>
       </c>
       <c r="G1439" t="s">
         <v>31</v>
       </c>
       <c r="H1439" s="4">
-        <v>44273</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="1440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1440" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1440" s="5" t="s">
-        <v>600</v>
+        <v>726</v>
       </c>
       <c r="C1440" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1440" t="s">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="D1440" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E1440" s="5">
         <v>1</v>
       </c>
-      <c r="F1440" s="7" t="s">
-        <v>692</v>
+      <c r="F1440" t="s">
+        <v>728</v>
       </c>
       <c r="G1440" t="s">
         <v>31</v>
       </c>
       <c r="H1440" s="4">
-        <v>44273</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="1441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1441" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1441" s="5" t="s">
-        <v>600</v>
+        <v>726</v>
       </c>
       <c r="C1441" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1441" t="s">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="D1441" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E1441" s="5">
         <v>1</v>
       </c>
-      <c r="F1441" s="7" t="s">
-        <v>691</v>
-      </c>
       <c r="G1441" t="s">
         <v>31</v>
       </c>
       <c r="H1441" s="4">
-        <v>44273</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="1442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1442" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1442" s="5" t="s">
-        <v>600</v>
+        <v>726</v>
       </c>
       <c r="C1442" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1442" t="s">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="D1442" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E1442" s="5">
         <v>1</v>
       </c>
-      <c r="F1442" s="7" t="s">
-        <v>690</v>
+      <c r="F1442" t="s">
+        <v>729</v>
       </c>
       <c r="G1442" t="s">
         <v>31</v>
       </c>
       <c r="H1442" s="4">
-        <v>44273</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="1443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1443" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1443" s="5" t="s">
-        <v>600</v>
+        <v>726</v>
       </c>
       <c r="C1443" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1443" t="s">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="D1443" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E1443" s="5">
         <v>1</v>
       </c>
-      <c r="F1443" s="7" t="s">
-        <v>691</v>
+      <c r="F1443" t="s">
+        <v>730</v>
       </c>
       <c r="G1443" t="s">
         <v>31</v>
       </c>
       <c r="H1443" s="4">
-        <v>44273</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="1444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1444" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1444" s="5" t="s">
-        <v>600</v>
+        <v>726</v>
       </c>
       <c r="C1444" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1444" t="s">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="D1444" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E1444" s="5">
         <v>1</v>
       </c>
-      <c r="F1444" s="7" t="s">
-        <v>687</v>
-      </c>
       <c r="G1444" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1444" s="4">
-        <v>44273</v>
-      </c>
-      <c r="I1444" t="s">
-        <v>18</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="1445" spans="1:9" x14ac:dyDescent="0.25">
@@ -43292,16 +43403,16 @@
         <v>85</v>
       </c>
       <c r="D1445" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E1445" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F1445" s="7" t="s">
-        <v>687</v>
+        <v>23</v>
       </c>
       <c r="G1445" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1445" s="4">
         <v>44273</v>
@@ -43309,54 +43420,57 @@
     </row>
     <row r="1446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1446" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1446" s="5" t="s">
-        <v>726</v>
+        <v>600</v>
       </c>
       <c r="C1446" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1446" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1446" t="s">
         <v>62</v>
       </c>
       <c r="E1446" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1446" t="s">
-        <v>728</v>
+        <v>2</v>
+      </c>
+      <c r="F1446" s="7" t="s">
+        <v>697</v>
       </c>
       <c r="G1446" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1446" s="4">
         <v>44273</v>
       </c>
+      <c r="I1446" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1447" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1447" t="s">
-        <v>1</v>
+      <c r="A1447" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B1447" s="5" t="s">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="C1447" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1447" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1447" t="s">
         <v>60</v>
       </c>
-      <c r="E1447">
-        <v>1</v>
-      </c>
-      <c r="F1447" t="s">
-        <v>739</v>
+      <c r="E1447" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1447" s="7" t="s">
+        <v>688</v>
       </c>
       <c r="G1447" t="s">
         <v>31</v>
       </c>
       <c r="H1447" s="4">
-        <v>44274</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="1448" spans="1:9" x14ac:dyDescent="0.25">
@@ -43370,19 +43484,19 @@
         <v>85</v>
       </c>
       <c r="D1448" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E1448" s="5">
-        <v>2</v>
-      </c>
-      <c r="F1448" t="s">
-        <v>686</v>
+        <v>1</v>
+      </c>
+      <c r="F1448" s="7" t="s">
+        <v>692</v>
       </c>
       <c r="G1448" t="s">
         <v>31</v>
       </c>
       <c r="H1448" s="4">
-        <v>44274</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="1449" spans="1:9" x14ac:dyDescent="0.25">
@@ -43396,19 +43510,19 @@
         <v>85</v>
       </c>
       <c r="D1449" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E1449" s="5">
         <v>1</v>
       </c>
       <c r="F1449" s="7" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="G1449" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1449" s="4">
-        <v>44274</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="1450" spans="1:9" x14ac:dyDescent="0.25">
@@ -43422,22 +43536,19 @@
         <v>85</v>
       </c>
       <c r="D1450" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E1450" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1450" s="7" t="s">
-        <v>455</v>
+        <v>690</v>
       </c>
       <c r="G1450" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1450" s="4">
-        <v>44274</v>
-      </c>
-      <c r="I1450" t="s">
-        <v>15</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="1451" spans="1:9" x14ac:dyDescent="0.25">
@@ -43451,19 +43562,19 @@
         <v>85</v>
       </c>
       <c r="D1451" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E1451" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1451" s="7" t="s">
-        <v>455</v>
+        <v>691</v>
       </c>
       <c r="G1451" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1451" s="4">
-        <v>44274</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="1452" spans="1:9" x14ac:dyDescent="0.25">
@@ -43477,22 +43588,22 @@
         <v>85</v>
       </c>
       <c r="D1452" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E1452" s="5">
         <v>1</v>
       </c>
       <c r="F1452" s="7" t="s">
-        <v>455</v>
+        <v>687</v>
       </c>
       <c r="G1452" t="s">
         <v>30</v>
       </c>
       <c r="H1452" s="4">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="I1452" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1453" spans="1:9" x14ac:dyDescent="0.25">
@@ -43506,62 +43617,65 @@
         <v>85</v>
       </c>
       <c r="D1453" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E1453" s="5">
         <v>1</v>
       </c>
       <c r="F1453" s="7" t="s">
-        <v>455</v>
+        <v>687</v>
       </c>
       <c r="G1453" t="s">
         <v>29</v>
       </c>
       <c r="H1453" s="4">
-        <v>44274</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="1454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1454" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1454" s="5" t="s">
-        <v>600</v>
+        <v>726</v>
       </c>
       <c r="C1454" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1454" t="s">
-        <v>70</v>
+        <v>88</v>
+      </c>
+      <c r="D1454" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E1454" s="5">
         <v>1</v>
       </c>
-      <c r="F1454" s="7" t="s">
-        <v>23</v>
+      <c r="F1454" t="s">
+        <v>728</v>
       </c>
       <c r="G1454" t="s">
         <v>31</v>
       </c>
       <c r="H1454" s="4">
-        <v>44274</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="1455" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1455" s="5" t="s">
+      <c r="A1455" t="s">
         <v>1</v>
       </c>
       <c r="B1455" s="5" t="s">
-        <v>726</v>
+        <v>662</v>
       </c>
       <c r="C1455" s="5" t="s">
-        <v>88</v>
+        <v>660</v>
       </c>
       <c r="D1455" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1455" s="5">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="E1455">
+        <v>1</v>
+      </c>
+      <c r="F1455" t="s">
+        <v>739</v>
       </c>
       <c r="G1455" t="s">
         <v>31</v>
@@ -43572,22 +43686,22 @@
     </row>
     <row r="1456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1456" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1456" s="5" t="s">
-        <v>726</v>
+        <v>600</v>
       </c>
       <c r="C1456" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1456" s="5" t="s">
-        <v>60</v>
+        <v>85</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>10</v>
       </c>
       <c r="E1456" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1456" t="s">
-        <v>729</v>
+        <v>686</v>
       </c>
       <c r="G1456" t="s">
         <v>31</v>
@@ -43598,54 +43712,57 @@
     </row>
     <row r="1457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1457" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1457" s="5" t="s">
-        <v>726</v>
+        <v>600</v>
       </c>
       <c r="C1457" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1457" s="5" t="s">
-        <v>60</v>
+        <v>85</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>62</v>
       </c>
       <c r="E1457" s="5">
         <v>1</v>
       </c>
-      <c r="F1457" t="s">
-        <v>730</v>
+      <c r="F1457" s="7" t="s">
+        <v>697</v>
       </c>
       <c r="G1457" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1457" s="4">
         <v>44274</v>
       </c>
     </row>
     <row r="1458" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1458" t="s">
+      <c r="A1458" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1458" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1458" t="s">
-        <v>314</v>
+        <v>600</v>
+      </c>
+      <c r="C1458" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D1458" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1458">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="E1458" s="5">
+        <v>3</v>
       </c>
       <c r="F1458" s="7" t="s">
-        <v>23</v>
+        <v>455</v>
       </c>
       <c r="G1458" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1458" s="4">
-        <v>44277</v>
+        <v>44274</v>
+      </c>
+      <c r="I1458" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1459" spans="1:9" x14ac:dyDescent="0.25">
@@ -43659,19 +43776,19 @@
         <v>85</v>
       </c>
       <c r="D1459" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E1459" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1459" t="s">
-        <v>686</v>
+        <v>3</v>
+      </c>
+      <c r="F1459" s="7" t="s">
+        <v>455</v>
       </c>
       <c r="G1459" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1459" s="4">
-        <v>44277</v>
+        <v>44274</v>
       </c>
     </row>
     <row r="1460" spans="1:9" x14ac:dyDescent="0.25">
@@ -43685,337 +43802,331 @@
         <v>85</v>
       </c>
       <c r="D1460" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E1460" s="5">
         <v>1</v>
       </c>
       <c r="F1460" s="7" t="s">
-        <v>23</v>
+        <v>455</v>
       </c>
       <c r="G1460" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1460" s="4">
-        <v>44277</v>
+        <v>44274</v>
+      </c>
+      <c r="I1460" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1461" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1461" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1461" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1461" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1461" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1461" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1461" s="4">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1462" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1462" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1462" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1462" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1462" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1462" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1462" s="4">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1463" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1463" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="C1461" s="5" t="s">
+      <c r="C1463" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D1461" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1461" s="5">
-        <v>1</v>
-      </c>
-      <c r="G1461" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1461" s="4">
-        <v>44277</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1462" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1462" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1462" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1462" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1462">
-        <v>1</v>
-      </c>
-      <c r="F1462" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="G1462" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1462" s="4">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1463" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1463" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1463" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1463" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1463">
-        <v>1</v>
-      </c>
-      <c r="F1463" s="7" t="s">
-        <v>704</v>
+      <c r="D1463" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1463" s="5">
+        <v>1</v>
       </c>
       <c r="G1463" t="s">
         <v>31</v>
       </c>
       <c r="H1463" s="4">
-        <v>44278</v>
+        <v>44274</v>
       </c>
     </row>
     <row r="1464" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1464" t="s">
-        <v>2</v>
+      <c r="A1464" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B1464" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1464" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1464" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1464">
-        <v>1</v>
-      </c>
-      <c r="F1464" s="7" t="s">
-        <v>705</v>
+        <v>726</v>
+      </c>
+      <c r="C1464" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1464" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1464" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1464" t="s">
+        <v>729</v>
       </c>
       <c r="G1464" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1464" s="4">
-        <v>44278</v>
-      </c>
-      <c r="I1464" t="s">
-        <v>15</v>
+        <v>44274</v>
       </c>
     </row>
     <row r="1465" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1465" t="s">
+      <c r="A1465" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1465" s="5" t="s">
-        <v>662</v>
+        <v>726</v>
       </c>
       <c r="C1465" s="5" t="s">
-        <v>660</v>
+        <v>88</v>
       </c>
       <c r="D1465" s="5" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E1465" s="5">
         <v>1</v>
       </c>
       <c r="F1465" t="s">
-        <v>740</v>
-      </c>
-      <c r="G1465" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1465" t="s">
         <v>31</v>
       </c>
       <c r="H1465" s="4">
-        <v>44279</v>
+        <v>44274</v>
       </c>
     </row>
     <row r="1466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1466" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1466" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1466" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1466" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1466" s="5">
-        <v>2</v>
-      </c>
-      <c r="F1466" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1466" s="5" t="s">
-        <v>31</v>
+        <v>315</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1466">
+        <v>2</v>
+      </c>
+      <c r="F1466" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1466" t="s">
+        <v>29</v>
       </c>
       <c r="H1466" s="4">
-        <v>44279</v>
+        <v>44277</v>
       </c>
     </row>
     <row r="1467" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1467" t="s">
-        <v>1</v>
+      <c r="A1467" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B1467" s="5" t="s">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="C1467" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1467" s="5" t="s">
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>62</v>
       </c>
       <c r="E1467" s="5">
         <v>1</v>
       </c>
       <c r="F1467" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1467" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="G1467" t="s">
         <v>31</v>
       </c>
       <c r="H1467" s="4">
-        <v>44279</v>
+        <v>44277</v>
       </c>
     </row>
     <row r="1468" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1468" t="s">
-        <v>1</v>
+      <c r="A1468" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B1468" s="5" t="s">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="C1468" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1468" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1468">
-        <v>1</v>
-      </c>
-      <c r="F1468" t="s">
-        <v>738</v>
+        <v>85</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1468" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1468" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G1468" t="s">
         <v>31</v>
       </c>
       <c r="H1468" s="4">
-        <v>44279</v>
+        <v>44277</v>
       </c>
     </row>
     <row r="1469" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1469" t="s">
+      <c r="A1469" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1469" s="5" t="s">
-        <v>662</v>
+        <v>726</v>
       </c>
       <c r="C1469" s="5" t="s">
-        <v>660</v>
+        <v>88</v>
       </c>
       <c r="D1469" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1469">
-        <v>1</v>
-      </c>
-      <c r="F1469" t="s">
-        <v>741</v>
+        <v>64</v>
+      </c>
+      <c r="E1469" s="5">
+        <v>1</v>
       </c>
       <c r="G1469" t="s">
         <v>31</v>
       </c>
       <c r="H1469" s="4">
-        <v>44279</v>
+        <v>44277</v>
       </c>
     </row>
     <row r="1470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1470" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1470" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1470" s="5" t="s">
-        <v>60</v>
+        <v>315</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>59</v>
       </c>
       <c r="E1470">
         <v>1</v>
       </c>
-      <c r="F1470" t="s">
-        <v>742</v>
+      <c r="F1470" s="7" t="s">
+        <v>703</v>
       </c>
       <c r="G1470" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1470" s="4">
-        <v>44279</v>
-      </c>
-      <c r="I1470" t="s">
-        <v>15</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="1471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1471" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1471" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1471" s="5" t="s">
-        <v>60</v>
+        <v>315</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>59</v>
       </c>
       <c r="E1471">
         <v>1</v>
       </c>
-      <c r="F1471" t="s">
-        <v>743</v>
+      <c r="F1471" s="7" t="s">
+        <v>704</v>
       </c>
       <c r="G1471" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1471" s="4">
-        <v>44279</v>
-      </c>
-      <c r="I1471" t="s">
-        <v>15</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="1472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1472" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1472" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1472" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1472" s="5" t="s">
-        <v>60</v>
+        <v>315</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>59</v>
       </c>
       <c r="E1472">
         <v>1</v>
       </c>
-      <c r="F1472" t="s">
-        <v>742</v>
+      <c r="F1472" s="7" t="s">
+        <v>705</v>
       </c>
       <c r="G1472" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1472" s="4">
-        <v>44279</v>
+        <v>44278</v>
+      </c>
+      <c r="I1472" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1473" spans="1:9" x14ac:dyDescent="0.25">
@@ -44029,16 +44140,16 @@
         <v>660</v>
       </c>
       <c r="D1473" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1473">
+        <v>10</v>
+      </c>
+      <c r="E1473" s="5">
         <v>1</v>
       </c>
       <c r="F1473" t="s">
-        <v>743</v>
-      </c>
-      <c r="G1473" t="s">
-        <v>29</v>
+        <v>740</v>
+      </c>
+      <c r="G1473" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H1473" s="4">
         <v>44279</v>
@@ -44046,24 +44157,24 @@
     </row>
     <row r="1474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1474" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1474" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1474" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1474" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1474">
-        <v>1</v>
-      </c>
-      <c r="F1474" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="G1474" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1474" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1474" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1474" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1474" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1474" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1474" s="4">
@@ -44072,24 +44183,24 @@
     </row>
     <row r="1475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1475" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1475" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1475" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1475" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1475">
-        <v>1</v>
-      </c>
-      <c r="F1475" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="G1475" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1475" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1475" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1475" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1475" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1475" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1475" s="4">
@@ -44098,22 +44209,22 @@
     </row>
     <row r="1476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1476" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1476" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1476" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1476" t="s">
-        <v>59</v>
+        <v>662</v>
+      </c>
+      <c r="C1476" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1476" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E1476">
         <v>1</v>
       </c>
-      <c r="F1476" s="7" t="s">
-        <v>708</v>
+      <c r="F1476" t="s">
+        <v>738</v>
       </c>
       <c r="G1476" t="s">
         <v>31</v>
@@ -44124,22 +44235,22 @@
     </row>
     <row r="1477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1477" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1477" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1477" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1477" t="s">
-        <v>59</v>
+        <v>662</v>
+      </c>
+      <c r="C1477" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1477" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E1477">
         <v>1</v>
       </c>
-      <c r="F1477" s="7" t="s">
-        <v>709</v>
+      <c r="F1477" t="s">
+        <v>741</v>
       </c>
       <c r="G1477" t="s">
         <v>31</v>
@@ -44150,106 +44261,112 @@
     </row>
     <row r="1478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1478" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1478" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1478" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1478" t="s">
-        <v>59</v>
+        <v>662</v>
+      </c>
+      <c r="C1478" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1478" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E1478">
         <v>1</v>
       </c>
-      <c r="F1478" s="7" t="s">
-        <v>710</v>
+      <c r="F1478" t="s">
+        <v>742</v>
       </c>
       <c r="G1478" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1478" s="4">
         <v>44279</v>
       </c>
+      <c r="I1478" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1479" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1479" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1479" t="s">
-        <v>59</v>
+        <v>662</v>
+      </c>
+      <c r="C1479" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1479" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E1479">
         <v>1</v>
       </c>
-      <c r="F1479" s="7" t="s">
-        <v>711</v>
+      <c r="F1479" t="s">
+        <v>743</v>
       </c>
       <c r="G1479" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1479" s="4">
         <v>44279</v>
       </c>
+      <c r="I1479" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1480" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1480" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1480" t="s">
-        <v>7</v>
+        <v>662</v>
+      </c>
+      <c r="C1480" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1480" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E1480">
-        <v>2</v>
-      </c>
-      <c r="F1480" s="7" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="F1480" t="s">
+        <v>742</v>
       </c>
       <c r="G1480" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1480" s="4">
-        <v>44280</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="1481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1481" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1481" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1481" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1481" t="s">
-        <v>59</v>
+        <v>662</v>
+      </c>
+      <c r="C1481" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1481" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E1481">
         <v>1</v>
       </c>
-      <c r="F1481" s="7" t="s">
-        <v>705</v>
+      <c r="F1481" t="s">
+        <v>743</v>
       </c>
       <c r="G1481" t="s">
         <v>29</v>
       </c>
       <c r="H1481" s="4">
-        <v>44280</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="1482" spans="1:9" x14ac:dyDescent="0.25">
@@ -44269,13 +44386,13 @@
         <v>1</v>
       </c>
       <c r="F1482" s="7" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G1482" t="s">
         <v>31</v>
       </c>
       <c r="H1482" s="4">
-        <v>44280</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="1483" spans="1:9" x14ac:dyDescent="0.25">
@@ -44295,13 +44412,13 @@
         <v>1</v>
       </c>
       <c r="F1483" s="7" t="s">
-        <v>713</v>
+        <v>769</v>
       </c>
       <c r="G1483" t="s">
         <v>31</v>
       </c>
       <c r="H1483" s="4">
-        <v>44280</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="1484" spans="1:9" x14ac:dyDescent="0.25">
@@ -44321,16 +44438,13 @@
         <v>1</v>
       </c>
       <c r="F1484" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G1484" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1484" s="4">
-        <v>44280</v>
-      </c>
-      <c r="I1484" t="s">
-        <v>15</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="1485" spans="1:9" x14ac:dyDescent="0.25">
@@ -44350,13 +44464,13 @@
         <v>1</v>
       </c>
       <c r="F1485" s="7" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G1485" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1485" s="4">
-        <v>44280</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="1486" spans="1:9" x14ac:dyDescent="0.25">
@@ -44376,13 +44490,13 @@
         <v>1</v>
       </c>
       <c r="F1486" s="7" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="G1486" t="s">
         <v>31</v>
       </c>
       <c r="H1486" s="4">
-        <v>44280</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="1487" spans="1:9" x14ac:dyDescent="0.25">
@@ -44402,13 +44516,13 @@
         <v>1</v>
       </c>
       <c r="F1487" s="7" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G1487" t="s">
         <v>31</v>
       </c>
       <c r="H1487" s="4">
-        <v>44280</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="1488" spans="1:9" x14ac:dyDescent="0.25">
@@ -44428,24 +44542,24 @@
         <v>1</v>
       </c>
       <c r="F1488" s="7" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G1488" t="s">
         <v>31</v>
       </c>
       <c r="H1488" s="4">
-        <v>44280</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="1489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1489" s="5" t="s">
-        <v>315</v>
+        <v>1</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>772</v>
       </c>
       <c r="C1489" t="s">
-        <v>314</v>
+        <v>442</v>
       </c>
       <c r="D1489" t="s">
         <v>59</v>
@@ -44453,25 +44567,25 @@
       <c r="E1489">
         <v>1</v>
       </c>
-      <c r="F1489" s="7" t="s">
-        <v>717</v>
+      <c r="F1489" t="s">
+        <v>479</v>
       </c>
       <c r="G1489" t="s">
         <v>31</v>
       </c>
       <c r="H1489" s="4">
-        <v>44280</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="1490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1490" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1490" s="5" t="s">
-        <v>315</v>
+        <v>1</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>772</v>
       </c>
       <c r="C1490" t="s">
-        <v>314</v>
+        <v>442</v>
       </c>
       <c r="D1490" t="s">
         <v>59</v>
@@ -44479,14 +44593,14 @@
       <c r="E1490">
         <v>1</v>
       </c>
-      <c r="F1490" s="7" t="s">
-        <v>719</v>
+      <c r="F1490" t="s">
+        <v>776</v>
       </c>
       <c r="G1490" t="s">
         <v>31</v>
       </c>
       <c r="H1490" s="4">
-        <v>44280</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="1491" spans="1:9" x14ac:dyDescent="0.25">
@@ -44500,13 +44614,13 @@
         <v>314</v>
       </c>
       <c r="D1491" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E1491">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1491" s="7" t="s">
-        <v>704</v>
+        <v>23</v>
       </c>
       <c r="G1491" t="s">
         <v>31</v>
@@ -44516,81 +44630,75 @@
       </c>
     </row>
     <row r="1492" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1492" s="5" t="s">
+      <c r="A1492" t="s">
         <v>2</v>
       </c>
       <c r="B1492" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="C1492" s="5" t="s">
-        <v>85</v>
+        <v>315</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>314</v>
       </c>
       <c r="D1492" t="s">
-        <v>667</v>
-      </c>
-      <c r="E1492" s="5">
+        <v>59</v>
+      </c>
+      <c r="E1492">
         <v>1</v>
       </c>
       <c r="F1492" s="7" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="G1492" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1492" s="4">
         <v>44280</v>
       </c>
-      <c r="I1492" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1493" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1493" s="5" t="s">
+      <c r="A1493" t="s">
         <v>2</v>
       </c>
       <c r="B1493" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="C1493" s="5" t="s">
-        <v>85</v>
+        <v>315</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>314</v>
       </c>
       <c r="D1493" t="s">
-        <v>668</v>
-      </c>
-      <c r="E1493" s="5">
+        <v>59</v>
+      </c>
+      <c r="E1493">
         <v>1</v>
       </c>
       <c r="F1493" s="7" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="G1493" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1493" s="4">
         <v>44280</v>
       </c>
-      <c r="I1493" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1494" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1494" s="5" t="s">
+      <c r="A1494" t="s">
         <v>2</v>
       </c>
       <c r="B1494" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="C1494" s="5" t="s">
-        <v>85</v>
+        <v>315</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>314</v>
       </c>
       <c r="D1494" t="s">
-        <v>668</v>
-      </c>
-      <c r="E1494" s="5">
+        <v>59</v>
+      </c>
+      <c r="E1494">
         <v>1</v>
       </c>
       <c r="F1494" s="7" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="G1494" t="s">
         <v>31</v>
@@ -44600,436 +44708,4639 @@
       </c>
     </row>
     <row r="1495" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1495" s="5" t="s">
+      <c r="A1495" t="s">
         <v>2</v>
       </c>
       <c r="B1495" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="C1495" s="5" t="s">
-        <v>85</v>
+        <v>315</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>314</v>
       </c>
       <c r="D1495" t="s">
-        <v>668</v>
-      </c>
-      <c r="E1495" s="5">
+        <v>59</v>
+      </c>
+      <c r="E1495">
         <v>1</v>
       </c>
       <c r="F1495" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="G1495" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1495" s="4">
         <v>44280</v>
       </c>
+      <c r="I1495" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1496" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1496" s="5" t="s">
+      <c r="A1496" t="s">
         <v>2</v>
       </c>
       <c r="B1496" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="C1496" s="5" t="s">
-        <v>85</v>
+        <v>315</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>314</v>
       </c>
       <c r="D1496" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1496" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1496" t="s">
-        <v>723</v>
+        <v>59</v>
+      </c>
+      <c r="E1496">
+        <v>1</v>
+      </c>
+      <c r="F1496" s="7" t="s">
+        <v>714</v>
       </c>
       <c r="G1496" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1496" s="4">
-        <v>44281</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="1497" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1497" s="5" t="s">
-        <v>1</v>
+      <c r="A1497" t="s">
+        <v>2</v>
       </c>
       <c r="B1497" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="C1497" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="D1497" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1497" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1497" s="5" t="s">
-        <v>23</v>
+        <v>315</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1497">
+        <v>1</v>
+      </c>
+      <c r="F1497" s="7" t="s">
+        <v>715</v>
       </c>
       <c r="G1497" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1497" s="4">
-        <v>44284</v>
-      </c>
-      <c r="I1497" t="s">
-        <v>22</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="1498" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1498" s="5" t="s">
-        <v>1</v>
+      <c r="A1498" t="s">
+        <v>2</v>
       </c>
       <c r="B1498" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="C1498" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="D1498" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1498" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1498" s="5" t="s">
-        <v>23</v>
+        <v>315</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1498">
+        <v>1</v>
+      </c>
+      <c r="F1498" s="7" t="s">
+        <v>716</v>
       </c>
       <c r="G1498" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1498" s="4">
-        <v>44284</v>
-      </c>
-      <c r="I1498" t="s">
-        <v>22</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="1499" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1499" s="5" t="s">
+      <c r="A1499" t="s">
         <v>2</v>
       </c>
       <c r="B1499" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="C1499" s="5" t="s">
-        <v>85</v>
+        <v>315</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>314</v>
       </c>
       <c r="D1499" t="s">
-        <v>667</v>
-      </c>
-      <c r="E1499" s="5">
+        <v>59</v>
+      </c>
+      <c r="E1499">
         <v>1</v>
       </c>
       <c r="F1499" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G1499" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1499" s="4">
-        <v>44284</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="1500" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1500" s="5" t="s">
-        <v>1</v>
+      <c r="A1500" t="s">
+        <v>2</v>
       </c>
       <c r="B1500" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="C1500" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1500" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1500" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1500" s="5" t="s">
-        <v>735</v>
+        <v>315</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1500">
+        <v>1</v>
+      </c>
+      <c r="F1500" s="7" t="s">
+        <v>717</v>
       </c>
       <c r="G1500" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1500" s="4">
-        <v>44284</v>
-      </c>
-      <c r="I1500" t="s">
-        <v>12</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="1501" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1501" s="5" t="s">
-        <v>1</v>
+      <c r="A1501" t="s">
+        <v>2</v>
       </c>
       <c r="B1501" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="C1501" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1501" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1501" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1501" s="5" t="s">
-        <v>23</v>
+        <v>315</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1501">
+        <v>1</v>
+      </c>
+      <c r="F1501" s="7" t="s">
+        <v>719</v>
       </c>
       <c r="G1501" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1501" s="4">
-        <v>44286</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="1502" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1502" s="5" t="s">
-        <v>1</v>
+      <c r="A1502" t="s">
+        <v>2</v>
       </c>
       <c r="B1502" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="C1502" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1502" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1502" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1502" s="5" t="s">
-        <v>23</v>
+        <v>315</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1502">
+        <v>1</v>
+      </c>
+      <c r="F1502" s="7" t="s">
+        <v>704</v>
       </c>
       <c r="G1502" t="s">
         <v>31</v>
       </c>
       <c r="H1502" s="4">
-        <v>44286</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="1503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1503" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1503" s="5" t="s">
-        <v>671</v>
+        <v>581</v>
       </c>
       <c r="C1503" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1503" s="5" t="s">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>667</v>
       </c>
       <c r="E1503" s="5">
         <v>1</v>
       </c>
-      <c r="F1503" s="5" t="s">
-        <v>23</v>
+      <c r="F1503" s="7" t="s">
+        <v>720</v>
       </c>
       <c r="G1503" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1503" s="4">
-        <v>44286</v>
+        <v>44280</v>
+      </c>
+      <c r="I1503" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1504" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1504" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1504" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1504" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1504" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="G1504" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1504" s="4">
+        <v>44280</v>
+      </c>
+      <c r="I1504" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1505" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1505" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1505" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1505" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1505" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G1505" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1505" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1506" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1506" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1506" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1506" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1506" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="G1506" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1506" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1507" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1507">
+        <v>1</v>
+      </c>
+      <c r="F1507" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1507" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1507" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1508" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1508">
+        <v>1</v>
+      </c>
+      <c r="F1508" t="s">
+        <v>774</v>
+      </c>
+      <c r="G1508" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1508" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1509" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1509">
+        <v>1</v>
+      </c>
+      <c r="F1509" t="s">
+        <v>775</v>
+      </c>
+      <c r="G1509" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1509" s="4">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1510" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1510" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1510" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1510" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1510" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1510" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1510" s="4">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1511" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1511" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1511" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1511" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1511" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1511" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1511" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1511" s="4">
+        <v>44284</v>
+      </c>
+      <c r="I1511" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1512" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1512" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1512" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1512" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1512" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1512" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1512" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1512" s="4">
+        <v>44284</v>
+      </c>
+      <c r="I1512" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1513" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1513" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1513" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1513" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1513" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="G1513" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1513" s="4">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1514" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1514" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1514" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1514" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1514" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1514" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="G1514" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1514" s="4">
+        <v>44284</v>
+      </c>
+      <c r="I1514" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1515" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1515" t="s">
         <v>671</v>
       </c>
-      <c r="C1504" s="5" t="s">
+      <c r="C1515" t="s">
         <v>83</v>
       </c>
-      <c r="D1504" s="5" t="s">
+      <c r="D1515" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1515">
+        <v>1</v>
+      </c>
+      <c r="F1515" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1515" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1515" s="4">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1516" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1516" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1516" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1516" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1516" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1516" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1516" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1516" s="4">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1517" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1517" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1517" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1517" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1517" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1517" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1517" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1517" s="4">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1518" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1518" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1518" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1518" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1518" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1518" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1518" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1518" s="4">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1519" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1519" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1519" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1519" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E1504" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1504" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1504" t="s">
+      <c r="E1519" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1519" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1519" t="s">
         <v>29</v>
       </c>
-      <c r="H1504" s="4">
+      <c r="H1519" s="4">
         <v>44286</v>
       </c>
     </row>
-    <row r="1505" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1505" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1505" s="5" t="s">
+    <row r="1520" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1520" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1520" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="C1505" s="5" t="s">
+      <c r="C1520" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D1505" s="5" t="s">
+      <c r="D1520" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E1505" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1505" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1505" t="s">
+      <c r="E1520" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1520" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1520" t="s">
         <v>29</v>
       </c>
-      <c r="H1505" s="4">
+      <c r="H1520" s="4">
         <v>44286</v>
       </c>
     </row>
-    <row r="1506" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1506" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1506" s="5" t="s">
+    <row r="1521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1521" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1521" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="C1506" s="5" t="s">
+      <c r="C1521" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D1506" s="5" t="s">
+      <c r="D1521" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E1506" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1506" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1506" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1506" s="4">
+      <c r="E1521" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1521" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1521" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1521" s="4">
         <v>44286</v>
       </c>
     </row>
-    <row r="1507" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1507" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1507" s="5" t="s">
+    <row r="1522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1522" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1522" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="C1507" s="5" t="s">
+      <c r="C1522" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D1507" s="5" t="s">
+      <c r="D1522" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E1507" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1507" t="s">
+      <c r="E1522" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1522" t="s">
         <v>232</v>
       </c>
-      <c r="G1507" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1507" s="4">
+      <c r="G1522" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1522" s="4">
         <v>44286</v>
       </c>
     </row>
-    <row r="1508" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1508" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1508" s="5" t="s">
+    <row r="1523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1523" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1523" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="C1508" s="5" t="s">
+      <c r="C1523" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D1508" s="5" t="s">
+      <c r="D1523" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1508" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1508" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1508" t="s">
+      <c r="E1523" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1523" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1523" t="s">
         <v>29</v>
       </c>
-      <c r="H1508" s="4">
+      <c r="H1523" s="4">
         <v>44286</v>
       </c>
     </row>
-    <row r="1509" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1509" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1509" s="5" t="s">
+    <row r="1524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1524" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1524">
+        <v>1</v>
+      </c>
+      <c r="F1524" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1524" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1524" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1525" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1525">
+        <v>1</v>
+      </c>
+      <c r="F1525" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1525" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1525" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1526" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1526">
+        <v>1</v>
+      </c>
+      <c r="F1526" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1526" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1526" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1527" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1527">
+        <v>1</v>
+      </c>
+      <c r="F1527" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1527" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1527" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1528" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1528">
+        <v>1</v>
+      </c>
+      <c r="F1528" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1528" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1528" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1529" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1529">
+        <v>1</v>
+      </c>
+      <c r="F1529" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1529" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1529" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1530" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1530">
+        <v>1</v>
+      </c>
+      <c r="F1530" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1530" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1530" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1531" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1531" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="C1509" s="5" t="s">
+      <c r="C1531" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="D1509" s="5" t="s">
+      <c r="D1531" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E1509" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1509" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1509" t="s">
+      <c r="E1531" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1531" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1531" t="s">
         <v>29</v>
       </c>
-      <c r="H1509" s="4">
+      <c r="H1531" s="4">
         <v>44287</v>
       </c>
     </row>
-    <row r="1510" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1510" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1510" s="5" t="s">
+    <row r="1532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1532" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1532" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="C1510" s="5" t="s">
+      <c r="C1532" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="D1510" s="5" t="s">
+      <c r="D1532" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1510" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1510" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1510" t="s">
+      <c r="E1532" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1532" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1532" t="s">
         <v>29</v>
       </c>
-      <c r="H1510" s="4">
+      <c r="H1532" s="4">
         <v>44287</v>
       </c>
     </row>
+    <row r="1533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1533" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1533">
+        <v>1</v>
+      </c>
+      <c r="F1533" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1533" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1533" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1534" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1534">
+        <v>1</v>
+      </c>
+      <c r="F1534" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1534" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1534" s="4">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1535" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1535">
+        <v>1</v>
+      </c>
+      <c r="F1535" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1535" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1535" s="4">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1536" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1536">
+        <v>1</v>
+      </c>
+      <c r="F1536" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1536" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1536" s="4">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1537" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1537">
+        <v>1</v>
+      </c>
+      <c r="F1537" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1537" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1537" s="4">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1538" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1538">
+        <v>1</v>
+      </c>
+      <c r="F1538" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1538" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1538" s="4">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1539" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1539">
+        <v>1</v>
+      </c>
+      <c r="F1539" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1539" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1539" s="4">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1540">
+        <v>1</v>
+      </c>
+      <c r="F1540" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1540" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1540" s="4">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1541">
+        <v>1</v>
+      </c>
+      <c r="F1541" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1541" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1541" s="4">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1542" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1542">
+        <v>1</v>
+      </c>
+      <c r="F1542" t="s">
+        <v>480</v>
+      </c>
+      <c r="G1542" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1542" s="4">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1543" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1543">
+        <v>1</v>
+      </c>
+      <c r="F1543" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1543" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1543" s="4">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1544" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1544">
+        <v>1</v>
+      </c>
+      <c r="F1544" t="s">
+        <v>480</v>
+      </c>
+      <c r="G1544" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1544" s="4">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1545" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1545">
+        <v>1</v>
+      </c>
+      <c r="F1545" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1545" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1545" s="4">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1546" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1546">
+        <v>1</v>
+      </c>
+      <c r="F1546" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1546" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1546" s="4">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1547" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1547">
+        <v>1</v>
+      </c>
+      <c r="F1547" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1547" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1547" s="4">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1548" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1548" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1548" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1548" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1548" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="G1548" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1548" s="4">
+        <v>44298</v>
+      </c>
+      <c r="I1548" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1549" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1549" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1549" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1549" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1549" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="G1549" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1549" s="4">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1550" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1550">
+        <v>1</v>
+      </c>
+      <c r="F1550" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1550" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1550" s="4">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1551" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1551">
+        <v>1</v>
+      </c>
+      <c r="F1551" t="s">
+        <v>735</v>
+      </c>
+      <c r="G1551" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1551" s="4">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1552" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1552">
+        <v>1</v>
+      </c>
+      <c r="F1552" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1552" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1552" s="4">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1553" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1553" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1553">
+        <v>1</v>
+      </c>
+      <c r="F1553" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1553" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1553" s="4">
+        <v>44301</v>
+      </c>
+      <c r="I1553" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1554" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1554">
+        <v>1</v>
+      </c>
+      <c r="F1554" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1554" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1554" s="4">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1555" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1555">
+        <v>1</v>
+      </c>
+      <c r="F1555" t="s">
+        <v>775</v>
+      </c>
+      <c r="G1555" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1555" s="4">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1556" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1556">
+        <v>1</v>
+      </c>
+      <c r="F1556" t="s">
+        <v>480</v>
+      </c>
+      <c r="G1556" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1556" s="4">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1557" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1557">
+        <v>1</v>
+      </c>
+      <c r="F1557" t="s">
+        <v>773</v>
+      </c>
+      <c r="G1557" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1557" s="4">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1558" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1558">
+        <v>1</v>
+      </c>
+      <c r="F1558" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1558" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1558" s="4">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1559" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1559">
+        <v>1</v>
+      </c>
+      <c r="F1559" t="s">
+        <v>776</v>
+      </c>
+      <c r="G1559" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1559" s="4">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1560" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1560">
+        <v>1</v>
+      </c>
+      <c r="F1560" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1560" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1560" s="4">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1561">
+        <v>1</v>
+      </c>
+      <c r="F1561" t="s">
+        <v>480</v>
+      </c>
+      <c r="G1561" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1561" s="4">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1562" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1562">
+        <v>1</v>
+      </c>
+      <c r="F1562" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1562" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1562" s="4">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1563" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>746</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1563">
+        <v>1</v>
+      </c>
+      <c r="F1563" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1563" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1563" s="4">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1564">
+        <v>1</v>
+      </c>
+      <c r="F1564" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1564" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1564" s="4">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1565" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1565" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1565" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1565" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1565" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1565" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1565" s="4">
+        <v>44302</v>
+      </c>
+      <c r="I1565" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1566" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1566" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1566" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1566" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1566" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1566" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1566" s="4">
+        <v>44302</v>
+      </c>
+      <c r="I1566" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1567" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1567">
+        <v>1</v>
+      </c>
+      <c r="F1567" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1567" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1567" s="4">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1568" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1568">
+        <v>1</v>
+      </c>
+      <c r="F1568" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1568" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1568" s="4">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1569" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1569">
+        <v>1</v>
+      </c>
+      <c r="F1569" t="s">
+        <v>480</v>
+      </c>
+      <c r="G1569" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1569" s="4">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1570">
+        <v>1</v>
+      </c>
+      <c r="F1570" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1570" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1570" s="4">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1571">
+        <v>1</v>
+      </c>
+      <c r="F1571" t="s">
+        <v>775</v>
+      </c>
+      <c r="G1571" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1571" s="4">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1572" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1572" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1572" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1572" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1572" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="G1572" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1572" s="4">
+        <v>44305</v>
+      </c>
+      <c r="I1572" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1573" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1573" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1573" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1573" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1573" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="G1573" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1573" s="4">
+        <v>44305</v>
+      </c>
+      <c r="I1573" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1574" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1574" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1574" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1574" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1574" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1574" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1574" s="4">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1575" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1575" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1575" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1575" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1575" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1575" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1575" s="4">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1576" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1576" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1576" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1576" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1576" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1576" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1576" s="4">
+        <v>44305</v>
+      </c>
+      <c r="I1576" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1577" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1577" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1577" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1577" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1577" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1577" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1577" s="4">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1578">
+        <v>1</v>
+      </c>
+      <c r="F1578" t="s">
+        <v>531</v>
+      </c>
+      <c r="G1578" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1578" s="4">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1579">
+        <v>2</v>
+      </c>
+      <c r="F1579" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1579" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1579" s="4">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1580" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1580">
+        <v>1</v>
+      </c>
+      <c r="F1580" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1580" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1580" s="4">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1581" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1581" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1581" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1581" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1581" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1581" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1581" s="4">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1582" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1582" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1582" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1582" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1582" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G1582" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1582" s="4">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1583" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1583" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1583" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1583" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1583" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="G1583" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1583" s="4">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1584" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1584" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1584" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1584" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1584" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G1584" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1584" s="4">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1585" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1585">
+        <v>1</v>
+      </c>
+      <c r="F1585" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1585" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1585" s="4">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1586" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1586">
+        <v>1</v>
+      </c>
+      <c r="F1586" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1586" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1586" s="4">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1587" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1587">
+        <v>1</v>
+      </c>
+      <c r="F1587" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1587" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1587" s="4">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1588" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1588">
+        <v>1</v>
+      </c>
+      <c r="F1588" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1588" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1588" s="4">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1589" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1589">
+        <v>1</v>
+      </c>
+      <c r="F1589" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1589" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1589" s="4">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1590" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1590" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1590" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1590" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1590" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="G1590" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1590" s="4">
+        <v>44307</v>
+      </c>
+      <c r="I1590" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1591" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1591" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1591" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1591" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1591" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="G1591" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1591" s="4">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1592" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1592">
+        <v>1</v>
+      </c>
+      <c r="F1592" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1592" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1592" s="4">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1593">
+        <v>1</v>
+      </c>
+      <c r="F1593" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1593" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1593" s="4">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1594">
+        <v>1</v>
+      </c>
+      <c r="F1594" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1594" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1594" s="4">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1595" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1595" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1595" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1595" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1595" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1595" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1595" s="4">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1596" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1596" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1596" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1596" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1596" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1596" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1596" s="4">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1597" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1597" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1597" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1597" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1597" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1597" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1597" s="4">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1598" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1598" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1598" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1598" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1598" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G1598" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1598" s="4">
+        <v>44312</v>
+      </c>
+      <c r="I1598" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1599" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1599" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1599" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1599" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1599" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1599" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1599" s="4">
+        <v>44312</v>
+      </c>
+      <c r="I1599" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1600" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1600" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1600" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1600" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1600" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="G1600" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1600" s="4">
+        <v>44312</v>
+      </c>
+      <c r="I1600" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1601" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1601" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1601" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1601" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1601" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1601" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1601" s="4">
+        <v>44312</v>
+      </c>
+      <c r="I1601" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1602" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1602" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1602" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1602" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1602" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1602" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1602" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1603" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1603" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1603" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1603" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1603" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1603" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1603" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1604" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1604">
+        <v>1</v>
+      </c>
+      <c r="F1604" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1604" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1604" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1605" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1605" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1605" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1605" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1605" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G1605" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1605" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1606" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1606" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1606" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1606" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1606" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1606" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1606" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1607" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1607" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1607" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1607" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1607" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1607" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1607" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1608" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1608" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1608" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1608" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1608" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="G1608" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1608" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1609" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1609" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1609" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1609" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1609" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G1609" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1609" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1610" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1610" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1610" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1610" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1610" t="s">
+        <v>696</v>
+      </c>
+      <c r="G1610" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1610" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1611" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1611" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1611" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1611" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1611" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1611" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1611" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1612" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1612" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1612" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1612" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1612" t="s">
+        <v>762</v>
+      </c>
+      <c r="G1612" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1612" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1613" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1613" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1613" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1613" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1613" t="s">
+        <v>763</v>
+      </c>
+      <c r="G1613" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1613" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1614" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1614" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1614" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1614" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1614" t="s">
+        <v>764</v>
+      </c>
+      <c r="G1614" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1614" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1615" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1615" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1615" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1615" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1615" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1615" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1615" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1616" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1616" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1616" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1616" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1616" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1616" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1617" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1617" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1617" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1617" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1617" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1617" s="4">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1618" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1618" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1618" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1618" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1618" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="G1618" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1618" s="4">
+        <v>44314</v>
+      </c>
+      <c r="I1618" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1619" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1619" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1619" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1619" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1619" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="G1619" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1619" s="4">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1620" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1620" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1620">
+        <v>1</v>
+      </c>
+      <c r="F1620" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="G1620" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1620" s="4">
+        <v>44315</v>
+      </c>
+      <c r="I1620" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1621" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1621" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1621">
+        <v>1</v>
+      </c>
+      <c r="F1621" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="G1621" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1621" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1622" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1622" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1622">
+        <v>1</v>
+      </c>
+      <c r="F1622" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="G1622" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1622" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1623" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1623" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1623">
+        <v>1</v>
+      </c>
+      <c r="F1623" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="G1623" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1623" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1624" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1624" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1624">
+        <v>1</v>
+      </c>
+      <c r="F1624" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="G1624" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1624" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1625" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1625" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1625">
+        <v>1</v>
+      </c>
+      <c r="F1625" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="G1625" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1625" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1626" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1626" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1626">
+        <v>1</v>
+      </c>
+      <c r="F1626" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="G1626" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1626" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1627" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1627" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1627">
+        <v>1</v>
+      </c>
+      <c r="F1627" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="G1627" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1627" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1628" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1628" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1628">
+        <v>1</v>
+      </c>
+      <c r="F1628" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1628" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1628" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1629" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1629" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1629">
+        <v>1</v>
+      </c>
+      <c r="F1629" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="G1629" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1629" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1630" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1630" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1630">
+        <v>1</v>
+      </c>
+      <c r="F1630" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="G1630" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1630" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1631" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1631" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1631">
+        <v>1</v>
+      </c>
+      <c r="F1631" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G1631" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1631" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1632" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1632" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1632">
+        <v>1</v>
+      </c>
+      <c r="F1632" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G1632" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1632" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1633" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1633" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1633">
+        <v>1</v>
+      </c>
+      <c r="F1633" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="G1633" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1633" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1634" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1634" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1634">
+        <v>1</v>
+      </c>
+      <c r="F1634" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="G1634" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1634" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1635" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1635" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1635">
+        <v>1</v>
+      </c>
+      <c r="F1635" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="G1635" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1635" s="4">
+        <v>44315</v>
+      </c>
+      <c r="I1635" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1636" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1636" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1636">
+        <v>1</v>
+      </c>
+      <c r="F1636" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="G1636" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1636" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1637" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1637" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1637">
+        <v>1</v>
+      </c>
+      <c r="F1637" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="G1637" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1637" s="4">
+        <v>44315</v>
+      </c>
+      <c r="I1637" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1638" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1638" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1638" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1638" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1638" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="G1638" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1638" s="4">
+        <v>44315</v>
+      </c>
+      <c r="I1638" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1639" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1639" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1639" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1639" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1639" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="G1639" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1639" s="4">
+        <v>44315</v>
+      </c>
+      <c r="I1639" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1640" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1640" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1640" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1640" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1640" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1640" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="G1640" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1640" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1641" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1641" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1641" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1641" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1641" t="s">
+        <v>756</v>
+      </c>
+      <c r="G1641" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1641" s="4">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1642" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1642" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1642" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1642" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1642" t="s">
+        <v>762</v>
+      </c>
+      <c r="G1642" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1642" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1643" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1643" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1643" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1643" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1643" t="s">
+        <v>763</v>
+      </c>
+      <c r="G1643" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1643" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1644" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1644" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1644" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1644" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1644" t="s">
+        <v>764</v>
+      </c>
+      <c r="G1644" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1644" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1645" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1645" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1645">
+        <v>1</v>
+      </c>
+      <c r="F1645" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="G1645" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1645" s="4">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1646" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1646" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1646">
+        <v>1</v>
+      </c>
+      <c r="F1646" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="G1646" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1646" s="4">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1647" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1647" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1647">
+        <v>1</v>
+      </c>
+      <c r="F1647" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="G1647" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1647" s="4">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1648" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1648" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1648">
+        <v>1</v>
+      </c>
+      <c r="F1648" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="G1648" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1648" s="4">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1649" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1649">
+        <v>1</v>
+      </c>
+      <c r="F1649" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1649" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1649" s="4">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1650" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1650" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1650" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1650" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1650" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="G1650" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1650" s="4">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1651" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1651" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1651" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1651" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1651" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1651" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1651" s="4">
+        <v>44316</v>
+      </c>
+      <c r="I1651" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1652" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1652">
+        <v>1</v>
+      </c>
+      <c r="F1652" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1652" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1652" s="4">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1653" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1653" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1653">
+        <v>2</v>
+      </c>
+      <c r="F1653" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="G1653" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1653" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1654" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1654" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1654">
+        <v>2</v>
+      </c>
+      <c r="F1654" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="G1654" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1654" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1655" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1655" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1655">
+        <v>2</v>
+      </c>
+      <c r="F1655" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="G1655" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1655" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1656" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1656" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1656">
+        <v>2</v>
+      </c>
+      <c r="F1656" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="G1656" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1656" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1657" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1657" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1657">
+        <v>2</v>
+      </c>
+      <c r="F1657" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1657" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1657" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1658" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1658" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1658">
+        <v>2</v>
+      </c>
+      <c r="F1658" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="G1658" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1658" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1659" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1659" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1659">
+        <v>2</v>
+      </c>
+      <c r="F1659" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="G1659" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1659" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1660" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1660" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1660">
+        <v>2</v>
+      </c>
+      <c r="F1660" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G1660" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1660" s="4">
+        <v>44319</v>
+      </c>
+      <c r="I1660" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1661" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1661" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1661">
+        <v>3</v>
+      </c>
+      <c r="F1661" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G1661" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1661" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1662" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1662" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1662">
+        <v>2</v>
+      </c>
+      <c r="F1662" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="G1662" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1662" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1663" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1663" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1663">
+        <v>2</v>
+      </c>
+      <c r="F1663" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="G1663" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1663" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1664" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1664" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1664">
+        <v>2</v>
+      </c>
+      <c r="F1664" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="G1664" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1664" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1665" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1665" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1665">
+        <v>1</v>
+      </c>
+      <c r="F1665" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1665" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1665" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1666" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1666" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1666">
+        <v>1</v>
+      </c>
+      <c r="F1666" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1666" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1666" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1667" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1667" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1667" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1667" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1667" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="G1667" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1667" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1668" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1668" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1668" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1668" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1668" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1668" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1668" s="4">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1669" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1669" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1669" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1669" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1669" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="G1669" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1669" s="4">
+        <v>44319</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1506" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1510">
-    <sortCondition ref="H2:H1510"/>
-    <sortCondition ref="C2:C1510"/>
-    <sortCondition ref="D2:D1510"/>
+  <autoFilter ref="A1:J1669" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1652">
+    <sortCondition ref="H2:H1652"/>
+    <sortCondition ref="C2:C1652"/>
+    <sortCondition ref="D2:D1652"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45041,31 +49352,31 @@
           <x14:formula1>
             <xm:f>Config!$D$2:$D$16</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I300 I302:I1048576</xm:sqref>
+          <xm:sqref>I2:I300 I302:I1583 I1663:I1048576 I1585:I1661</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7C869D3-BE0F-4D79-B0ED-E3C1B1A79587}">
           <x14:formula1>
             <xm:f>Config!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A552 A555:A556 A562:A1048576</xm:sqref>
+          <xm:sqref>A2:A552 A555:A556 A562:A1583 A1585:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4764F04E-0C3B-462E-9979-614E31EB05C7}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G552 G556 G558:G559 G562:G1048576</xm:sqref>
+          <xm:sqref>G2:G552 G556 G558:G559 G562:G1583 G1585:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF95E1C6-5B3F-419D-ADFD-AA23C2C80F28}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$51</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D552 D555:D1048576</xm:sqref>
+          <xm:sqref>D2:D552 D555:D1583 D1585:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
           <x14:formula1>
-            <xm:f>Config!$B$2:$B$116</xm:f>
+            <xm:f>Config!$B$2:$B$119</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C475 C555:C556 C477:C552 C562:C1048576</xm:sqref>
+          <xm:sqref>C2:C475 C562:C1583 C555:C556 C477:C552 C1585:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
